--- a/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
+++ b/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hughes\Data\PK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugjh001\Documents\LEN_PopPK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="TERM_SE_AIC_SHK_PVAL_MASTER" sheetId="1" r:id="rId1"/>
+    <sheet name="TERM_SE_AIC_SHK_PVAL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="79">
   <si>
     <t>X1</t>
   </si>
@@ -54,21 +54,114 @@
     <t>lowestPVAL</t>
   </si>
   <si>
+    <t>RUN006_1C1AwA_PPV_CORCLV_KA</t>
+  </si>
+  <si>
     <t>Successful</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
+    <t>RUN019_DES_1C1AwA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN026_DES_1C1AwA_PPV_CORCLVKAF</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>RUN011_2C1AwA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN017_1C1AwEA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN004_1C1A_PPV_CORCLV_KA</t>
+  </si>
+  <si>
+    <t>RUN016_DES_1C1A_PPV_CORCLV_KA</t>
+  </si>
+  <si>
+    <t>RUN010_2C1A_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN027_1C1AwA_PPV_CORCLVKA_FFIX</t>
+  </si>
+  <si>
+    <t>RUN005_1C1A_PPV_CLVKA</t>
+  </si>
+  <si>
+    <t>RUN018_DES_1C1A_PPV_CLVKA</t>
+  </si>
+  <si>
+    <t>RUN009_2C1A_PPV_CLVKA</t>
+  </si>
+  <si>
+    <t>RUN008_2C1A_PPV_CLV</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>RUN002_1C1A_PPV_CLV</t>
+  </si>
+  <si>
+    <t>RUN025_1C1AwA_PPV_CORCLV_KAF</t>
+  </si>
+  <si>
+    <t>RUN013_1C1AwA_PPV_CLVKA</t>
+  </si>
+  <si>
+    <t>YG_27_Lena06003_Base_24hr_fixLAG_allinfo_CLLn30_CLVratio</t>
+  </si>
+  <si>
+    <t>RUN014_1C1AwEA_PPV_CLVKA</t>
+  </si>
+  <si>
+    <t>RUN020_DES_1C2TA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN001_1C1A_PPV_CL</t>
+  </si>
+  <si>
+    <t>RUN022_DES_1C2TAwA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN003_1C1A_PPV_CORCLV</t>
+  </si>
+  <si>
+    <t>RUN023_DES_1C3TAwA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN024_DES_1C2TAwEA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN021_DES_1C3TA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN012_1C1AwA_PPV_CORCLVKA_LAG</t>
+  </si>
+  <si>
+    <t>RUN015_1C1A_PPV_CORCLV_KA_LAG</t>
+  </si>
+  <si>
+    <t>RUN007_2C1A_PPV_CL</t>
+  </si>
+  <si>
     <t>COMP</t>
   </si>
   <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>ADVAN</t>
+  </si>
+  <si>
     <t>TRANS</t>
   </si>
   <si>
@@ -78,59 +171,98 @@
     <t>PPVV1</t>
   </si>
   <si>
-    <t>PPVV2</t>
-  </si>
-  <si>
-    <t>PPVQ</t>
+    <t>PPVKA</t>
+  </si>
+  <si>
+    <t>ALLOM</t>
   </si>
   <si>
     <t>COR</t>
   </si>
   <si>
-    <t>ABS</t>
+    <t>EXTRA</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>CL&amp;V</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F1 FIX</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>2TRANS</t>
+  </si>
+  <si>
+    <t>3TRANS</t>
+  </si>
+  <si>
+    <t>1+LAG</t>
+  </si>
+  <si>
+    <t>N?</t>
+  </si>
+  <si>
+    <t>CLV Ratio</t>
+  </si>
+  <si>
+    <t>1+LAGFIX</t>
+  </si>
+  <si>
     <t>COMMENTS</t>
   </si>
   <si>
     <t>Very low V1 with high %se</t>
   </si>
   <si>
-    <t>RUN001_1C1A_PPV_CL</t>
-  </si>
-  <si>
-    <t>RUN002_1C1A_PPV_CLV</t>
-  </si>
-  <si>
-    <t>RUN003_1C1A_PPV_CORCLV</t>
-  </si>
-  <si>
-    <t>RUN004_1C1A_PPV_CORCLV_KA</t>
-  </si>
-  <si>
-    <t>RUN005_1C1A_PPV_CLVKA</t>
-  </si>
-  <si>
-    <t>ADVAN</t>
-  </si>
-  <si>
-    <t>PPVKA</t>
-  </si>
-  <si>
-    <t>CL &amp; V</t>
+    <t>PPV on KA does a lot!</t>
+  </si>
+  <si>
+    <t>CL &amp; V much better off when correlated</t>
+  </si>
+  <si>
+    <t>Allometric theory gives a bit of a boost</t>
+  </si>
+  <si>
+    <t>POPV3 is effectively zero, 2comp not likely</t>
+  </si>
+  <si>
+    <t>Resulting thetas 0.71 and 0.93</t>
+  </si>
+  <si>
+    <t>Identical to ADVAN, $DES is a success</t>
+  </si>
+  <si>
+    <t>Oddly low thetas as compared without correlated ETAs</t>
+  </si>
+  <si>
+    <t>Same as ADVAN</t>
+  </si>
+  <si>
+    <t>Final structural model from OSU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +397,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +582,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -607,9 +757,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,68 +1085,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="22" max="22" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="7.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="22" max="22" width="50.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -1021,339 +1169,2112 @@
       <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R2" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S2" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T2" s="4">
+        <v>18.219799999999999</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0.35448400000000002</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P3" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R3" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S3" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T3" s="4">
+        <v>18.22</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0.35374499999999998</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>-7340.6790000000001</v>
+      </c>
+      <c r="T4">
+        <v>18.219899999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.35380800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>-7360.84</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>-7338.84</v>
+      </c>
+      <c r="T5">
+        <v>18.248000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.35722999999999999</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>-7353.53</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6">
+        <v>-7331.53</v>
+      </c>
+      <c r="T6">
+        <v>18.205200000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.34934300000000001</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R7">
+        <v>13.3834586466165</v>
+      </c>
+      <c r="S7">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T7">
+        <v>18.380800000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.348858</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R8">
+        <v>13.4962406015038</v>
+      </c>
+      <c r="S8">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T8">
+        <v>18.379300000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.349408</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>-7343.5069999999996</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>-7321.5069999999996</v>
+      </c>
+      <c r="T9">
+        <v>18.3887</v>
+      </c>
+      <c r="U9">
+        <v>0.35704900000000001</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>-7314.5810000000001</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>33.236994219653198</v>
+      </c>
+      <c r="R10">
+        <v>63.206106870229</v>
+      </c>
+      <c r="S10">
+        <v>-7294.5810000000001</v>
+      </c>
+      <c r="T10">
+        <v>64.828199999999995</v>
+      </c>
+      <c r="U10">
+        <v>0.41000700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>-7305.2420000000002</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>32.456140350877199</v>
+      </c>
+      <c r="R11">
+        <v>14.7206165703276</v>
+      </c>
+      <c r="S11">
+        <v>-7289.2420000000002</v>
+      </c>
+      <c r="T11">
+        <v>18.4377</v>
+      </c>
+      <c r="U11">
+        <v>0.38063399999999997</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>-7305.2420000000002</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>32.456140350877199</v>
+      </c>
+      <c r="R12">
+        <v>14.701348747591499</v>
+      </c>
+      <c r="S12">
+        <v>-7289.2420000000002</v>
+      </c>
+      <c r="T12">
+        <v>18.436399999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.38163799999999998</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <v>-7305.2520000000004</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13">
+        <v>-7285.2520000000004</v>
+      </c>
+      <c r="T13">
+        <v>18.490600000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.38619799999999999</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <v>-7096.0879999999997</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>-7078.0879999999997</v>
+      </c>
+      <c r="T14">
+        <v>4.2718999999999996</v>
+      </c>
+      <c r="U14">
+        <v>0.384436</v>
+      </c>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>-7080.0150000000003</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>20.9978768577495</v>
+      </c>
+      <c r="R15">
+        <v>9.7751124437781094</v>
+      </c>
+      <c r="S15">
+        <v>-7066.0150000000003</v>
+      </c>
+      <c r="T15">
+        <v>12.4293</v>
+      </c>
+      <c r="U15">
+        <v>0.36684600000000001</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>-6914.9369999999999</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>-6892.9369999999999</v>
+      </c>
+      <c r="T16">
+        <v>51.304000000000002</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.1262399999999999E-53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17">
+        <v>-6858.2439999999997</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17">
+        <v>-6842.2439999999997</v>
+      </c>
+      <c r="T17">
+        <v>69.619900000000001</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4.0198100000000001E-82</v>
+      </c>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-6843.326</v>
+      </c>
+      <c r="P18" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>23.647294589178401</v>
+      </c>
+      <c r="R18" s="2">
+        <v>12.0670391061453</v>
+      </c>
+      <c r="S18" s="2">
+        <v>-6831.326</v>
+      </c>
+      <c r="T18" s="2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.36738399999999999</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>-6802.9390000000003</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <v>-6782.9390000000003</v>
+      </c>
+      <c r="T19">
+        <v>77.094399999999993</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.3424400000000001E-99</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>-6724.8</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <v>-6706.8</v>
+      </c>
+      <c r="T20">
+        <v>7.0359100000000003</v>
+      </c>
+      <c r="U20">
+        <v>2.0918699999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>-6356.9009999999998</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>79.203539823008896</v>
+      </c>
+      <c r="R21">
+        <v>23.452768729641701</v>
+      </c>
+      <c r="S21">
+        <v>-6344.9009999999998</v>
+      </c>
+      <c r="T21">
+        <v>3.2928799999999998</v>
+      </c>
+      <c r="U21">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>-6350.29</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <v>-6332.29</v>
+      </c>
+      <c r="T22">
+        <v>86.391499999999994</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4.6201599999999999E-9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>-6225.8220000000001</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <v>24.582338902147999</v>
+      </c>
+      <c r="R23">
+        <v>14.7272727272727</v>
+      </c>
+      <c r="S23">
+        <v>-6209.8220000000001</v>
+      </c>
+      <c r="T23">
+        <v>15.906700000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.37484600000000001</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24">
+        <v>-6100.2849999999999</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24">
+        <v>-6082.2849999999999</v>
+      </c>
+      <c r="T24">
+        <v>90.063199999999995</v>
+      </c>
+      <c r="U24">
+        <v>0.38760299999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>-6100.2979999999998</v>
+      </c>
+      <c r="P25">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q25" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <v>-6078.2979999999998</v>
+      </c>
+      <c r="T25">
+        <v>68.788300000000007</v>
+      </c>
+      <c r="U25">
+        <v>0.38660499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" t="s">
         <v>12</v>
       </c>
-      <c r="O2">
-        <v>-6356.9009999999998</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2">
-        <v>79.203539823008896</v>
-      </c>
-      <c r="R2">
-        <v>23.452768729641701</v>
-      </c>
-      <c r="S2">
-        <v>-6344.9009999999998</v>
-      </c>
-      <c r="T2">
-        <v>3.27969</v>
-      </c>
-      <c r="U2">
-        <v>0.99008099999999999</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>-6087.1779999999999</v>
+      </c>
+      <c r="P26">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26">
+        <v>-6069.1779999999999</v>
+      </c>
+      <c r="T26">
+        <v>51.606000000000002</v>
+      </c>
+      <c r="U26">
+        <v>0.373386</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <v>-5773.9939999999997</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>23.621262458471801</v>
+      </c>
+      <c r="R27">
+        <v>18.7332053742802</v>
+      </c>
+      <c r="S27">
+        <v>-5753.9939999999997</v>
+      </c>
+      <c r="T27">
+        <v>24.648700000000002</v>
+      </c>
+      <c r="U27">
+        <v>0.182335</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>-5762.0389999999998</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>24.248366013071902</v>
+      </c>
+      <c r="R28">
+        <v>17.730496453900699</v>
+      </c>
+      <c r="S28">
+        <v>-5742.0389999999998</v>
+      </c>
+      <c r="T28">
+        <v>24.850200000000001</v>
+      </c>
+      <c r="U28">
+        <v>0.172901</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" t="s">
         <v>28</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>-6160.1210000000001</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3">
-        <v>-6146.1210000000001</v>
-      </c>
-      <c r="T3">
-        <v>26.175799999999999</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1.50338E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>-6225.8220000000001</v>
-      </c>
-      <c r="P4">
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29">
+        <v>-5526.2460000000001</v>
+      </c>
+      <c r="P29">
         <v>8</v>
       </c>
-      <c r="Q4">
-        <v>24.582338902147999</v>
-      </c>
-      <c r="R4">
-        <v>14.7272727272727</v>
-      </c>
-      <c r="S4">
-        <v>-6209.8220000000001</v>
-      </c>
-      <c r="T4">
-        <v>15.9039</v>
-      </c>
-      <c r="U4">
-        <v>0.37433100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P5">
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R5">
-        <v>13.458646616541399</v>
-      </c>
-      <c r="S5">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T5">
-        <v>18.383400000000002</v>
-      </c>
-      <c r="U5">
-        <v>0.34918500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P6">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R6">
-        <v>14.7206165703276</v>
-      </c>
-      <c r="S6">
-        <v>-7289.2420000000002</v>
-      </c>
-      <c r="T6">
-        <v>18.4377</v>
-      </c>
-      <c r="U6">
-        <v>0.38063399999999997</v>
-      </c>
+      <c r="Q29" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29">
+        <v>-5510.2460000000001</v>
+      </c>
+      <c r="T29">
+        <v>13.9314</v>
+      </c>
+      <c r="U29">
+        <v>3.1708600000000001E-4</v>
+      </c>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:AJ29">
+    <sortCondition ref="S2:S29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
+++ b/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="119">
   <si>
     <t>X1</t>
   </si>
@@ -213,9 +213,6 @@
     <t>N?</t>
   </si>
   <si>
-    <t>CLV Ratio</t>
-  </si>
-  <si>
     <t>1+LAGFIX</t>
   </si>
   <si>
@@ -340,6 +337,48 @@
   </si>
   <si>
     <t>4TRANS</t>
+  </si>
+  <si>
+    <t>RUN041_1C1AwAP_PPV_RATCLV_KA</t>
+  </si>
+  <si>
+    <t>RUN042_1C1AwAP_BOVPPV_RATCLV_KA</t>
+  </si>
+  <si>
+    <t>RUN043_1C1AwAP_BOVPPV_RATCLVKA_LAG1</t>
+  </si>
+  <si>
+    <t>RUN044_1C1AwAP_BOVPPV_CORCLVKA_LAG1</t>
+  </si>
+  <si>
+    <t>RUN100_TRANSIT_MULTIDOSE</t>
+  </si>
+  <si>
+    <t>6 final transits</t>
+  </si>
+  <si>
+    <t>RUN045_1C1AwA_BOVCL_PPV_CORCLV_KA</t>
+  </si>
+  <si>
+    <t>CLV Rat.</t>
+  </si>
+  <si>
+    <t>PR only + BOV</t>
+  </si>
+  <si>
+    <t>BOV</t>
+  </si>
+  <si>
+    <t>Initial use of CLV ratio poor</t>
+  </si>
+  <si>
+    <t>Dramatic improvement with BOV</t>
+  </si>
+  <si>
+    <t>Even better when accounting for lag</t>
+  </si>
+  <si>
+    <t>4 transits even better, run multidose to estimate best number!</t>
   </si>
 </sst>
 </file>
@@ -488,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +731,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -853,16 +898,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1184,15 +1230,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="3" customWidth="1"/>
@@ -1209,7 +1255,7 @@
     <col min="19" max="19" width="8.85546875" customWidth="1"/>
     <col min="20" max="20" width="10.5703125" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" customWidth="1"/>
-    <col min="22" max="22" width="50.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="36.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1250,10 +1296,10 @@
         <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -1277,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -1294,69 +1340,72 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>39</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>-7901.4040000000005</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>8</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>7.6174496644295298</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>13.108910891089099</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>-7885.4040000000005</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>9.8653200000000005</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>0.39762799999999998</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1364,13 +1413,13 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>55</v>
@@ -1442,13 +1491,13 @@
         <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>55</v>
@@ -1500,316 +1549,333 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="G5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="L5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>-7802.5720000000001</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>8</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>7.6818181818181799</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>13.3333333333333</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <v>-7786.5720000000001</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>10.2311</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>0.317</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="V5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="8">
+        <v>-7802.6030000000001</v>
+      </c>
+      <c r="P6" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>33.047619047619001</v>
+      </c>
+      <c r="R6" s="8">
+        <v>93.181818181818201</v>
+      </c>
+      <c r="S6" s="8">
+        <v>-7782.6030000000001</v>
+      </c>
+      <c r="T6" s="8">
+        <v>82.303399999999996</v>
+      </c>
+      <c r="U6" s="8">
+        <v>5.6356100000000001E-3</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>22.765432098765402</v>
+      </c>
+      <c r="R7" s="4">
+        <v>13.886639676113401</v>
+      </c>
+      <c r="S7" s="4">
+        <v>-7742.2920000000004</v>
+      </c>
+      <c r="T7" s="4">
+        <v>9.7809200000000001</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+    </row>
+    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="4">
-        <v>-7760.2920000000004</v>
-      </c>
-      <c r="P6" s="4">
+      <c r="O8">
+        <v>-7757.6949999999997</v>
+      </c>
+      <c r="P8">
         <v>9</v>
       </c>
-      <c r="Q6" s="4">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R6" s="4">
-        <v>13.886639676113401</v>
-      </c>
-      <c r="S6" s="4">
-        <v>-7742.2920000000004</v>
-      </c>
-      <c r="T6" s="4">
-        <v>9.7809200000000001</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="Q8">
+        <v>30.158227848101301</v>
+      </c>
+      <c r="R8">
+        <v>13.712574850299401</v>
+      </c>
+      <c r="S8">
+        <v>-7739.6949999999997</v>
+      </c>
+      <c r="T8">
+        <v>10.4992</v>
+      </c>
+      <c r="U8">
+        <v>0.35333799999999999</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
     </row>
-    <row r="7" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7">
-        <v>-7757.6949999999997</v>
-      </c>
-      <c r="P7">
-        <v>9</v>
-      </c>
-      <c r="Q7">
-        <v>30.158227848101301</v>
-      </c>
-      <c r="R7">
-        <v>13.712574850299401</v>
-      </c>
-      <c r="S7">
-        <v>-7739.6949999999997</v>
-      </c>
-      <c r="T7">
-        <v>10.4992</v>
-      </c>
-      <c r="U7">
-        <v>0.35333799999999999</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-    </row>
-    <row r="8" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>40</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="6">
-        <v>-7745.3230000000003</v>
-      </c>
-      <c r="P8" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>28.186274509803901</v>
-      </c>
-      <c r="R8" s="6">
-        <v>13.8265306122449</v>
-      </c>
-      <c r="S8" s="6">
-        <v>-7727.3230000000003</v>
-      </c>
-      <c r="T8" s="6">
-        <v>9.6104400000000005</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.43874600000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>52</v>
@@ -1826,33 +1892,35 @@
       <c r="K9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P9">
         <v>11</v>
       </c>
-      <c r="O9">
-        <v>-7743.576</v>
-      </c>
-      <c r="P9">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <v>29.4006309148265</v>
-      </c>
-      <c r="R9">
-        <v>13.2833020637899</v>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
       </c>
       <c r="S9">
-        <v>-7725.576</v>
+        <v>-7738.2920000000004</v>
       </c>
       <c r="T9">
-        <v>10.5723</v>
+        <v>100</v>
       </c>
       <c r="U9">
-        <v>0.363263</v>
+        <v>0.43628800000000001</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9"/>
@@ -1870,184 +1938,180 @@
       <c r="AI9"/>
       <c r="AJ9"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="4" t="s">
+    <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="5">
+        <v>-7745.3230000000003</v>
+      </c>
+      <c r="P10" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>28.186274509803901</v>
+      </c>
+      <c r="R10" s="5">
+        <v>13.8265306122449</v>
+      </c>
+      <c r="S10" s="5">
+        <v>-7727.3230000000003</v>
+      </c>
+      <c r="T10" s="5">
+        <v>9.6104400000000005</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0.43874600000000002</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="4" t="s">
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="4">
-        <v>-7705.9520000000002</v>
-      </c>
-      <c r="P10" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>29.657320872274099</v>
-      </c>
-      <c r="R10" s="4">
-        <v>14.580777096114501</v>
-      </c>
-      <c r="S10" s="4">
-        <v>-7685.9520000000002</v>
-      </c>
-      <c r="T10" s="4">
-        <v>11.7502</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0.35689399999999999</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="6">
-        <v>-7689.5619999999999</v>
-      </c>
-      <c r="P11" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>29.440993788819899</v>
-      </c>
-      <c r="R11" s="6">
-        <v>13.9583333333333</v>
-      </c>
-      <c r="S11" s="6">
-        <v>-7669.5619999999999</v>
-      </c>
-      <c r="T11" s="6">
-        <v>10.7644</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.30691000000000002</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
+      <c r="O11">
+        <v>-7743.576</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>29.4006309148265</v>
+      </c>
+      <c r="R11">
+        <v>13.2833020637899</v>
+      </c>
+      <c r="S11">
+        <v>-7725.576</v>
+      </c>
+      <c r="T11">
+        <v>10.5723</v>
+      </c>
+      <c r="U11">
+        <v>0.363263</v>
+      </c>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
     </row>
     <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>52</v>
@@ -2064,675 +2128,647 @@
       <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="M12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O12">
-        <v>-7642.89</v>
-      </c>
-      <c r="P12">
-        <v>8</v>
-      </c>
-      <c r="Q12">
-        <v>6.7931034482758603</v>
-      </c>
-      <c r="R12">
-        <v>13.824130879345599</v>
-      </c>
-      <c r="S12">
-        <v>-7626.89</v>
-      </c>
-      <c r="T12">
-        <v>12.1884</v>
-      </c>
-      <c r="U12">
-        <v>0.24842400000000001</v>
-      </c>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
+      <c r="O12" s="3">
+        <v>-7705.9520000000002</v>
+      </c>
+      <c r="P12" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>29.657320872274099</v>
+      </c>
+      <c r="R12" s="3">
+        <v>14.580777096114501</v>
+      </c>
+      <c r="S12" s="3">
+        <v>-7685.9520000000002</v>
+      </c>
+      <c r="T12" s="3">
+        <v>11.7502</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.35689399999999999</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="3">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-7689.5619999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>29.440993788819899</v>
+      </c>
+      <c r="R13" s="3">
+        <v>13.9583333333333</v>
+      </c>
+      <c r="S13" s="3">
+        <v>-7669.5619999999999</v>
+      </c>
+      <c r="T13" s="3">
+        <v>10.7644</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.30691000000000002</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>-7642.89</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>6.7931034482758603</v>
+      </c>
+      <c r="R14">
+        <v>13.824130879345599</v>
+      </c>
+      <c r="S14">
+        <v>-7626.89</v>
+      </c>
+      <c r="T14">
+        <v>12.1884</v>
+      </c>
+      <c r="U14">
+        <v>0.24842400000000001</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+    </row>
+    <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>42</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="8">
+        <v>-7447.6530000000002</v>
+      </c>
+      <c r="P15" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>21.7882836587873</v>
+      </c>
+      <c r="R15" s="8">
+        <v>33.636363636363598</v>
+      </c>
+      <c r="S15" s="8">
+        <v>-7429.6530000000002</v>
+      </c>
+      <c r="T15" s="8">
+        <v>77.976200000000006</v>
+      </c>
+      <c r="U15" s="8">
+        <v>2.1269000000000001E-3</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="L16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O16" s="6">
         <v>-7412.5810000000001</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P16" s="6">
         <v>8</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S16" s="6">
         <v>-7396.5810000000001</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T16" s="6">
         <v>18.5487</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U16" s="6">
         <v>0.29675800000000002</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-7412.5789999999997</v>
-      </c>
-      <c r="P14" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>11.4864864864865</v>
-      </c>
-      <c r="R14" s="4">
-        <v>13.810483870967699</v>
-      </c>
-      <c r="S14" s="4">
-        <v>-7396.5789999999997</v>
-      </c>
-      <c r="T14" s="4">
-        <v>18.563400000000001</v>
-      </c>
-      <c r="U14" s="4">
-        <v>0.29601899999999998</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15">
-        <v>-7413.6360000000004</v>
-      </c>
-      <c r="P15">
-        <v>9</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15">
-        <v>-7395.6360000000004</v>
-      </c>
-      <c r="T15">
-        <v>18.5459</v>
-      </c>
-      <c r="U15">
-        <v>0.29598000000000002</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16">
-        <v>-7412.5789999999997</v>
-      </c>
-      <c r="P16">
-        <v>9</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16">
-        <v>-7394.5789999999997</v>
-      </c>
-      <c r="T16">
-        <v>35.331699999999998</v>
-      </c>
-      <c r="U16">
-        <v>0.29600399999999999</v>
-      </c>
-      <c r="V16" s="3"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="A17" s="4">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="L17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O17">
-        <v>-7412.9350000000004</v>
-      </c>
-      <c r="P17">
-        <v>10</v>
-      </c>
-      <c r="Q17">
-        <v>29.986052998605299</v>
-      </c>
-      <c r="R17">
-        <v>13.951612903225801</v>
-      </c>
-      <c r="S17">
-        <v>-7392.9350000000004</v>
-      </c>
-      <c r="T17">
-        <v>18.523599999999998</v>
-      </c>
-      <c r="U17">
-        <v>0.29228700000000002</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="O17" s="4">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P17" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>11.4864864864865</v>
+      </c>
+      <c r="R17" s="4">
+        <v>13.810483870967699</v>
+      </c>
+      <c r="S17" s="4">
+        <v>-7396.5789999999997</v>
+      </c>
+      <c r="T17" s="4">
+        <v>18.563400000000001</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.29601899999999998</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
     </row>
     <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="6">
-        <v>-7396.8819999999996</v>
-      </c>
-      <c r="P18" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>11.6216216216216</v>
-      </c>
-      <c r="R18" s="6">
-        <v>12.958801498127301</v>
-      </c>
-      <c r="S18" s="6">
-        <v>-7380.8819999999996</v>
-      </c>
-      <c r="T18" s="6">
-        <v>18.621700000000001</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.28395100000000001</v>
-      </c>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
+      <c r="L18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>-7413.6360000000004</v>
+      </c>
+      <c r="P18">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18">
+        <v>-7395.6360000000004</v>
+      </c>
+      <c r="T18">
+        <v>18.5459</v>
+      </c>
+      <c r="U18">
+        <v>0.29598000000000002</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P19">
         <v>9</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="Q19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19">
+        <v>-7394.5789999999997</v>
+      </c>
+      <c r="T19">
+        <v>35.331699999999998</v>
+      </c>
+      <c r="U19">
+        <v>0.29600399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="L20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="4">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P19" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R19" s="4">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S19" s="4">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T19" s="4">
-        <v>18.219799999999999</v>
-      </c>
-      <c r="U19" s="4">
-        <v>0.35448400000000002</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-    </row>
-    <row r="20" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="7">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P20" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R20" s="7">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S20" s="7">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T20" s="7">
-        <v>18.22</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0.35374499999999998</v>
-      </c>
-      <c r="V20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="O20">
+        <v>-7412.9350000000004</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>29.986052998605299</v>
+      </c>
+      <c r="R20">
+        <v>13.951612903225801</v>
+      </c>
+      <c r="S20">
+        <v>-7392.9350000000004</v>
+      </c>
+      <c r="T20">
+        <v>18.523599999999998</v>
+      </c>
+      <c r="U20">
+        <v>0.29228700000000002</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2740,11 +2776,11 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>55</v>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>52</v>
@@ -2762,202 +2798,187 @@
         <v>54</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="M21" t="s">
         <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O21">
-        <v>-7360.6790000000001</v>
+        <v>-7397.1809999999996</v>
       </c>
       <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R21" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q21">
+        <v>12.3188405797101</v>
+      </c>
+      <c r="R21">
+        <v>152.5</v>
       </c>
       <c r="S21">
-        <v>-7340.6790000000001</v>
+        <v>-7381.1809999999996</v>
       </c>
       <c r="T21">
-        <v>18.219899999999999</v>
+        <v>97.815100000000001</v>
       </c>
       <c r="U21">
-        <v>0.35380800000000001</v>
+        <v>1.78929E-2</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="5">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="O22" s="5">
+        <v>-7396.8819999999996</v>
+      </c>
+      <c r="P22" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>11.6216216216216</v>
+      </c>
+      <c r="R22" s="5">
+        <v>12.958801498127301</v>
+      </c>
+      <c r="S22" s="5">
+        <v>-7380.8819999999996</v>
+      </c>
+      <c r="T22" s="5">
+        <v>18.621700000000001</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0.28395100000000001</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22">
-        <v>-7360.84</v>
-      </c>
-      <c r="P22">
+      <c r="M23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" t="s">
-        <v>15</v>
-      </c>
-      <c r="R22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22">
-        <v>-7338.84</v>
-      </c>
-      <c r="T22">
-        <v>18.248000000000001</v>
-      </c>
-      <c r="U22">
-        <v>0.35722999999999999</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23">
-        <v>-7353.53</v>
-      </c>
-      <c r="P23">
-        <v>11</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S23">
-        <v>-7331.53</v>
-      </c>
-      <c r="T23">
-        <v>18.205200000000001</v>
-      </c>
-      <c r="U23">
-        <v>0.34934300000000001</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
+      <c r="O23" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P23" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R23" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S23" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T23" s="4">
+        <v>18.219799999999999</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.35448400000000002</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -2965,11 +2986,11 @@
       <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
+      <c r="E24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>52</v>
@@ -2981,7 +3002,7 @@
         <v>52</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>54</v>
@@ -2994,28 +3015,28 @@
         <v>11</v>
       </c>
       <c r="O24" s="6">
-        <v>-7343.4480000000003</v>
+        <v>-7360.6790000000001</v>
       </c>
       <c r="P24" s="6">
         <v>9</v>
       </c>
       <c r="Q24" s="6">
-        <v>30.3571428571429</v>
+        <v>31.641791044776099</v>
       </c>
       <c r="R24" s="6">
-        <v>13.3834586466165</v>
+        <v>14.6326530612245</v>
       </c>
       <c r="S24" s="6">
-        <v>-7325.4480000000003</v>
+        <v>-7342.6790000000001</v>
       </c>
       <c r="T24" s="6">
-        <v>18.380800000000001</v>
+        <v>18.22</v>
       </c>
       <c r="U24" s="6">
-        <v>0.348858</v>
+        <v>0.35374499999999998</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -3034,10 +3055,10 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -3061,63 +3082,48 @@
         <v>52</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M25" t="s">
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O25">
-        <v>-7343.4480000000003</v>
+        <v>-7360.6790000000001</v>
       </c>
       <c r="P25">
-        <v>9</v>
-      </c>
-      <c r="Q25">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R25">
-        <v>13.4962406015038</v>
+        <v>10</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
+        <v>15</v>
       </c>
       <c r="S25">
-        <v>-7325.4480000000003</v>
+        <v>-7340.6790000000001</v>
       </c>
       <c r="T25">
-        <v>18.379300000000001</v>
+        <v>18.219899999999999</v>
       </c>
       <c r="U25">
-        <v>0.349408</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
+        <v>0.35380800000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -3141,7 +3147,7 @@
         <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>54</v>
@@ -3154,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="O26">
-        <v>-7343.5069999999996</v>
+        <v>-7360.84</v>
       </c>
       <c r="P26">
         <v>11</v>
@@ -3166,13 +3172,16 @@
         <v>15</v>
       </c>
       <c r="S26">
-        <v>-7321.5069999999996</v>
+        <v>-7338.84</v>
       </c>
       <c r="T26">
-        <v>18.3887</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="U26">
-        <v>0.35704900000000001</v>
+        <v>0.35722999999999999</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -3191,10 +3200,10 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -3218,128 +3227,143 @@
         <v>52</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="L27" s="3"/>
       <c r="M27" t="s">
         <v>10</v>
       </c>
       <c r="N27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27">
+        <v>-7353.53</v>
+      </c>
+      <c r="P27">
         <v>11</v>
       </c>
-      <c r="O27">
-        <v>-7314.5810000000001</v>
-      </c>
-      <c r="P27">
-        <v>10</v>
-      </c>
-      <c r="Q27">
-        <v>33.236994219653198</v>
-      </c>
-      <c r="R27">
-        <v>63.206106870229</v>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>15</v>
       </c>
       <c r="S27">
-        <v>-7294.5810000000001</v>
+        <v>-7331.53</v>
       </c>
       <c r="T27">
-        <v>64.828199999999995</v>
+        <v>18.205200000000001</v>
       </c>
       <c r="U27">
-        <v>0.41000700000000001</v>
-      </c>
+        <v>0.34934300000000001</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="A28" s="5">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="3"/>
-      <c r="M28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="K28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O28">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P28">
-        <v>8</v>
-      </c>
-      <c r="Q28">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R28">
-        <v>14.7206165703276</v>
-      </c>
-      <c r="S28">
-        <v>-7289.2420000000002</v>
-      </c>
-      <c r="T28">
-        <v>18.4377</v>
-      </c>
-      <c r="U28">
-        <v>0.38063399999999997</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
+      <c r="O28" s="5">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P28" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R28" s="5">
+        <v>13.3834586466165</v>
+      </c>
+      <c r="S28" s="5">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T28" s="5">
+        <v>18.380800000000001</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0.348858</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -3366,7 +3390,7 @@
         <v>58</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" t="s">
@@ -3376,28 +3400,28 @@
         <v>11</v>
       </c>
       <c r="O29">
-        <v>-7305.2420000000002</v>
+        <v>-7343.4480000000003</v>
       </c>
       <c r="P29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q29">
-        <v>32.456140350877199</v>
+        <v>30.3571428571429</v>
       </c>
       <c r="R29">
-        <v>14.701348747591499</v>
+        <v>13.4962406015038</v>
       </c>
       <c r="S29">
-        <v>-7289.2420000000002</v>
+        <v>-7325.4480000000003</v>
       </c>
       <c r="T29">
-        <v>18.436399999999999</v>
+        <v>18.379300000000001</v>
       </c>
       <c r="U29">
-        <v>0.38163799999999998</v>
+        <v>0.349408</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -3416,10 +3440,10 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -3446,7 +3470,7 @@
         <v>58</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" t="s">
@@ -3456,10 +3480,10 @@
         <v>14</v>
       </c>
       <c r="O30">
-        <v>-7305.2520000000004</v>
+        <v>-7343.5069999999996</v>
       </c>
       <c r="P30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q30" t="s">
         <v>15</v>
@@ -3468,13 +3492,13 @@
         <v>15</v>
       </c>
       <c r="S30">
-        <v>-7285.2520000000004</v>
+        <v>-7321.5069999999996</v>
       </c>
       <c r="T30">
-        <v>18.490600000000001</v>
+        <v>18.3887</v>
       </c>
       <c r="U30">
-        <v>0.38619799999999999</v>
+        <v>0.35704900000000001</v>
       </c>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -3493,22 +3517,22 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>52</v>
@@ -3517,63 +3541,51 @@
         <v>52</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="M31" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O31">
-        <v>-7096.0879999999997</v>
+        <v>-7314.5810000000001</v>
       </c>
       <c r="P31">
-        <v>9</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>15</v>
-      </c>
-      <c r="R31" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q31">
+        <v>33.236994219653198</v>
+      </c>
+      <c r="R31">
+        <v>63.206106870229</v>
       </c>
       <c r="S31">
-        <v>-7078.0879999999997</v>
+        <v>-7294.5810000000001</v>
       </c>
       <c r="T31">
-        <v>4.2718999999999996</v>
+        <v>64.828199999999995</v>
       </c>
       <c r="U31">
-        <v>0.384436</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
+        <v>0.41000700000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3594,7 +3606,7 @@
         <v>52</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>58</v>
@@ -3610,25 +3622,28 @@
         <v>11</v>
       </c>
       <c r="O32">
-        <v>-7080.0150000000003</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q32">
-        <v>20.9978768577495</v>
+        <v>32.456140350877199</v>
       </c>
       <c r="R32">
-        <v>9.7751124437781094</v>
+        <v>14.7206165703276</v>
       </c>
       <c r="S32">
-        <v>-7066.0150000000003</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T32">
-        <v>12.4293</v>
+        <v>18.4377</v>
       </c>
       <c r="U32">
-        <v>0.36684600000000001</v>
+        <v>0.38063399999999997</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -3647,10 +3662,10 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -3658,11 +3673,11 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
+      <c r="E33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>52</v>
@@ -3674,60 +3689,75 @@
         <v>52</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L33" s="3"/>
       <c r="M33" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O33">
-        <v>-6914.9369999999999</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P33">
-        <v>11</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R33" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <v>32.456140350877199</v>
+      </c>
+      <c r="R33">
+        <v>14.701348747591499</v>
       </c>
       <c r="S33">
-        <v>-6892.9369999999999</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T33">
-        <v>51.304000000000002</v>
-      </c>
-      <c r="U33" s="1">
-        <v>2.1262399999999999E-53</v>
-      </c>
+        <v>18.436399999999999</v>
+      </c>
+      <c r="U33">
+        <v>0.38163799999999998</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>52</v>
@@ -3739,7 +3769,7 @@
         <v>52</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>58</v>
@@ -3752,10 +3782,10 @@
         <v>14</v>
       </c>
       <c r="O34">
-        <v>-6858.2439999999997</v>
+        <v>-7305.2520000000004</v>
       </c>
       <c r="P34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q34" t="s">
         <v>15</v>
@@ -3764,13 +3794,13 @@
         <v>15</v>
       </c>
       <c r="S34">
-        <v>-6842.2439999999997</v>
+        <v>-7285.2520000000004</v>
       </c>
       <c r="T34">
-        <v>69.619900000000001</v>
-      </c>
-      <c r="U34" s="1">
-        <v>4.0198100000000001E-82</v>
+        <v>18.490600000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.38619799999999999</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -3787,92 +3817,92 @@
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="5" t="s">
+    <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>41</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="2" t="s">
+      <c r="I35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O35" s="2">
-        <v>-6843.326</v>
-      </c>
-      <c r="P35" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>23.647294589178401</v>
-      </c>
-      <c r="R35" s="2">
-        <v>12.0670391061453</v>
-      </c>
-      <c r="S35" s="2">
-        <v>-6831.326</v>
-      </c>
-      <c r="T35" s="2">
-        <v>100</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0.36738399999999999</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>75</v>
+      <c r="O35" s="8">
+        <v>-7194.317</v>
+      </c>
+      <c r="P35" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>32.159624413145501</v>
+      </c>
+      <c r="R35" s="8">
+        <v>12.9957203994294</v>
+      </c>
+      <c r="S35" s="8">
+        <v>-7180.317</v>
+      </c>
+      <c r="T35" s="8">
+        <v>12.706899999999999</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0.382193</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>52</v>
@@ -3881,26 +3911,26 @@
         <v>52</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>58</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N36" t="s">
         <v>14</v>
       </c>
       <c r="O36">
-        <v>-6802.9390000000003</v>
+        <v>-7096.0879999999997</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q36" t="s">
         <v>15</v>
@@ -3909,16 +3939,13 @@
         <v>15</v>
       </c>
       <c r="S36">
-        <v>-6782.9390000000003</v>
+        <v>-7078.0879999999997</v>
       </c>
       <c r="T36">
-        <v>77.094399999999993</v>
-      </c>
-      <c r="U36" s="1">
-        <v>1.3424400000000001E-99</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>71</v>
+        <v>4.2718999999999996</v>
+      </c>
+      <c r="U36">
+        <v>0.384436</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -3937,22 +3964,22 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>55</v>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>52</v>
@@ -3961,13 +3988,13 @@
         <v>52</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" t="s">
@@ -3977,45 +4004,59 @@
         <v>11</v>
       </c>
       <c r="O37">
-        <v>-6439.4690000000001</v>
+        <v>-7080.0150000000003</v>
       </c>
       <c r="P37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q37">
-        <v>98.153846153846104</v>
+        <v>20.9978768577495</v>
       </c>
       <c r="R37">
-        <v>16.330798479087498</v>
+        <v>9.7751124437781094</v>
       </c>
       <c r="S37">
-        <v>-6417.4690000000001</v>
+        <v>-7066.0150000000003</v>
       </c>
       <c r="T37">
-        <v>20.603000000000002</v>
+        <v>12.4293</v>
       </c>
       <c r="U37">
-        <v>0.21735199999999999</v>
-      </c>
+        <v>0.36684600000000001</v>
+      </c>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>55</v>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>52</v>
@@ -4032,53 +4073,55 @@
       <c r="K38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M38" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N38" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38">
+        <v>-6914.9369999999999</v>
+      </c>
+      <c r="P38">
         <v>11</v>
       </c>
-      <c r="O38">
-        <v>-6430.3410000000003</v>
-      </c>
-      <c r="P38">
-        <v>9</v>
-      </c>
-      <c r="Q38">
-        <v>26.054590570719601</v>
-      </c>
-      <c r="R38">
-        <v>16.622390891840599</v>
+      <c r="Q38" t="s">
+        <v>15</v>
+      </c>
+      <c r="R38" t="s">
+        <v>15</v>
       </c>
       <c r="S38">
-        <v>-6412.3410000000003</v>
+        <v>-6892.9369999999999</v>
       </c>
       <c r="T38">
-        <v>20.392900000000001</v>
-      </c>
-      <c r="U38">
-        <v>0.21180599999999999</v>
+        <v>51.304000000000002</v>
+      </c>
+      <c r="U38" s="1">
+        <v>2.1262399999999999E-53</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>55</v>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>52</v>
@@ -4093,123 +4136,123 @@
         <v>53</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" t="s">
         <v>10</v>
       </c>
       <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <v>-6858.2439999999997</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" t="s">
+        <v>15</v>
+      </c>
+      <c r="S39">
+        <v>-6842.2439999999997</v>
+      </c>
+      <c r="T39">
+        <v>69.619900000000001</v>
+      </c>
+      <c r="U39" s="1">
+        <v>4.0198100000000001E-82</v>
+      </c>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+    </row>
+    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>0</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O39">
-        <v>-6416.2460000000001</v>
-      </c>
-      <c r="P39">
-        <v>9</v>
-      </c>
-      <c r="Q39">
-        <v>26.485148514851499</v>
-      </c>
-      <c r="R39">
-        <v>15.686619718309901</v>
-      </c>
-      <c r="S39">
-        <v>-6398.2460000000001</v>
-      </c>
-      <c r="T39">
-        <v>20.3721</v>
-      </c>
-      <c r="U39">
-        <v>0.210977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40">
-        <v>-6356.9009999999998</v>
-      </c>
-      <c r="P40">
+      <c r="O40" s="8">
+        <v>-6843.326</v>
+      </c>
+      <c r="P40" s="8">
         <v>6</v>
       </c>
-      <c r="Q40">
-        <v>79.203539823008896</v>
-      </c>
-      <c r="R40">
-        <v>23.452768729641701</v>
-      </c>
-      <c r="S40">
-        <v>-6344.9009999999998</v>
-      </c>
-      <c r="T40">
-        <v>3.2928799999999998</v>
-      </c>
-      <c r="U40">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
+      <c r="Q40" s="8">
+        <v>23.647294589178401</v>
+      </c>
+      <c r="R40" s="8">
+        <v>12.0670391061453</v>
+      </c>
+      <c r="S40" s="8">
+        <v>-6831.326</v>
+      </c>
+      <c r="T40" s="8">
+        <v>100</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0.36738399999999999</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -4233,38 +4276,41 @@
         <v>52</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" t="s">
         <v>10</v>
       </c>
       <c r="N41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O41">
-        <v>-6225.8220000000001</v>
+        <v>-6802.9390000000003</v>
       </c>
       <c r="P41">
-        <v>8</v>
-      </c>
-      <c r="Q41">
-        <v>24.582338902147999</v>
-      </c>
-      <c r="R41">
-        <v>14.7272727272727</v>
+        <v>10</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" t="s">
+        <v>15</v>
       </c>
       <c r="S41">
-        <v>-6209.8220000000001</v>
+        <v>-6782.9390000000003</v>
       </c>
       <c r="T41">
-        <v>15.906700000000001</v>
-      </c>
-      <c r="U41">
-        <v>0.37484600000000001</v>
+        <v>77.094399999999993</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1.3424400000000001E-99</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -4283,22 +4329,22 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>52</v>
@@ -4310,7 +4356,7 @@
         <v>52</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>54</v>
@@ -4323,62 +4369,45 @@
         <v>11</v>
       </c>
       <c r="O42">
-        <v>-5773.9939999999997</v>
+        <v>-6439.4690000000001</v>
       </c>
       <c r="P42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q42">
-        <v>23.621262458471801</v>
+        <v>98.153846153846104</v>
       </c>
       <c r="R42">
-        <v>18.7332053742802</v>
+        <v>16.330798479087498</v>
       </c>
       <c r="S42">
-        <v>-5753.9939999999997</v>
+        <v>-6417.4690000000001</v>
       </c>
       <c r="T42">
-        <v>24.648700000000002</v>
+        <v>20.603000000000002</v>
       </c>
       <c r="U42">
-        <v>0.182335</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
+        <v>0.21735199999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>52</v>
@@ -4390,7 +4419,7 @@
         <v>52</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>54</v>
@@ -4403,124 +4432,525 @@
         <v>11</v>
       </c>
       <c r="O43">
-        <v>-5762.0389999999998</v>
+        <v>-6430.3410000000003</v>
       </c>
       <c r="P43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q43">
-        <v>24.248366013071902</v>
+        <v>26.054590570719601</v>
       </c>
       <c r="R43">
-        <v>17.730496453900699</v>
+        <v>16.622390891840599</v>
       </c>
       <c r="S43">
-        <v>-5742.0389999999998</v>
+        <v>-6412.3410000000003</v>
       </c>
       <c r="T43">
-        <v>24.850200000000001</v>
+        <v>20.392900000000001</v>
       </c>
       <c r="U43">
-        <v>0.172901</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
+        <v>0.21180599999999999</v>
+      </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C44" s="3">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44">
+        <v>-6416.2460000000001</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>26.485148514851499</v>
+      </c>
+      <c r="R44">
+        <v>15.686619718309901</v>
+      </c>
+      <c r="S44">
+        <v>-6398.2460000000001</v>
+      </c>
+      <c r="T44">
+        <v>20.3721</v>
+      </c>
+      <c r="U44">
+        <v>0.210977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45">
+        <v>-6356.9009999999998</v>
+      </c>
+      <c r="P45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>79.203539823008896</v>
+      </c>
+      <c r="R45">
+        <v>23.452768729641701</v>
+      </c>
+      <c r="S45">
+        <v>-6344.9009999999998</v>
+      </c>
+      <c r="T45">
+        <v>3.2928799999999998</v>
+      </c>
+      <c r="U45">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46">
+        <v>-6225.8220000000001</v>
+      </c>
+      <c r="P46">
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <v>24.582338902147999</v>
+      </c>
+      <c r="R46">
+        <v>14.7272727272727</v>
+      </c>
+      <c r="S46">
+        <v>-6209.8220000000001</v>
+      </c>
+      <c r="T46">
+        <v>15.906700000000001</v>
+      </c>
+      <c r="U46">
+        <v>0.37484600000000001</v>
+      </c>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47">
+        <v>-5773.9939999999997</v>
+      </c>
+      <c r="P47">
+        <v>10</v>
+      </c>
+      <c r="Q47">
+        <v>23.621262458471801</v>
+      </c>
+      <c r="R47">
+        <v>18.7332053742802</v>
+      </c>
+      <c r="S47">
+        <v>-5753.9939999999997</v>
+      </c>
+      <c r="T47">
+        <v>24.648700000000002</v>
+      </c>
+      <c r="U47">
+        <v>0.182335</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>-5762.0389999999998</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
+      </c>
+      <c r="Q48">
+        <v>24.248366013071902</v>
+      </c>
+      <c r="R48">
+        <v>17.730496453900699</v>
+      </c>
+      <c r="S48">
+        <v>-5742.0389999999998</v>
+      </c>
+      <c r="T48">
+        <v>24.850200000000001</v>
+      </c>
+      <c r="U48">
+        <v>0.172901</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" t="s">
         <v>26</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N49" t="s">
         <v>14</v>
       </c>
-      <c r="O44">
+      <c r="O49">
         <v>-5526.2460000000001</v>
       </c>
-      <c r="P44">
+      <c r="P49">
         <v>8</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q49" t="s">
         <v>15</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R49" t="s">
         <v>15</v>
       </c>
-      <c r="S44">
+      <c r="S49">
         <v>-5510.2460000000001</v>
       </c>
-      <c r="T44">
+      <c r="T49">
         <v>13.9314</v>
       </c>
-      <c r="U44">
+      <c r="U49">
         <v>3.1708600000000001E-4</v>
       </c>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>14</v>
+      </c>
+      <c r="O50">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P50">
+        <v>12</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>15</v>
+      </c>
+      <c r="R50" t="s">
+        <v>15</v>
+      </c>
+      <c r="S50">
+        <v>-4956.0590000000002</v>
+      </c>
+      <c r="T50">
+        <v>99.905000000000001</v>
+      </c>
+      <c r="U50">
+        <v>9.806839999999999E-4</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AJ44">
-    <sortCondition ref="S2:S44"/>
+  <sortState ref="A2:AJ51">
+    <sortCondition ref="S2:S51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
+++ b/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="128">
   <si>
     <t>X1</t>
   </si>
@@ -379,6 +379,33 @@
   </si>
   <si>
     <t>4 transits even better, run multidose to estimate best number!</t>
+  </si>
+  <si>
+    <t>RUN046_DES_1C3TAwAP_BOVPPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN047_DES_1C3TAwAP_BOVPPV_CLVKA</t>
+  </si>
+  <si>
+    <t>RUN048_DES_1C3TAwAP_PPV_RATCLVKA</t>
+  </si>
+  <si>
+    <t>RUN049_DES_1C3TAwAP_BOVPPV_RATCLVKA</t>
+  </si>
+  <si>
+    <t>RUN050_DES_1C3TAwAP_BOVCL_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN101_TRANSIT_MULTIDOSE</t>
+  </si>
+  <si>
+    <t>RUN103_TRANSIT_MULTIDOSE_PRonly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR only + BOV </t>
+  </si>
+  <si>
+    <t>PR only + CLBOV</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1274,7 @@
     <col min="8" max="9" width="7.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
@@ -1488,16 +1515,16 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>55</v>
@@ -1515,367 +1542,365 @@
         <v>52</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="L4" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>-7835.3919999999998</v>
+        <v>-7843</v>
       </c>
       <c r="P4">
         <v>9</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>-7825</v>
+      </c>
+      <c r="T4">
+        <v>52.140799999999999</v>
+      </c>
+      <c r="U4">
+        <v>2.2879500000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>-7844.0959999999995</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>-7824.0959999999995</v>
+      </c>
+      <c r="T5">
+        <v>79.057599999999994</v>
+      </c>
+      <c r="U5">
+        <v>7.0567499999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>-7839.5190000000002</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>14.9685534591195</v>
+      </c>
+      <c r="R6">
+        <v>17.991266375545901</v>
+      </c>
+      <c r="S6">
+        <v>-7821.5190000000002</v>
+      </c>
+      <c r="T6">
+        <v>78.857299999999995</v>
+      </c>
+      <c r="U6">
+        <v>1.23493E-3</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <v>-7835.3919999999998</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
         <v>30.498338870431901</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>13</v>
       </c>
-      <c r="S4">
+      <c r="S7">
         <v>-7817.3919999999998</v>
       </c>
-      <c r="T4">
+      <c r="T7">
         <v>9.7065099999999997</v>
       </c>
-      <c r="U4">
+      <c r="U7">
         <v>0.44284600000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="V7" s="3"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+    </row>
+    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="G8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="M8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O8" s="6">
         <v>-7802.5720000000001</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P8" s="6">
         <v>8</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q8" s="6">
         <v>7.6818181818181799</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R8" s="6">
         <v>13.3333333333333</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S8" s="6">
         <v>-7786.5720000000001</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T8" s="6">
         <v>10.2311</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U8" s="6">
         <v>0.317</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-    </row>
-    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="8">
-        <v>-7802.6030000000001</v>
-      </c>
-      <c r="P6" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>33.047619047619001</v>
-      </c>
-      <c r="R6" s="8">
-        <v>93.181818181818201</v>
-      </c>
-      <c r="S6" s="8">
-        <v>-7782.6030000000001</v>
-      </c>
-      <c r="T6" s="8">
-        <v>82.303399999999996</v>
-      </c>
-      <c r="U6" s="8">
-        <v>5.6356100000000001E-3</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="4">
-        <v>-7760.2920000000004</v>
-      </c>
-      <c r="P7" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R7" s="4">
-        <v>13.886639676113401</v>
-      </c>
-      <c r="S7" s="4">
-        <v>-7742.2920000000004</v>
-      </c>
-      <c r="T7" s="4">
-        <v>9.7809200000000001</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-    </row>
-    <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8">
-        <v>-7757.6949999999997</v>
-      </c>
-      <c r="P8">
-        <v>9</v>
-      </c>
-      <c r="Q8">
-        <v>30.158227848101301</v>
-      </c>
-      <c r="R8">
-        <v>13.712574850299401</v>
-      </c>
-      <c r="S8">
-        <v>-7739.6949999999997</v>
-      </c>
-      <c r="T8">
-        <v>10.4992</v>
-      </c>
-      <c r="U8">
-        <v>0.35333799999999999</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>52</v>
@@ -1893,7 +1918,7 @@
         <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
@@ -1902,10 +1927,10 @@
         <v>14</v>
       </c>
       <c r="O9">
-        <v>-7760.2920000000004</v>
+        <v>-7803.1729999999998</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="s">
         <v>15</v>
@@ -1914,13 +1939,13 @@
         <v>15</v>
       </c>
       <c r="S9">
-        <v>-7738.2920000000004</v>
+        <v>-7785.1729999999998</v>
       </c>
       <c r="T9">
-        <v>100</v>
+        <v>99.180499999999995</v>
       </c>
       <c r="U9">
-        <v>0.43628800000000001</v>
+        <v>1.2579799999999999E-3</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9"/>
@@ -1939,179 +1964,187 @@
       <c r="AJ9"/>
     </row>
     <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="A10" s="8">
+        <v>43</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="8">
+        <v>-7802.6030000000001</v>
+      </c>
+      <c r="P10" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>33.047619047619001</v>
+      </c>
+      <c r="R10" s="8">
+        <v>93.181818181818201</v>
+      </c>
+      <c r="S10" s="8">
+        <v>-7782.6030000000001</v>
+      </c>
+      <c r="T10" s="8">
+        <v>82.303399999999996</v>
+      </c>
+      <c r="U10" s="8">
+        <v>5.6356100000000001E-3</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+    </row>
+    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="5">
-        <v>-7745.3230000000003</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="O11" s="4">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P11" s="4">
         <v>9</v>
       </c>
-      <c r="Q10" s="5">
-        <v>28.186274509803901</v>
-      </c>
-      <c r="R10" s="5">
-        <v>13.8265306122449</v>
-      </c>
-      <c r="S10" s="5">
-        <v>-7727.3230000000003</v>
-      </c>
-      <c r="T10" s="5">
-        <v>9.6104400000000005</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0.43874600000000002</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-    </row>
-    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="Q11" s="4">
+        <v>22.765432098765402</v>
+      </c>
+      <c r="R11" s="4">
+        <v>13.886639676113401</v>
+      </c>
+      <c r="S11" s="4">
+        <v>-7742.2920000000004</v>
+      </c>
+      <c r="T11" s="4">
+        <v>9.7809200000000001</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11">
-        <v>-7743.576</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11">
-        <v>29.4006309148265</v>
-      </c>
-      <c r="R11">
-        <v>13.2833020637899</v>
-      </c>
-      <c r="S11">
-        <v>-7725.576</v>
-      </c>
-      <c r="T11">
-        <v>10.5723</v>
-      </c>
-      <c r="U11">
-        <v>0.363263</v>
-      </c>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-    </row>
-    <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>52</v>
@@ -2128,49 +2161,60 @@
       <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="3">
-        <v>-7705.9520000000002</v>
-      </c>
-      <c r="P12" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>29.657320872274099</v>
-      </c>
-      <c r="R12" s="3">
-        <v>14.580777096114501</v>
-      </c>
-      <c r="S12" s="3">
-        <v>-7685.9520000000002</v>
-      </c>
-      <c r="T12" s="3">
-        <v>11.7502</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0.35689399999999999</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="O12">
+        <v>-7757.6949999999997</v>
+      </c>
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>30.158227848101301</v>
+      </c>
+      <c r="R12">
+        <v>13.712574850299401</v>
+      </c>
+      <c r="S12">
+        <v>-7739.6949999999997</v>
+      </c>
+      <c r="T12">
+        <v>10.4992</v>
+      </c>
+      <c r="U12">
+        <v>0.35333799999999999</v>
+      </c>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
+      <c r="A13">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -2188,370 +2232,363 @@
         <v>52</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P13">
         <v>11</v>
       </c>
-      <c r="O13" s="3">
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13">
+        <v>-7738.2920000000004</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>0.43628800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="5">
+        <v>-7745.3230000000003</v>
+      </c>
+      <c r="P14" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>28.186274509803901</v>
+      </c>
+      <c r="R14" s="5">
+        <v>13.8265306122449</v>
+      </c>
+      <c r="S14" s="5">
+        <v>-7727.3230000000003</v>
+      </c>
+      <c r="T14" s="5">
+        <v>9.6104400000000005</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0.43874600000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>-7743.576</v>
+      </c>
+      <c r="P15">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>29.4006309148265</v>
+      </c>
+      <c r="R15">
+        <v>13.2833020637899</v>
+      </c>
+      <c r="S15">
+        <v>-7725.576</v>
+      </c>
+      <c r="T15">
+        <v>10.5723</v>
+      </c>
+      <c r="U15">
+        <v>0.363263</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+    </row>
+    <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-7705.9520000000002</v>
+      </c>
+      <c r="P16" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>29.657320872274099</v>
+      </c>
+      <c r="R16" s="3">
+        <v>14.580777096114501</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-7685.9520000000002</v>
+      </c>
+      <c r="T16" s="3">
+        <v>11.7502</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.35689399999999999</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="3">
         <v>-7689.5619999999999</v>
       </c>
-      <c r="P13" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="P17" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3">
         <v>29.440993788819899</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R17" s="3">
         <v>13.9583333333333</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S17" s="3">
         <v>-7669.5619999999999</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T17" s="3">
         <v>10.7644</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U17" s="3">
         <v>0.30691000000000002</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14">
-        <v>-7642.89</v>
-      </c>
-      <c r="P14">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>6.7931034482758603</v>
-      </c>
-      <c r="R14">
-        <v>13.824130879345599</v>
-      </c>
-      <c r="S14">
-        <v>-7626.89</v>
-      </c>
-      <c r="T14">
-        <v>12.1884</v>
-      </c>
-      <c r="U14">
-        <v>0.24842400000000001</v>
-      </c>
-      <c r="V14" s="3"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-    </row>
-    <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="8">
-        <v>-7447.6530000000002</v>
-      </c>
-      <c r="P15" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>21.7882836587873</v>
-      </c>
-      <c r="R15" s="8">
-        <v>33.636363636363598</v>
-      </c>
-      <c r="S15" s="8">
-        <v>-7429.6530000000002</v>
-      </c>
-      <c r="T15" s="8">
-        <v>77.976200000000006</v>
-      </c>
-      <c r="U15" s="8">
-        <v>2.1269000000000001E-3</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="6">
-        <v>-7412.5810000000001</v>
-      </c>
-      <c r="P16" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="6">
-        <v>-7396.5810000000001</v>
-      </c>
-      <c r="T16" s="6">
-        <v>18.5487</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.29675800000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="4">
-        <v>-7412.5789999999997</v>
-      </c>
-      <c r="P17" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>11.4864864864865</v>
-      </c>
-      <c r="R17" s="4">
-        <v>13.810483870967699</v>
-      </c>
-      <c r="S17" s="4">
-        <v>-7396.5789999999997</v>
-      </c>
-      <c r="T17" s="4">
-        <v>18.563400000000001</v>
-      </c>
-      <c r="U17" s="4">
-        <v>0.29601899999999998</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>52</v>
@@ -2575,32 +2612,30 @@
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O18">
-        <v>-7413.6360000000004</v>
+        <v>-7642.89</v>
       </c>
       <c r="P18">
-        <v>9</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>6.7931034482758603</v>
+      </c>
+      <c r="R18">
+        <v>13.824130879345599</v>
       </c>
       <c r="S18">
-        <v>-7395.6360000000004</v>
+        <v>-7626.89</v>
       </c>
       <c r="T18">
-        <v>18.5459</v>
+        <v>12.1884</v>
       </c>
       <c r="U18">
-        <v>0.29598000000000002</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>0.24842400000000001</v>
+      </c>
+      <c r="V18" s="3"/>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
@@ -2618,22 +2653,22 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>52</v>
@@ -2648,417 +2683,436 @@
         <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>-7452.6949999999997</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>21.321695760598502</v>
+      </c>
+      <c r="R19">
+        <v>13.877840909090899</v>
+      </c>
+      <c r="S19">
+        <v>-7438.6949999999997</v>
+      </c>
+      <c r="T19">
+        <v>9.7581600000000002</v>
+      </c>
+      <c r="U19">
+        <v>0.34387299999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="8">
+        <v>-7447.6530000000002</v>
+      </c>
+      <c r="P20" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>21.7882836587873</v>
+      </c>
+      <c r="R20" s="8">
+        <v>33.636363636363598</v>
+      </c>
+      <c r="S20" s="8">
+        <v>-7429.6530000000002</v>
+      </c>
+      <c r="T20" s="8">
+        <v>77.976200000000006</v>
+      </c>
+      <c r="U20" s="8">
+        <v>2.1269000000000001E-3</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="6">
+        <v>-7412.5810000000001</v>
+      </c>
+      <c r="P21" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S21" s="6">
+        <v>-7396.5810000000001</v>
+      </c>
+      <c r="T21" s="6">
+        <v>18.5487</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0.29675800000000002</v>
+      </c>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="4">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P22" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>11.4864864864865</v>
+      </c>
+      <c r="R22" s="4">
+        <v>13.810483870967699</v>
+      </c>
+      <c r="S22" s="4">
+        <v>-7396.5789999999997</v>
+      </c>
+      <c r="T22" s="4">
+        <v>18.563400000000001</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.29601899999999998</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+    </row>
+    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23">
+        <v>-7413.6360000000004</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>15</v>
+      </c>
+      <c r="S23">
+        <v>-7395.6360000000004</v>
+      </c>
+      <c r="T23">
+        <v>18.5459</v>
+      </c>
+      <c r="U23">
+        <v>0.29598000000000002</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" t="s">
         <v>14</v>
       </c>
-      <c r="O19">
+      <c r="O24">
         <v>-7412.5789999999997</v>
       </c>
-      <c r="P19">
+      <c r="P24">
         <v>9</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q24" t="s">
         <v>15</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R24" t="s">
         <v>15</v>
       </c>
-      <c r="S19">
+      <c r="S24">
         <v>-7394.5789999999997</v>
       </c>
-      <c r="T19">
+      <c r="T24">
         <v>35.331699999999998</v>
       </c>
-      <c r="U19">
+      <c r="U24">
         <v>0.29600399999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20">
-        <v>-7412.9350000000004</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>29.986052998605299</v>
-      </c>
-      <c r="R20">
-        <v>13.951612903225801</v>
-      </c>
-      <c r="S20">
-        <v>-7392.9350000000004</v>
-      </c>
-      <c r="T20">
-        <v>18.523599999999998</v>
-      </c>
-      <c r="U20">
-        <v>0.29228700000000002</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21">
-        <v>-7397.1809999999996</v>
-      </c>
-      <c r="P21">
-        <v>8</v>
-      </c>
-      <c r="Q21">
-        <v>12.3188405797101</v>
-      </c>
-      <c r="R21">
-        <v>152.5</v>
-      </c>
-      <c r="S21">
-        <v>-7381.1809999999996</v>
-      </c>
-      <c r="T21">
-        <v>97.815100000000001</v>
-      </c>
-      <c r="U21">
-        <v>1.78929E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="5">
-        <v>-7396.8819999999996</v>
-      </c>
-      <c r="P22" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>11.6216216216216</v>
-      </c>
-      <c r="R22" s="5">
-        <v>12.958801498127301</v>
-      </c>
-      <c r="S22" s="5">
-        <v>-7380.8819999999996</v>
-      </c>
-      <c r="T22" s="5">
-        <v>18.621700000000001</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0.28395100000000001</v>
-      </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-    </row>
-    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="4">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P23" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R23" s="4">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S23" s="4">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T23" s="4">
-        <v>18.219799999999999</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0.35448400000000002</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="6">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P24" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R24" s="6">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S24" s="6">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T24" s="6">
-        <v>18.22</v>
-      </c>
-      <c r="U24" s="6">
-        <v>0.35374499999999998</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -3066,11 +3120,11 @@
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>55</v>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>52</v>
@@ -3082,60 +3136,63 @@
         <v>52</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="M25" t="s">
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O25">
-        <v>-7360.6790000000001</v>
+        <v>-7412.9350000000004</v>
       </c>
       <c r="P25">
         <v>10</v>
       </c>
-      <c r="Q25" t="s">
-        <v>15</v>
-      </c>
-      <c r="R25" t="s">
-        <v>15</v>
+      <c r="Q25">
+        <v>29.986052998605299</v>
+      </c>
+      <c r="R25">
+        <v>13.951612903225801</v>
       </c>
       <c r="S25">
-        <v>-7340.6790000000001</v>
+        <v>-7392.9350000000004</v>
       </c>
       <c r="T25">
-        <v>18.219899999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="U25">
-        <v>0.35380800000000001</v>
+        <v>0.29228700000000002</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>52</v>
@@ -3152,310 +3209,295 @@
       <c r="K26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="M26" t="s">
         <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O26">
-        <v>-7360.84</v>
+        <v>-7397.1809999999996</v>
       </c>
       <c r="P26">
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>12.3188405797101</v>
+      </c>
+      <c r="R26">
+        <v>152.5</v>
+      </c>
+      <c r="S26">
+        <v>-7381.1809999999996</v>
+      </c>
+      <c r="T26">
+        <v>97.815100000000001</v>
+      </c>
+      <c r="U26">
+        <v>1.78929E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26">
-        <v>-7338.84</v>
-      </c>
-      <c r="T26">
-        <v>18.248000000000001</v>
-      </c>
-      <c r="U26">
-        <v>0.35722999999999999</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="O27" s="5">
+        <v>-7396.8819999999996</v>
+      </c>
+      <c r="P27" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>11.6216216216216</v>
+      </c>
+      <c r="R27" s="5">
+        <v>12.958801498127301</v>
+      </c>
+      <c r="S27" s="5">
+        <v>-7380.8819999999996</v>
+      </c>
+      <c r="T27" s="5">
+        <v>18.621700000000001</v>
+      </c>
+      <c r="U27" s="5">
+        <v>0.28395100000000001</v>
+      </c>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27">
-        <v>-7353.53</v>
-      </c>
-      <c r="P27">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" t="s">
-        <v>15</v>
-      </c>
-      <c r="R27" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27">
-        <v>-7331.53</v>
-      </c>
-      <c r="T27">
-        <v>18.205200000000001</v>
-      </c>
-      <c r="U27">
-        <v>0.34934300000000001</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>4</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="O28" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P28" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R28" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S28" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T28" s="4">
+        <v>18.219799999999999</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.35448400000000002</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="5">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P28" s="5">
+      <c r="O29" s="6">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P29" s="6">
         <v>9</v>
       </c>
-      <c r="Q28" s="5">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R28" s="5">
-        <v>13.3834586466165</v>
-      </c>
-      <c r="S28" s="5">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T28" s="5">
-        <v>18.380800000000001</v>
-      </c>
-      <c r="U28" s="5">
-        <v>0.348858</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P29">
-        <v>9</v>
-      </c>
-      <c r="Q29">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R29">
-        <v>13.4962406015038</v>
-      </c>
-      <c r="S29">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T29">
-        <v>18.379300000000001</v>
-      </c>
-      <c r="U29">
-        <v>0.349408</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
+      <c r="Q29" s="6">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R29" s="6">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S29" s="6">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T29" s="6">
+        <v>18.22</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0.35374499999999998</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="3">
-        <v>4</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
+      <c r="E30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>52</v>
@@ -3467,12 +3509,14 @@
         <v>52</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M30" t="s">
         <v>10</v>
       </c>
@@ -3480,10 +3524,10 @@
         <v>14</v>
       </c>
       <c r="O30">
-        <v>-7343.5069999999996</v>
+        <v>-7360.6790000000001</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="s">
         <v>15</v>
@@ -3492,47 +3536,33 @@
         <v>15</v>
       </c>
       <c r="S30">
-        <v>-7321.5069999999996</v>
+        <v>-7340.6790000000001</v>
       </c>
       <c r="T30">
-        <v>18.3887</v>
+        <v>18.219899999999999</v>
       </c>
       <c r="U30">
-        <v>0.35704900000000001</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
+        <v>0.35380800000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>52</v>
@@ -3549,43 +3579,58 @@
       <c r="K31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="L31" s="3"/>
       <c r="M31" t="s">
         <v>10</v>
       </c>
       <c r="N31" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31">
+        <v>-7360.84</v>
+      </c>
+      <c r="P31">
         <v>11</v>
       </c>
-      <c r="O31">
-        <v>-7314.5810000000001</v>
-      </c>
-      <c r="P31">
-        <v>10</v>
-      </c>
-      <c r="Q31">
-        <v>33.236994219653198</v>
-      </c>
-      <c r="R31">
-        <v>63.206106870229</v>
+      <c r="Q31" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" t="s">
+        <v>15</v>
       </c>
       <c r="S31">
-        <v>-7294.5810000000001</v>
+        <v>-7338.84</v>
       </c>
       <c r="T31">
-        <v>64.828199999999995</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="U31">
-        <v>0.41000700000000001</v>
-      </c>
+        <v>0.35722999999999999</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3609,41 +3654,41 @@
         <v>52</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" t="s">
         <v>10</v>
       </c>
       <c r="N32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32">
+        <v>-7353.53</v>
+      </c>
+      <c r="P32">
         <v>11</v>
       </c>
-      <c r="O32">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P32">
-        <v>8</v>
-      </c>
-      <c r="Q32">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R32">
-        <v>14.7206165703276</v>
+      <c r="Q32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" t="s">
+        <v>15</v>
       </c>
       <c r="S32">
-        <v>-7289.2420000000002</v>
+        <v>-7331.53</v>
       </c>
       <c r="T32">
-        <v>18.4377</v>
+        <v>18.205200000000001</v>
       </c>
       <c r="U32">
-        <v>0.38063399999999997</v>
+        <v>0.34934300000000001</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -3661,103 +3706,103 @@
       <c r="AJ32" s="3"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="3"/>
-      <c r="M33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="K33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O33">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P33">
-        <v>8</v>
-      </c>
-      <c r="Q33">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R33">
-        <v>14.701348747591499</v>
-      </c>
-      <c r="S33">
-        <v>-7289.2420000000002</v>
-      </c>
-      <c r="T33">
-        <v>18.436399999999999</v>
-      </c>
-      <c r="U33">
-        <v>0.38163799999999998</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
+      <c r="O33" s="5">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P33" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R33" s="5">
+        <v>13.3834586466165</v>
+      </c>
+      <c r="S33" s="5">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T33" s="5">
+        <v>18.380800000000001</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.348858</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
-      <c r="E34" s="3">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>52</v>
@@ -3772,35 +3817,38 @@
         <v>58</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" t="s">
         <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O34">
-        <v>-7305.2520000000004</v>
+        <v>-7343.4480000000003</v>
       </c>
       <c r="P34">
-        <v>10</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>15</v>
-      </c>
-      <c r="R34" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R34">
+        <v>13.4962406015038</v>
       </c>
       <c r="S34">
-        <v>-7285.2520000000004</v>
+        <v>-7325.4480000000003</v>
       </c>
       <c r="T34">
-        <v>18.490600000000001</v>
+        <v>18.379300000000001</v>
       </c>
       <c r="U34">
-        <v>0.38619799999999999</v>
+        <v>0.349408</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -3818,91 +3866,101 @@
       <c r="AJ34" s="3"/>
     </row>
     <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>41</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8">
-        <v>2</v>
-      </c>
-      <c r="F35" s="8">
-        <v>2</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" s="8" t="s">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O35">
+        <v>-7343.5069999999996</v>
+      </c>
+      <c r="P35">
         <v>11</v>
       </c>
-      <c r="O35" s="8">
-        <v>-7194.317</v>
-      </c>
-      <c r="P35" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>32.159624413145501</v>
-      </c>
-      <c r="R35" s="8">
-        <v>12.9957203994294</v>
-      </c>
-      <c r="S35" s="8">
-        <v>-7180.317</v>
-      </c>
-      <c r="T35" s="8">
-        <v>12.706899999999999</v>
-      </c>
-      <c r="U35" s="8">
-        <v>0.382193</v>
-      </c>
-      <c r="V35" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S35">
+        <v>-7321.5069999999996</v>
+      </c>
+      <c r="T35">
+        <v>18.3887</v>
+      </c>
+      <c r="U35">
+        <v>0.35704900000000001</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>52</v>
@@ -3911,63 +3969,51 @@
         <v>52</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="M36" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O36">
-        <v>-7096.0879999999997</v>
+        <v>-7314.5810000000001</v>
       </c>
       <c r="P36">
-        <v>9</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>15</v>
-      </c>
-      <c r="R36" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>33.236994219653198</v>
+      </c>
+      <c r="R36">
+        <v>63.206106870229</v>
       </c>
       <c r="S36">
-        <v>-7078.0879999999997</v>
+        <v>-7294.5810000000001</v>
       </c>
       <c r="T36">
-        <v>4.2718999999999996</v>
+        <v>64.828199999999995</v>
       </c>
       <c r="U36">
-        <v>0.384436</v>
-      </c>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
+        <v>0.41000700000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -3988,7 +4034,7 @@
         <v>52</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>58</v>
@@ -4004,25 +4050,28 @@
         <v>11</v>
       </c>
       <c r="O37">
-        <v>-7080.0150000000003</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q37">
-        <v>20.9978768577495</v>
+        <v>32.456140350877199</v>
       </c>
       <c r="R37">
-        <v>9.7751124437781094</v>
+        <v>14.7206165703276</v>
       </c>
       <c r="S37">
-        <v>-7066.0150000000003</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T37">
-        <v>12.4293</v>
+        <v>18.4377</v>
       </c>
       <c r="U37">
-        <v>0.36684600000000001</v>
+        <v>0.38063399999999997</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -4041,10 +4090,10 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4052,11 +4101,11 @@
       <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2</v>
+      <c r="E38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>52</v>
@@ -4068,60 +4117,75 @@
         <v>52</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L38" s="3"/>
       <c r="M38" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N38" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O38">
-        <v>-6914.9369999999999</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P38">
-        <v>11</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>15</v>
-      </c>
-      <c r="R38" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q38">
+        <v>32.456140350877199</v>
+      </c>
+      <c r="R38">
+        <v>14.701348747591499</v>
       </c>
       <c r="S38">
-        <v>-6892.9369999999999</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T38">
-        <v>51.304000000000002</v>
-      </c>
-      <c r="U38" s="1">
-        <v>2.1262399999999999E-53</v>
-      </c>
+        <v>18.436399999999999</v>
+      </c>
+      <c r="U38">
+        <v>0.38163799999999998</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>52</v>
@@ -4133,7 +4197,7 @@
         <v>52</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>58</v>
@@ -4146,10 +4210,10 @@
         <v>14</v>
       </c>
       <c r="O39">
-        <v>-6858.2439999999997</v>
+        <v>-7305.2520000000004</v>
       </c>
       <c r="P39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q39" t="s">
         <v>15</v>
@@ -4158,13 +4222,13 @@
         <v>15</v>
       </c>
       <c r="S39">
-        <v>-6842.2439999999997</v>
+        <v>-7285.2520000000004</v>
       </c>
       <c r="T39">
-        <v>69.619900000000001</v>
-      </c>
-      <c r="U39" s="1">
-        <v>4.0198100000000001E-82</v>
+        <v>18.490600000000001</v>
+      </c>
+      <c r="U39">
+        <v>0.38619799999999999</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -4183,39 +4247,41 @@
     </row>
     <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="9">
-        <v>2</v>
-      </c>
-      <c r="F40" s="9">
-        <v>2</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="9" t="s">
+      <c r="I40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="M40" s="8" t="s">
         <v>10</v>
       </c>
@@ -4223,48 +4289,48 @@
         <v>11</v>
       </c>
       <c r="O40" s="8">
-        <v>-6843.326</v>
+        <v>-7194.317</v>
       </c>
       <c r="P40" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="8">
-        <v>23.647294589178401</v>
+        <v>32.159624413145501</v>
       </c>
       <c r="R40" s="8">
-        <v>12.0670391061453</v>
+        <v>12.9957203994294</v>
       </c>
       <c r="S40" s="8">
-        <v>-6831.326</v>
+        <v>-7180.317</v>
       </c>
       <c r="T40" s="8">
-        <v>100</v>
+        <v>12.706899999999999</v>
       </c>
       <c r="U40" s="8">
-        <v>0.36738399999999999</v>
+        <v>0.382193</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>52</v>
@@ -4273,26 +4339,26 @@
         <v>52</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>58</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N41" t="s">
         <v>14</v>
       </c>
       <c r="O41">
-        <v>-6802.9390000000003</v>
+        <v>-7096.0879999999997</v>
       </c>
       <c r="P41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="s">
         <v>15</v>
@@ -4301,16 +4367,13 @@
         <v>15</v>
       </c>
       <c r="S41">
-        <v>-6782.9390000000003</v>
+        <v>-7078.0879999999997</v>
       </c>
       <c r="T41">
-        <v>77.094399999999993</v>
-      </c>
-      <c r="U41" s="1">
-        <v>1.3424400000000001E-99</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>70</v>
+        <v>4.2718999999999996</v>
+      </c>
+      <c r="U41">
+        <v>0.384436</v>
       </c>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
@@ -4329,22 +4392,22 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>55</v>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>52</v>
@@ -4353,13 +4416,13 @@
         <v>52</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" t="s">
@@ -4369,45 +4432,59 @@
         <v>11</v>
       </c>
       <c r="O42">
-        <v>-6439.4690000000001</v>
+        <v>-7080.0150000000003</v>
       </c>
       <c r="P42">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q42">
-        <v>98.153846153846104</v>
+        <v>20.9978768577495</v>
       </c>
       <c r="R42">
-        <v>16.330798479087498</v>
+        <v>9.7751124437781094</v>
       </c>
       <c r="S42">
-        <v>-6417.4690000000001</v>
+        <v>-7066.0150000000003</v>
       </c>
       <c r="T42">
-        <v>20.603000000000002</v>
+        <v>12.4293</v>
       </c>
       <c r="U42">
-        <v>0.21735199999999999</v>
-      </c>
+        <v>0.36684600000000001</v>
+      </c>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>55</v>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>52</v>
@@ -4424,53 +4501,55 @@
       <c r="K43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="M43" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43">
+        <v>-6914.9369999999999</v>
+      </c>
+      <c r="P43">
         <v>11</v>
       </c>
-      <c r="O43">
-        <v>-6430.3410000000003</v>
-      </c>
-      <c r="P43">
-        <v>9</v>
-      </c>
-      <c r="Q43">
-        <v>26.054590570719601</v>
-      </c>
-      <c r="R43">
-        <v>16.622390891840599</v>
+      <c r="Q43" t="s">
+        <v>15</v>
+      </c>
+      <c r="R43" t="s">
+        <v>15</v>
       </c>
       <c r="S43">
-        <v>-6412.3410000000003</v>
+        <v>-6892.9369999999999</v>
       </c>
       <c r="T43">
-        <v>20.392900000000001</v>
-      </c>
-      <c r="U43">
-        <v>0.21180599999999999</v>
+        <v>51.304000000000002</v>
+      </c>
+      <c r="U43" s="1">
+        <v>2.1262399999999999E-53</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>55</v>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>52</v>
@@ -4485,123 +4564,137 @@
         <v>53</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" t="s">
         <v>10</v>
       </c>
       <c r="N44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>-6858.2439999999997</v>
+      </c>
+      <c r="P44">
+        <v>8</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" t="s">
+        <v>15</v>
+      </c>
+      <c r="S44">
+        <v>-6842.2439999999997</v>
+      </c>
+      <c r="T44">
+        <v>69.619900000000001</v>
+      </c>
+      <c r="U44" s="1">
+        <v>4.0198100000000001E-82</v>
+      </c>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>0</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O44">
-        <v>-6416.2460000000001</v>
-      </c>
-      <c r="P44">
-        <v>9</v>
-      </c>
-      <c r="Q44">
-        <v>26.485148514851499</v>
-      </c>
-      <c r="R44">
-        <v>15.686619718309901</v>
-      </c>
-      <c r="S44">
-        <v>-6398.2460000000001</v>
-      </c>
-      <c r="T44">
-        <v>20.3721</v>
-      </c>
-      <c r="U44">
-        <v>0.210977</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45">
-        <v>-6356.9009999999998</v>
-      </c>
-      <c r="P45">
+      <c r="O45" s="8">
+        <v>-6843.326</v>
+      </c>
+      <c r="P45" s="8">
         <v>6</v>
       </c>
-      <c r="Q45">
-        <v>79.203539823008896</v>
-      </c>
-      <c r="R45">
-        <v>23.452768729641701</v>
-      </c>
-      <c r="S45">
-        <v>-6344.9009999999998</v>
-      </c>
-      <c r="T45">
-        <v>3.2928799999999998</v>
-      </c>
-      <c r="U45">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
+      <c r="Q45" s="8">
+        <v>23.647294589178401</v>
+      </c>
+      <c r="R45" s="8">
+        <v>12.0670391061453</v>
+      </c>
+      <c r="S45" s="8">
+        <v>-6831.326</v>
+      </c>
+      <c r="T45" s="8">
+        <v>100</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0.36738399999999999</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4625,38 +4718,41 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" t="s">
         <v>10</v>
       </c>
       <c r="N46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O46">
-        <v>-6225.8220000000001</v>
+        <v>-6802.9390000000003</v>
       </c>
       <c r="P46">
-        <v>8</v>
-      </c>
-      <c r="Q46">
-        <v>24.582338902147999</v>
-      </c>
-      <c r="R46">
-        <v>14.7272727272727</v>
+        <v>10</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>15</v>
+      </c>
+      <c r="R46" t="s">
+        <v>15</v>
       </c>
       <c r="S46">
-        <v>-6209.8220000000001</v>
+        <v>-6782.9390000000003</v>
       </c>
       <c r="T46">
-        <v>15.906700000000001</v>
-      </c>
-      <c r="U46">
-        <v>0.37484600000000001</v>
+        <v>77.094399999999993</v>
+      </c>
+      <c r="U46" s="1">
+        <v>1.3424400000000001E-99</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -4675,22 +4771,22 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>52</v>
@@ -4702,7 +4798,7 @@
         <v>52</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>54</v>
@@ -4715,62 +4811,45 @@
         <v>11</v>
       </c>
       <c r="O47">
-        <v>-5773.9939999999997</v>
+        <v>-6439.4690000000001</v>
       </c>
       <c r="P47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q47">
-        <v>23.621262458471801</v>
+        <v>98.153846153846104</v>
       </c>
       <c r="R47">
-        <v>18.7332053742802</v>
+        <v>16.330798479087498</v>
       </c>
       <c r="S47">
-        <v>-5753.9939999999997</v>
+        <v>-6417.4690000000001</v>
       </c>
       <c r="T47">
-        <v>24.648700000000002</v>
+        <v>20.603000000000002</v>
       </c>
       <c r="U47">
-        <v>0.182335</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
+        <v>0.21735199999999999</v>
+      </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>52</v>
@@ -4782,7 +4861,7 @@
         <v>52</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>54</v>
@@ -4795,162 +4874,601 @@
         <v>11</v>
       </c>
       <c r="O48">
-        <v>-5762.0389999999998</v>
+        <v>-6430.3410000000003</v>
       </c>
       <c r="P48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q48">
-        <v>24.248366013071902</v>
+        <v>26.054590570719601</v>
       </c>
       <c r="R48">
-        <v>17.730496453900699</v>
+        <v>16.622390891840599</v>
       </c>
       <c r="S48">
-        <v>-5742.0389999999998</v>
+        <v>-6412.3410000000003</v>
       </c>
       <c r="T48">
-        <v>24.850200000000001</v>
+        <v>20.392900000000001</v>
       </c>
       <c r="U48">
-        <v>0.172901</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
+        <v>0.21180599999999999</v>
+      </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C49" s="3">
-        <v>2</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O49">
-        <v>-5526.2460000000001</v>
+        <v>-6416.2460000000001</v>
       </c>
       <c r="P49">
-        <v>8</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>15</v>
-      </c>
-      <c r="R49" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Q49">
+        <v>26.485148514851499</v>
+      </c>
+      <c r="R49">
+        <v>15.686619718309901</v>
       </c>
       <c r="S49">
-        <v>-5510.2460000000001</v>
+        <v>-6398.2460000000001</v>
       </c>
       <c r="T49">
-        <v>13.9314</v>
+        <v>20.3721</v>
       </c>
       <c r="U49">
-        <v>3.1708600000000001E-4</v>
-      </c>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
+        <v>0.210977</v>
+      </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <v>-6356.9009999999998</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+      <c r="Q50">
+        <v>79.203539823008896</v>
+      </c>
+      <c r="R50">
+        <v>23.452768729641701</v>
+      </c>
+      <c r="S50">
+        <v>-6344.9009999999998</v>
+      </c>
+      <c r="T50">
+        <v>3.2928799999999998</v>
+      </c>
+      <c r="U50">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51">
+        <v>-6225.8220000000001</v>
+      </c>
+      <c r="P51">
+        <v>8</v>
+      </c>
+      <c r="Q51">
+        <v>24.582338902147999</v>
+      </c>
+      <c r="R51">
+        <v>14.7272727272727</v>
+      </c>
+      <c r="S51">
+        <v>-6209.8220000000001</v>
+      </c>
+      <c r="T51">
+        <v>15.906700000000001</v>
+      </c>
+      <c r="U51">
+        <v>0.37484600000000001</v>
+      </c>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <v>-5773.9939999999997</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="Q52">
+        <v>23.621262458471801</v>
+      </c>
+      <c r="R52">
+        <v>18.7332053742802</v>
+      </c>
+      <c r="S52">
+        <v>-5753.9939999999997</v>
+      </c>
+      <c r="T52">
+        <v>24.648700000000002</v>
+      </c>
+      <c r="U52">
+        <v>0.182335</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" t="s">
+        <v>11</v>
+      </c>
+      <c r="O53">
+        <v>-5762.0389999999998</v>
+      </c>
+      <c r="P53">
+        <v>10</v>
+      </c>
+      <c r="Q53">
+        <v>24.248366013071902</v>
+      </c>
+      <c r="R53">
+        <v>17.730496453900699</v>
+      </c>
+      <c r="S53">
+        <v>-5742.0389999999998</v>
+      </c>
+      <c r="T53">
+        <v>24.850200000000001</v>
+      </c>
+      <c r="U53">
+        <v>0.172901</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" t="s">
+        <v>14</v>
+      </c>
+      <c r="O54">
+        <v>-5526.2460000000001</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54" t="s">
+        <v>15</v>
+      </c>
+      <c r="S54">
+        <v>-5510.2460000000001</v>
+      </c>
+      <c r="T54">
+        <v>13.9314</v>
+      </c>
+      <c r="U54">
+        <v>3.1708600000000001E-4</v>
+      </c>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="M55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O55">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P55">
+        <v>11</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>15</v>
+      </c>
+      <c r="R55" t="s">
+        <v>15</v>
+      </c>
+      <c r="S55">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T55">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U55">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="M56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" t="s">
+        <v>14</v>
+      </c>
+      <c r="O56">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P56">
+        <v>11</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>15</v>
+      </c>
+      <c r="R56" t="s">
+        <v>15</v>
+      </c>
+      <c r="S56">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T56">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U56">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B57" t="s">
         <v>109</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M57" t="s">
         <v>26</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N57" t="s">
         <v>14</v>
       </c>
-      <c r="O50">
+      <c r="O57">
         <v>-4980.0590000000002</v>
       </c>
-      <c r="P50">
+      <c r="P57">
         <v>12</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q57" t="s">
         <v>15</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R57" t="s">
         <v>15</v>
       </c>
-      <c r="S50">
+      <c r="S57">
         <v>-4956.0590000000002</v>
       </c>
-      <c r="T50">
+      <c r="T57">
         <v>99.905000000000001</v>
       </c>
-      <c r="U50">
+      <c r="U57">
         <v>9.806839999999999E-4</v>
       </c>
-      <c r="V50" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AJ51">
-    <sortCondition ref="S2:S51"/>
+  <sortState ref="A2:AJ57">
+    <sortCondition ref="S2:S57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
+++ b/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
@@ -15,14 +15,14 @@
     <sheet name="TERM_SE_AIC_SHK_PVAL" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TERM_SE_AIC_SHK_PVAL!$A$1:$AJ$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TERM_SE_AIC_SHK_PVAL!$A$1:$AJ$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="154">
   <si>
     <t>X1</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Even better when accounting for lag</t>
   </si>
   <si>
-    <t>4 transits even better, run multidose to estimate best number!</t>
-  </si>
-  <si>
     <t>RUN046_DES_1C3TAwAP_BOVPPV_CORCLVKA</t>
   </si>
   <si>
@@ -406,6 +403,105 @@
   </si>
   <si>
     <t>PR only + CLBOV</t>
+  </si>
+  <si>
+    <t>RUN052_DES_1C6TAwA_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN053_DES_1C6TAwAP_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>Michaelis-Menton</t>
+  </si>
+  <si>
+    <t>6TRANS</t>
+  </si>
+  <si>
+    <t>VMKM</t>
+  </si>
+  <si>
+    <t>RUN102_TRANSIT_MULTIDOSE_noKA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PR only+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1 Fix</t>
+    </r>
+  </si>
+  <si>
+    <t>RUN051_1C1AwAP_PPV_CORCLVKAF_LAG1</t>
+  </si>
+  <si>
+    <t>RUN054_DES_2C2TAwAP_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN055_DES_2C2TAwAP_PPV_CORCLVQVKA</t>
+  </si>
+  <si>
+    <t>RUN057_DES_1C3TAwAP_PPV_CORCLVKAF</t>
+  </si>
+  <si>
+    <t>RUN058_1C1AwAEP_PPV_CORCLVKA_LAG1</t>
+  </si>
+  <si>
+    <t>Trialled different error model</t>
+  </si>
+  <si>
+    <t>EXP(PR only)</t>
+  </si>
+  <si>
+    <t>Trialled reducing KA eta with F1 eta</t>
+  </si>
+  <si>
+    <t>RUN056_DES_1C1AP_PPVKA_MM</t>
+  </si>
+  <si>
+    <t>MM+PR only</t>
+  </si>
+  <si>
+    <t>RUN059_DES_2C2TAwAP_PPV_CORCLVV_QKA</t>
+  </si>
+  <si>
+    <t>CL&amp;V2V3</t>
+  </si>
+  <si>
+    <t>RUN060_DES_2C2TAwAP_PPV_CORCLVQVKA_LAG1</t>
+  </si>
+  <si>
+    <t>RUN061_DES_1C1AwAP_PPVKA_MM</t>
+  </si>
+  <si>
+    <t>RUN062_DES_1C7TAwAP_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN063_DES_1C5TAwAP_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>7TRANS</t>
+  </si>
+  <si>
+    <t>5TRANS</t>
+  </si>
+  <si>
+    <t>Vm/Km Rat.</t>
+  </si>
+  <si>
+    <t>LAG 0.1</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1021,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -936,6 +1032,7 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1257,15 +1354,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="3" customWidth="1"/>
@@ -1275,8 +1372,9 @@
     <col min="10" max="10" width="9.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
     <col min="18" max="18" width="13.7109375" customWidth="1"/>
     <col min="19" max="19" width="8.85546875" customWidth="1"/>
@@ -1368,163 +1466,177 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>-8097.8029999999999</v>
+      </c>
+      <c r="P2">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>-8071.8029999999999</v>
+      </c>
+      <c r="T2">
+        <v>61.2592</v>
+      </c>
+      <c r="U2">
+        <v>3.619E-2</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="6">
-        <v>-7901.4040000000005</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="O3" s="6">
+        <v>-7971.348</v>
+      </c>
+      <c r="P3" s="6">
         <v>8</v>
       </c>
-      <c r="Q2" s="6">
-        <v>7.6174496644295298</v>
-      </c>
-      <c r="R2" s="6">
-        <v>13.108910891089099</v>
-      </c>
-      <c r="S2" s="6">
-        <v>-7885.4040000000005</v>
-      </c>
-      <c r="T2" s="6">
-        <v>9.8653200000000005</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.39762799999999998</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3">
-        <v>-7849.817</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
-      <c r="Q3">
-        <v>30.5980066445183</v>
-      </c>
-      <c r="R3">
-        <v>13.3267716535433</v>
-      </c>
-      <c r="S3">
-        <v>-7831.817</v>
-      </c>
-      <c r="T3">
-        <v>9.71218</v>
-      </c>
-      <c r="U3">
-        <v>0.449681</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
+      <c r="Q3" s="6">
+        <v>6.36556854410202</v>
+      </c>
+      <c r="R3" s="6">
+        <v>12.7519379844961</v>
+      </c>
+      <c r="S3" s="6">
+        <v>-7955.348</v>
+      </c>
+      <c r="T3" s="6">
+        <v>8.6566100000000006</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.487871</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>55</v>
@@ -1548,48 +1660,48 @@
         <v>54</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O4">
-        <v>-7843</v>
+        <v>-7965.2280000000001</v>
       </c>
       <c r="P4">
-        <v>9</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>6.0707964601769904</v>
+      </c>
+      <c r="R4">
+        <v>12.653846153846199</v>
       </c>
       <c r="S4">
-        <v>-7825</v>
+        <v>-7949.2280000000001</v>
       </c>
       <c r="T4">
-        <v>52.140799999999999</v>
+        <v>8.4613899999999997</v>
       </c>
       <c r="U4">
-        <v>2.2879500000000001E-2</v>
+        <v>0.49240800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>55</v>
@@ -1613,48 +1725,48 @@
         <v>54</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O5">
-        <v>-7844.0959999999995</v>
+        <v>-7953.567</v>
       </c>
       <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>6.67979002624672</v>
+      </c>
+      <c r="R5">
+        <v>12.960784313725499</v>
       </c>
       <c r="S5">
-        <v>-7824.0959999999995</v>
+        <v>-7937.567</v>
       </c>
       <c r="T5">
-        <v>79.057599999999994</v>
+        <v>9.0121099999999998</v>
       </c>
       <c r="U5">
-        <v>7.0567499999999997E-3</v>
+        <v>0.46550900000000001</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
+      <c r="A6" s="3">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>55</v>
@@ -1675,66 +1787,66 @@
         <v>53</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O6">
-        <v>-7839.5190000000002</v>
-      </c>
-      <c r="P6">
-        <v>9</v>
-      </c>
-      <c r="Q6">
-        <v>14.9685534591195</v>
-      </c>
-      <c r="R6">
-        <v>17.991266375545901</v>
-      </c>
-      <c r="S6">
-        <v>-7821.5190000000002</v>
-      </c>
-      <c r="T6">
-        <v>78.857299999999995</v>
-      </c>
-      <c r="U6">
-        <v>1.23493E-3</v>
+      <c r="O6" s="3">
+        <v>-7901.4040000000005</v>
+      </c>
+      <c r="P6" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7.6174496644295298</v>
+      </c>
+      <c r="R6" s="3">
+        <v>13.108910891089099</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-7885.4040000000005</v>
+      </c>
+      <c r="T6" s="3">
+        <v>9.8653200000000005</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.39762799999999998</v>
       </c>
       <c r="V6" s="3"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
     </row>
     <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>55</v>
@@ -1752,7 +1864,7 @@
         <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>54</v>
@@ -1762,28 +1874,28 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>-7835.3919999999998</v>
+        <v>-7858.4639999999999</v>
       </c>
       <c r="P7">
         <v>9</v>
       </c>
-      <c r="Q7">
-        <v>30.498338870431901</v>
-      </c>
-      <c r="R7">
-        <v>13</v>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
       </c>
       <c r="S7">
-        <v>-7817.3919999999998</v>
+        <v>-7840.4639999999999</v>
       </c>
       <c r="T7">
-        <v>9.7065099999999997</v>
-      </c>
-      <c r="U7">
-        <v>0.44284600000000002</v>
+        <v>13.882099999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>6.4067100000000001E-9</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7"/>
@@ -1802,93 +1914,89 @@
       <c r="AJ7"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="6">
-        <v>-7802.5720000000001</v>
-      </c>
-      <c r="P8" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>7.6818181818181799</v>
-      </c>
-      <c r="R8" s="6">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="S8" s="6">
-        <v>-7786.5720000000001</v>
-      </c>
-      <c r="T8" s="6">
-        <v>10.2311</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.317</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
+      <c r="O8">
+        <v>-7849.817</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>30.5980066445183</v>
+      </c>
+      <c r="R8">
+        <v>13.3267716535433</v>
+      </c>
+      <c r="S8">
+        <v>-7831.817</v>
+      </c>
+      <c r="T8">
+        <v>9.71218</v>
+      </c>
+      <c r="U8">
+        <v>0.449681</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1918,7 +2026,7 @@
         <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
@@ -1927,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="O9">
-        <v>-7803.1729999999998</v>
+        <v>-7843</v>
       </c>
       <c r="P9">
         <v>9</v>
@@ -1939,13 +2047,13 @@
         <v>15</v>
       </c>
       <c r="S9">
-        <v>-7785.1729999999998</v>
+        <v>-7825</v>
       </c>
       <c r="T9">
-        <v>99.180499999999995</v>
+        <v>52.140799999999999</v>
       </c>
       <c r="U9">
-        <v>1.2579799999999999E-3</v>
+        <v>2.2879500000000001E-2</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9"/>
@@ -1964,181 +2072,175 @@
       <c r="AJ9"/>
     </row>
     <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="A10">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>-7844.0959999999995</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10">
+        <v>-7824.0959999999995</v>
+      </c>
+      <c r="T10">
+        <v>79.057599999999994</v>
+      </c>
+      <c r="U10">
+        <v>7.0567499999999997E-3</v>
+      </c>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+    </row>
+    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="L11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>11</v>
       </c>
-      <c r="O10" s="8">
-        <v>-7802.6030000000001</v>
-      </c>
-      <c r="P10" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>33.047619047619001</v>
-      </c>
-      <c r="R10" s="8">
-        <v>93.181818181818201</v>
-      </c>
-      <c r="S10" s="8">
-        <v>-7782.6030000000001</v>
-      </c>
-      <c r="T10" s="8">
-        <v>82.303399999999996</v>
-      </c>
-      <c r="U10" s="8">
-        <v>5.6356100000000001E-3</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-    </row>
-    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-7760.2920000000004</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11">
+        <v>-7839.5190000000002</v>
+      </c>
+      <c r="P11">
         <v>9</v>
       </c>
-      <c r="Q11" s="4">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R11" s="4">
-        <v>13.886639676113401</v>
-      </c>
-      <c r="S11" s="4">
-        <v>-7742.2920000000004</v>
-      </c>
-      <c r="T11" s="4">
-        <v>9.7809200000000001</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
+      <c r="Q11">
+        <v>14.9685534591195</v>
+      </c>
+      <c r="R11">
+        <v>17.991266375545901</v>
+      </c>
+      <c r="S11">
+        <v>-7821.5190000000002</v>
+      </c>
+      <c r="T11">
+        <v>78.857299999999995</v>
+      </c>
+      <c r="U11">
+        <v>1.23493E-3</v>
+      </c>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
     </row>
     <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>55</v>
@@ -2156,11 +2258,12 @@
         <v>52</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="L12"/>
       <c r="M12" t="s">
         <v>10</v>
       </c>
@@ -2168,25 +2271,25 @@
         <v>11</v>
       </c>
       <c r="O12">
-        <v>-7757.6949999999997</v>
+        <v>-7835.3919999999998</v>
       </c>
       <c r="P12">
         <v>9</v>
       </c>
       <c r="Q12">
-        <v>30.158227848101301</v>
+        <v>30.498338870431901</v>
       </c>
       <c r="R12">
-        <v>13.712574850299401</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>-7739.6949999999997</v>
+        <v>-7817.3919999999998</v>
       </c>
       <c r="T12">
-        <v>10.4992</v>
+        <v>9.7065099999999997</v>
       </c>
       <c r="U12">
-        <v>0.35333799999999999</v>
+        <v>0.44284600000000002</v>
       </c>
       <c r="W12"/>
       <c r="X12"/>
@@ -2204,141 +2307,171 @@
       <c r="AJ12"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="A13" s="6">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="L13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-7802.5720000000001</v>
+      </c>
+      <c r="P13" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>7.6818181818181799</v>
+      </c>
+      <c r="R13" s="6">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="S13" s="6">
+        <v>-7786.5720000000001</v>
+      </c>
+      <c r="T13" s="6">
+        <v>10.2311</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.317</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+    </row>
+    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
         <v>14</v>
       </c>
-      <c r="O13">
-        <v>-7760.2920000000004</v>
-      </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="O14">
+        <v>-7809.8739999999998</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
         <v>15</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R14" t="s">
         <v>15</v>
       </c>
-      <c r="S13">
-        <v>-7738.2920000000004</v>
-      </c>
-      <c r="T13">
-        <v>100</v>
-      </c>
-      <c r="U13">
-        <v>0.43628800000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>40</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="5">
-        <v>-7745.3230000000003</v>
-      </c>
-      <c r="P14" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>28.186274509803901</v>
-      </c>
-      <c r="R14" s="5">
-        <v>13.8265306122449</v>
-      </c>
-      <c r="S14" s="5">
-        <v>-7727.3230000000003</v>
-      </c>
-      <c r="T14" s="5">
-        <v>9.6104400000000005</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0.43874600000000002</v>
-      </c>
+      <c r="S14">
+        <v>-7785.8739999999998</v>
+      </c>
+      <c r="T14">
+        <v>37.440300000000001</v>
+      </c>
+      <c r="U14">
+        <v>1.7842899999999998E-2</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
     </row>
     <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2367,33 +2500,35 @@
       <c r="K15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M15" t="s">
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O15">
-        <v>-7743.576</v>
+        <v>-7803.1729999999998</v>
       </c>
       <c r="P15">
         <v>9</v>
       </c>
-      <c r="Q15">
-        <v>29.4006309148265</v>
-      </c>
-      <c r="R15">
-        <v>13.2833020637899</v>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
       </c>
       <c r="S15">
-        <v>-7725.576</v>
+        <v>-7785.1729999999998</v>
       </c>
       <c r="T15">
-        <v>10.5723</v>
+        <v>99.180499999999995</v>
       </c>
       <c r="U15">
-        <v>0.363263</v>
+        <v>1.2579799999999999E-3</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15"/>
@@ -2412,23 +2547,23 @@
       <c r="AJ15"/>
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>52</v>
@@ -2445,230 +2580,236 @@
       <c r="K16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="3" t="s">
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="3">
-        <v>-7705.9520000000002</v>
-      </c>
-      <c r="P16" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>29.657320872274099</v>
-      </c>
-      <c r="R16" s="3">
-        <v>14.580777096114501</v>
-      </c>
-      <c r="S16" s="3">
-        <v>-7685.9520000000002</v>
-      </c>
-      <c r="T16" s="3">
-        <v>11.7502</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0.35689399999999999</v>
+      <c r="O16">
+        <v>-7802.5720000000001</v>
+      </c>
+      <c r="P16">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>7.6818181818181799</v>
+      </c>
+      <c r="R16">
+        <v>619.83471074380202</v>
+      </c>
+      <c r="S16">
+        <v>-7784.5720000000001</v>
+      </c>
+      <c r="T16">
+        <v>52.482599999999998</v>
+      </c>
+      <c r="U16">
+        <v>0.31682399999999999</v>
       </c>
       <c r="V16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="8">
+        <v>-7802.6030000000001</v>
+      </c>
+      <c r="P17" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>33.047619047619001</v>
+      </c>
+      <c r="R17" s="8">
+        <v>93.181818181818201</v>
+      </c>
+      <c r="S17" s="8">
+        <v>-7782.6030000000001</v>
+      </c>
+      <c r="T17" s="8">
+        <v>82.303399999999996</v>
+      </c>
+      <c r="U17" s="8">
+        <v>5.6356100000000001E-3</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+    </row>
+    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P18" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>22.765432098765402</v>
+      </c>
+      <c r="R18" s="4">
+        <v>13.886639676113401</v>
+      </c>
+      <c r="S18" s="4">
+        <v>-7742.2920000000004</v>
+      </c>
+      <c r="T18" s="4">
+        <v>9.7809200000000001</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="3">
-        <v>-7689.5619999999999</v>
-      </c>
-      <c r="P17" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>29.440993788819899</v>
-      </c>
-      <c r="R17" s="3">
-        <v>13.9583333333333</v>
-      </c>
-      <c r="S17" s="3">
-        <v>-7669.5619999999999</v>
-      </c>
-      <c r="T17" s="3">
-        <v>10.7644</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0.30691000000000002</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-    </row>
-    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18">
-        <v>-7642.89</v>
-      </c>
-      <c r="P18">
-        <v>8</v>
-      </c>
-      <c r="Q18">
-        <v>6.7931034482758603</v>
-      </c>
-      <c r="R18">
-        <v>13.824130879345599</v>
-      </c>
-      <c r="S18">
-        <v>-7626.89</v>
-      </c>
-      <c r="T18">
-        <v>12.1884</v>
-      </c>
-      <c r="U18">
-        <v>0.24842400000000001</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>52</v>
@@ -2683,10 +2824,10 @@
         <v>53</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
       </c>
       <c r="M19" t="s">
         <v>10</v>
@@ -2695,371 +2836,338 @@
         <v>11</v>
       </c>
       <c r="O19">
-        <v>-7452.6949999999997</v>
+        <v>-7760.2920000000004</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q19">
-        <v>21.321695760598502</v>
+        <v>22.765432098765402</v>
       </c>
       <c r="R19">
-        <v>13.877840909090899</v>
+        <v>13.886639676113401</v>
       </c>
       <c r="S19">
-        <v>-7438.6949999999997</v>
+        <v>-7742.2920000000004</v>
       </c>
       <c r="T19">
-        <v>9.7581600000000002</v>
+        <v>9.7809200000000001</v>
       </c>
       <c r="U19">
-        <v>0.34387299999999998</v>
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>42</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>2</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="A20">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="K20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>24.617283950617299</v>
+      </c>
+      <c r="R20">
+        <v>69.565217391304301</v>
+      </c>
+      <c r="S20">
+        <v>-7740.2920000000004</v>
+      </c>
+      <c r="T20">
+        <v>40.420999999999999</v>
+      </c>
+      <c r="U20">
+        <v>0.43647900000000001</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21">
+        <v>-7757.6949999999997</v>
+      </c>
+      <c r="P21">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>30.158227848101301</v>
+      </c>
+      <c r="R21">
+        <v>13.712574850299401</v>
+      </c>
+      <c r="S21">
+        <v>-7739.6949999999997</v>
+      </c>
+      <c r="T21">
+        <v>10.4992</v>
+      </c>
+      <c r="U21">
+        <v>0.35333799999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P22">
         <v>11</v>
       </c>
-      <c r="O20" s="8">
-        <v>-7447.6530000000002</v>
-      </c>
-      <c r="P20" s="8">
+      <c r="Q22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <v>-7738.2920000000004</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>0.43628800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="5">
+        <v>-7745.3230000000003</v>
+      </c>
+      <c r="P23" s="5">
         <v>9</v>
       </c>
-      <c r="Q20" s="8">
-        <v>21.7882836587873</v>
-      </c>
-      <c r="R20" s="8">
-        <v>33.636363636363598</v>
-      </c>
-      <c r="S20" s="8">
-        <v>-7429.6530000000002</v>
-      </c>
-      <c r="T20" s="8">
-        <v>77.976200000000006</v>
-      </c>
-      <c r="U20" s="8">
-        <v>2.1269000000000001E-3</v>
-      </c>
-      <c r="V20" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="6">
-        <v>-7412.5810000000001</v>
-      </c>
-      <c r="P21" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S21" s="6">
-        <v>-7396.5810000000001</v>
-      </c>
-      <c r="T21" s="6">
-        <v>18.5487</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.29675800000000002</v>
-      </c>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="4">
-        <v>-7412.5789999999997</v>
-      </c>
-      <c r="P22" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>11.4864864864865</v>
-      </c>
-      <c r="R22" s="4">
-        <v>13.810483870967699</v>
-      </c>
-      <c r="S22" s="4">
-        <v>-7396.5789999999997</v>
-      </c>
-      <c r="T22" s="4">
-        <v>18.563400000000001</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0.29601899999999998</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-    </row>
-    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-      <c r="O23">
-        <v>-7413.6360000000004</v>
-      </c>
-      <c r="P23">
-        <v>9</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S23">
-        <v>-7395.6360000000004</v>
-      </c>
-      <c r="T23">
-        <v>18.5459</v>
-      </c>
-      <c r="U23">
-        <v>0.29598000000000002</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
+      <c r="Q23" s="5">
+        <v>28.186274509803901</v>
+      </c>
+      <c r="R23" s="5">
+        <v>13.8265306122449</v>
+      </c>
+      <c r="S23" s="5">
+        <v>-7727.3230000000003</v>
+      </c>
+      <c r="T23" s="5">
+        <v>9.6104400000000005</v>
+      </c>
+      <c r="U23" s="5">
+        <v>0.43874600000000002</v>
+      </c>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>52</v>
@@ -3076,49 +3184,47 @@
       <c r="K24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="L24" s="3"/>
       <c r="M24" t="s">
         <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O24">
-        <v>-7412.5789999999997</v>
+        <v>-7743.576</v>
       </c>
       <c r="P24">
         <v>9</v>
       </c>
-      <c r="Q24" t="s">
-        <v>15</v>
-      </c>
-      <c r="R24" t="s">
-        <v>15</v>
+      <c r="Q24">
+        <v>29.4006309148265</v>
+      </c>
+      <c r="R24">
+        <v>13.2833020637899</v>
       </c>
       <c r="S24">
-        <v>-7394.5789999999997</v>
+        <v>-7725.576</v>
       </c>
       <c r="T24">
-        <v>35.331699999999998</v>
+        <v>10.5723</v>
       </c>
       <c r="U24">
-        <v>0.29600399999999999</v>
+        <v>0.363263</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
+      <c r="A25" s="3">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -3136,57 +3242,69 @@
         <v>52</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O25">
-        <v>-7412.9350000000004</v>
-      </c>
-      <c r="P25">
-        <v>10</v>
-      </c>
-      <c r="Q25">
-        <v>29.986052998605299</v>
-      </c>
-      <c r="R25">
-        <v>13.951612903225801</v>
-      </c>
-      <c r="S25">
-        <v>-7392.9350000000004</v>
-      </c>
-      <c r="T25">
-        <v>18.523599999999998</v>
-      </c>
-      <c r="U25">
-        <v>0.29228700000000002</v>
+      <c r="O25" s="3">
+        <v>-7705.9520000000002</v>
+      </c>
+      <c r="P25" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>29.657320872274099</v>
+      </c>
+      <c r="R25" s="3">
+        <v>14.580777096114501</v>
+      </c>
+      <c r="S25" s="3">
+        <v>-7685.9520000000002</v>
+      </c>
+      <c r="T25" s="3">
+        <v>11.7502</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.35689399999999999</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
+      <c r="A26" s="3">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>1</v>
+      <c r="D26" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -3204,294 +3322,258 @@
         <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O26">
-        <v>-7397.1809999999996</v>
-      </c>
-      <c r="P26">
+      <c r="O26" s="3">
+        <v>-7689.5619999999999</v>
+      </c>
+      <c r="P26" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>29.440993788819899</v>
+      </c>
+      <c r="R26" s="3">
+        <v>13.9583333333333</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-7669.5619999999999</v>
+      </c>
+      <c r="T26" s="3">
+        <v>10.7644</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.30691000000000002</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27">
+        <v>-7664.866</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>-7644.866</v>
+      </c>
+      <c r="T27">
+        <v>12.027100000000001</v>
+      </c>
+      <c r="U27">
+        <v>0.23436299999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <v>-7642.89</v>
+      </c>
+      <c r="P28">
         <v>8</v>
       </c>
-      <c r="Q26">
-        <v>12.3188405797101</v>
-      </c>
-      <c r="R26">
-        <v>152.5</v>
-      </c>
-      <c r="S26">
-        <v>-7381.1809999999996</v>
-      </c>
-      <c r="T26">
-        <v>97.815100000000001</v>
-      </c>
-      <c r="U26">
-        <v>1.78929E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O27" s="5">
-        <v>-7396.8819999999996</v>
-      </c>
-      <c r="P27" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>11.6216216216216</v>
-      </c>
-      <c r="R27" s="5">
-        <v>12.958801498127301</v>
-      </c>
-      <c r="S27" s="5">
-        <v>-7380.8819999999996</v>
-      </c>
-      <c r="T27" s="5">
-        <v>18.621700000000001</v>
-      </c>
-      <c r="U27" s="5">
-        <v>0.28395100000000001</v>
-      </c>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="Q28">
+        <v>6.7931034482758603</v>
+      </c>
+      <c r="R28">
+        <v>13.824130879345599</v>
+      </c>
+      <c r="S28">
+        <v>-7626.89</v>
+      </c>
+      <c r="T28">
+        <v>12.1884</v>
+      </c>
+      <c r="U28">
+        <v>0.24842400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="4">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P28" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R28" s="4">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S28" s="4">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T28" s="4">
-        <v>18.219799999999999</v>
-      </c>
-      <c r="U28" s="4">
-        <v>0.35448400000000002</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>19</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29" s="6">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P29" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R29" s="6">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S29" s="6">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T29" s="6">
-        <v>18.22</v>
-      </c>
-      <c r="U29" s="6">
-        <v>0.35374499999999998</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
+      <c r="K29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O29">
+        <v>-7620.9380000000001</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29">
+        <v>-7592.9380000000001</v>
+      </c>
+      <c r="T29">
+        <v>55.209499999999998</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1.03933E-7</v>
+      </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
+      <c r="D30" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>55</v>
@@ -3512,297 +3594,301 @@
         <v>53</v>
       </c>
       <c r="K30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30">
+        <v>-7452.6949999999997</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>21.321695760598502</v>
+      </c>
+      <c r="R30">
+        <v>13.877840909090899</v>
+      </c>
+      <c r="S30">
+        <v>-7438.6949999999997</v>
+      </c>
+      <c r="T30">
+        <v>9.7581600000000002</v>
+      </c>
+      <c r="U30">
+        <v>0.34387299999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>42</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="8">
+        <v>-7447.6530000000002</v>
+      </c>
+      <c r="P31" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>21.7882836587873</v>
+      </c>
+      <c r="R31" s="8">
+        <v>33.636363636363598</v>
+      </c>
+      <c r="S31" s="8">
+        <v>-7429.6530000000002</v>
+      </c>
+      <c r="T31" s="8">
+        <v>77.976200000000006</v>
+      </c>
+      <c r="U31" s="8">
+        <v>2.1269000000000001E-3</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M30" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="L32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O30">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P30">
-        <v>10</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="O32" s="6">
+        <v>-7412.5810000000001</v>
+      </c>
+      <c r="P32" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S30">
-        <v>-7340.6790000000001</v>
-      </c>
-      <c r="T30">
-        <v>18.219899999999999</v>
-      </c>
-      <c r="U30">
-        <v>0.35380800000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="S32" s="6">
+        <v>-7396.5810000000001</v>
+      </c>
+      <c r="T32" s="6">
+        <v>18.5487</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.29675800000000002</v>
+      </c>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31">
-        <v>-7360.84</v>
-      </c>
-      <c r="P31">
-        <v>11</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>15</v>
-      </c>
-      <c r="R31" t="s">
-        <v>15</v>
-      </c>
-      <c r="S31">
-        <v>-7338.84</v>
-      </c>
-      <c r="T31">
-        <v>18.248000000000001</v>
-      </c>
-      <c r="U31">
-        <v>0.35722999999999999</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="3"/>
-      <c r="M32" t="s">
-        <v>10</v>
-      </c>
-      <c r="N32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32">
-        <v>-7353.53</v>
-      </c>
-      <c r="P32">
-        <v>11</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32">
-        <v>-7331.53</v>
-      </c>
-      <c r="T32">
-        <v>18.205200000000001</v>
-      </c>
-      <c r="U32">
-        <v>0.34934300000000001</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>4</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="5">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P33" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R33" s="5">
-        <v>13.3834586466165</v>
-      </c>
-      <c r="S33" s="5">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T33" s="5">
-        <v>18.380800000000001</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0.348858</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
+      <c r="O33" s="4">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P33" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>11.4864864864865</v>
+      </c>
+      <c r="R33" s="4">
+        <v>13.810483870967699</v>
+      </c>
+      <c r="S33" s="4">
+        <v>-7396.5789999999997</v>
+      </c>
+      <c r="T33" s="4">
+        <v>18.563400000000001</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0.29601899999999998</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>55</v>
+      <c r="D34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>52</v>
@@ -3814,75 +3900,63 @@
         <v>52</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M34" t="s">
         <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O34">
-        <v>-7343.4480000000003</v>
+        <v>-7413.6360000000004</v>
       </c>
       <c r="P34">
         <v>9</v>
       </c>
-      <c r="Q34">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R34">
-        <v>13.4962406015038</v>
+      <c r="Q34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" t="s">
+        <v>15</v>
       </c>
       <c r="S34">
-        <v>-7325.4480000000003</v>
+        <v>-7395.6360000000004</v>
       </c>
       <c r="T34">
-        <v>18.379300000000001</v>
+        <v>18.5459</v>
       </c>
       <c r="U34">
-        <v>0.349408</v>
+        <v>0.29598000000000002</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>52</v>
@@ -3894,12 +3968,14 @@
         <v>52</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="M35" t="s">
         <v>10</v>
       </c>
@@ -3907,10 +3983,10 @@
         <v>14</v>
       </c>
       <c r="O35">
-        <v>-7343.5069999999996</v>
+        <v>-7412.5789999999997</v>
       </c>
       <c r="P35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q35" t="s">
         <v>15</v>
@@ -3919,36 +3995,36 @@
         <v>15</v>
       </c>
       <c r="S35">
-        <v>-7321.5069999999996</v>
+        <v>-7394.5789999999997</v>
       </c>
       <c r="T35">
-        <v>18.3887</v>
+        <v>35.331699999999998</v>
       </c>
       <c r="U35">
-        <v>0.35704900000000001</v>
+        <v>0.29600399999999999</v>
       </c>
       <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3972,13 +4048,13 @@
         <v>52</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="M36" t="s">
         <v>10</v>
@@ -3987,33 +4063,36 @@
         <v>11</v>
       </c>
       <c r="O36">
-        <v>-7314.5810000000001</v>
+        <v>-7412.9350000000004</v>
       </c>
       <c r="P36">
         <v>10</v>
       </c>
       <c r="Q36">
-        <v>33.236994219653198</v>
+        <v>29.986052998605299</v>
       </c>
       <c r="R36">
-        <v>63.206106870229</v>
+        <v>13.951612903225801</v>
       </c>
       <c r="S36">
-        <v>-7294.5810000000001</v>
+        <v>-7392.9350000000004</v>
       </c>
       <c r="T36">
-        <v>64.828199999999995</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="U36">
-        <v>0.41000700000000001</v>
+        <v>0.29228700000000002</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -4037,12 +4116,14 @@
         <v>52</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="M37" t="s">
         <v>10</v>
       </c>
@@ -4050,287 +4131,285 @@
         <v>11</v>
       </c>
       <c r="O37">
-        <v>-7305.2420000000002</v>
+        <v>-7397.1809999999996</v>
       </c>
       <c r="P37">
         <v>8</v>
       </c>
       <c r="Q37">
-        <v>32.456140350877199</v>
+        <v>12.3188405797101</v>
       </c>
       <c r="R37">
-        <v>14.7206165703276</v>
+        <v>152.5</v>
       </c>
       <c r="S37">
-        <v>-7289.2420000000002</v>
+        <v>-7381.1809999999996</v>
       </c>
       <c r="T37">
-        <v>18.4377</v>
+        <v>97.815100000000001</v>
       </c>
       <c r="U37">
-        <v>0.38063399999999997</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
+        <v>1.78929E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="A38" s="5">
+        <v>29</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="5">
+        <v>-7396.8819999999996</v>
+      </c>
+      <c r="P38" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>11.6216216216216</v>
+      </c>
+      <c r="R38" s="5">
+        <v>12.958801498127301</v>
+      </c>
+      <c r="S38" s="5">
+        <v>-7380.8819999999996</v>
+      </c>
+      <c r="T38" s="5">
+        <v>18.621700000000001</v>
+      </c>
+      <c r="U38" s="5">
+        <v>0.28395100000000001</v>
+      </c>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O39" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P39" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R39" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S39" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T39" s="4">
+        <v>18.219799999999999</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0.35448400000000002</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+    </row>
+    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O38">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P38">
-        <v>8</v>
-      </c>
-      <c r="Q38">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R38">
-        <v>14.701348747591499</v>
-      </c>
-      <c r="S38">
-        <v>-7289.2420000000002</v>
-      </c>
-      <c r="T38">
-        <v>18.436399999999999</v>
-      </c>
-      <c r="U38">
-        <v>0.38163799999999998</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="O40" s="6">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P40" s="6">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4</v>
-      </c>
-      <c r="F39" s="3">
-        <v>4</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" t="s">
-        <v>14</v>
-      </c>
-      <c r="O39">
-        <v>-7305.2520000000004</v>
-      </c>
-      <c r="P39">
-        <v>10</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>15</v>
-      </c>
-      <c r="R39" t="s">
-        <v>15</v>
-      </c>
-      <c r="S39">
-        <v>-7285.2520000000004</v>
-      </c>
-      <c r="T39">
-        <v>18.490600000000001</v>
-      </c>
-      <c r="U39">
-        <v>0.38619799999999999</v>
-      </c>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-    </row>
-    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>41</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8">
-        <v>2</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="8">
-        <v>-7194.317</v>
-      </c>
-      <c r="P40" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q40" s="8">
-        <v>32.159624413145501</v>
-      </c>
-      <c r="R40" s="8">
-        <v>12.9957203994294</v>
-      </c>
-      <c r="S40" s="8">
-        <v>-7180.317</v>
-      </c>
-      <c r="T40" s="8">
-        <v>12.706899999999999</v>
-      </c>
-      <c r="U40" s="8">
-        <v>0.382193</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q40" s="6">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R40" s="6">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S40" s="6">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T40" s="6">
+        <v>18.22</v>
+      </c>
+      <c r="U40" s="6">
+        <v>0.35374499999999998</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="3">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4</v>
+      <c r="E41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>52</v>
@@ -4339,26 +4418,28 @@
         <v>52</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M41" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N41" t="s">
         <v>14</v>
       </c>
       <c r="O41">
-        <v>-7096.0879999999997</v>
+        <v>-7360.6790000000001</v>
       </c>
       <c r="P41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q41" t="s">
         <v>15</v>
@@ -4367,47 +4448,33 @@
         <v>15</v>
       </c>
       <c r="S41">
-        <v>-7078.0879999999997</v>
+        <v>-7340.6790000000001</v>
       </c>
       <c r="T41">
-        <v>4.2718999999999996</v>
+        <v>18.219899999999999</v>
       </c>
       <c r="U41">
-        <v>0.384436</v>
-      </c>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
+        <v>0.35380800000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>52</v>
@@ -4416,41 +4483,44 @@
         <v>52</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" t="s">
         <v>10</v>
       </c>
       <c r="N42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42">
+        <v>-7360.84</v>
+      </c>
+      <c r="P42">
         <v>11</v>
       </c>
-      <c r="O42">
-        <v>-7080.0150000000003</v>
-      </c>
-      <c r="P42">
-        <v>7</v>
-      </c>
-      <c r="Q42">
-        <v>20.9978768577495</v>
-      </c>
-      <c r="R42">
-        <v>9.7751124437781094</v>
+      <c r="Q42" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" t="s">
+        <v>15</v>
       </c>
       <c r="S42">
-        <v>-7066.0150000000003</v>
+        <v>-7338.84</v>
       </c>
       <c r="T42">
-        <v>12.4293</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="U42">
-        <v>0.36684600000000001</v>
+        <v>0.35722999999999999</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
@@ -4469,10 +4539,10 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -4496,22 +4566,20 @@
         <v>52</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="L43" s="3"/>
       <c r="M43" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N43" t="s">
         <v>14</v>
       </c>
       <c r="O43">
-        <v>-6914.9369999999999</v>
+        <v>-7353.53</v>
       </c>
       <c r="P43">
         <v>11</v>
@@ -4523,190 +4591,210 @@
         <v>15</v>
       </c>
       <c r="S43">
-        <v>-6892.9369999999999</v>
+        <v>-7331.53</v>
       </c>
       <c r="T43">
-        <v>51.304000000000002</v>
-      </c>
-      <c r="U43" s="1">
-        <v>2.1262399999999999E-53</v>
-      </c>
+        <v>18.205200000000001</v>
+      </c>
+      <c r="U43">
+        <v>0.34934300000000001</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="3" t="s">
+      <c r="A44" s="5">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L44" s="3"/>
-      <c r="M44" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44">
-        <v>-6858.2439999999997</v>
-      </c>
-      <c r="P44">
-        <v>8</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>15</v>
-      </c>
-      <c r="R44" t="s">
-        <v>15</v>
-      </c>
-      <c r="S44">
-        <v>-6842.2439999999997</v>
-      </c>
-      <c r="T44">
-        <v>69.619900000000001</v>
-      </c>
-      <c r="U44" s="1">
-        <v>4.0198100000000001E-82</v>
-      </c>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
+      <c r="K44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="5">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P44" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R44" s="5">
+        <v>13.3834586466165</v>
+      </c>
+      <c r="S44" s="5">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T44" s="5">
+        <v>18.380800000000001</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0.348858</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>0</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="9">
-        <v>2</v>
-      </c>
-      <c r="F45" s="9">
-        <v>2</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="9" t="s">
+      <c r="A45">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" s="8" t="s">
+      <c r="K45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" t="s">
         <v>11</v>
       </c>
-      <c r="O45" s="8">
-        <v>-6843.326</v>
-      </c>
-      <c r="P45" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="8">
-        <v>23.647294589178401</v>
-      </c>
-      <c r="R45" s="8">
-        <v>12.0670391061453</v>
-      </c>
-      <c r="S45" s="8">
-        <v>-6831.326</v>
-      </c>
-      <c r="T45" s="8">
-        <v>100</v>
-      </c>
-      <c r="U45" s="8">
-        <v>0.36738399999999999</v>
-      </c>
-      <c r="V45" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8"/>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
+      <c r="O45">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P45">
+        <v>9</v>
+      </c>
+      <c r="Q45">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R45">
+        <v>13.4962406015038</v>
+      </c>
+      <c r="S45">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T45">
+        <v>18.379300000000001</v>
+      </c>
+      <c r="U45">
+        <v>0.349408</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>52</v>
@@ -4718,10 +4806,10 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" t="s">
@@ -4731,10 +4819,10 @@
         <v>14</v>
       </c>
       <c r="O46">
-        <v>-6802.9390000000003</v>
+        <v>-7343.5069999999996</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q46" t="s">
         <v>15</v>
@@ -4743,16 +4831,13 @@
         <v>15</v>
       </c>
       <c r="S46">
-        <v>-6782.9390000000003</v>
+        <v>-7321.5069999999996</v>
       </c>
       <c r="T46">
-        <v>77.094399999999993</v>
-      </c>
-      <c r="U46" s="1">
-        <v>1.3424400000000001E-99</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>70</v>
+        <v>18.3887</v>
+      </c>
+      <c r="U46">
+        <v>0.35704900000000001</v>
       </c>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -4771,16 +4856,16 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>60</v>
+      <c r="D47" s="3">
+        <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>55</v>
@@ -4789,7 +4874,7 @@
         <v>55</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>52</v>
@@ -4798,58 +4883,63 @@
         <v>52</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L47" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="M47" t="s">
         <v>10</v>
       </c>
       <c r="N47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O47">
-        <v>-6439.4690000000001</v>
+        <v>-7335.5169999999998</v>
       </c>
       <c r="P47">
-        <v>11</v>
-      </c>
-      <c r="Q47">
-        <v>98.153846153846104</v>
-      </c>
-      <c r="R47">
-        <v>16.330798479087498</v>
+        <v>10</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" t="s">
+        <v>15</v>
       </c>
       <c r="S47">
-        <v>-6417.4690000000001</v>
+        <v>-7315.5169999999998</v>
       </c>
       <c r="T47">
-        <v>20.603000000000002</v>
+        <v>17.314699999999998</v>
       </c>
       <c r="U47">
-        <v>0.21735199999999999</v>
+        <v>0.32265899999999997</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>55</v>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>52</v>
@@ -4866,7 +4956,9 @@
       <c r="K48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="M48" t="s">
         <v>10</v>
       </c>
@@ -4874,45 +4966,45 @@
         <v>11</v>
       </c>
       <c r="O48">
-        <v>-6430.3410000000003</v>
+        <v>-7314.5810000000001</v>
       </c>
       <c r="P48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q48">
-        <v>26.054590570719601</v>
+        <v>33.236994219653198</v>
       </c>
       <c r="R48">
-        <v>16.622390891840599</v>
+        <v>63.206106870229</v>
       </c>
       <c r="S48">
-        <v>-6412.3410000000003</v>
+        <v>-7294.5810000000001</v>
       </c>
       <c r="T48">
-        <v>20.392900000000001</v>
+        <v>64.828199999999995</v>
       </c>
       <c r="U48">
-        <v>0.21180599999999999</v>
+        <v>0.41000700000000001</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>55</v>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>52</v>
@@ -4924,10 +5016,10 @@
         <v>52</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" t="s">
@@ -4937,33 +5029,50 @@
         <v>11</v>
       </c>
       <c r="O49">
-        <v>-6416.2460000000001</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q49">
-        <v>26.485148514851499</v>
+        <v>32.456140350877199</v>
       </c>
       <c r="R49">
-        <v>15.686619718309901</v>
+        <v>14.7206165703276</v>
       </c>
       <c r="S49">
-        <v>-6398.2460000000001</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T49">
-        <v>20.3721</v>
+        <v>18.4377</v>
       </c>
       <c r="U49">
-        <v>0.210977</v>
-      </c>
+        <v>0.38063399999999997</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4971,20 +5080,20 @@
       <c r="D50" s="3">
         <v>1</v>
       </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="3">
-        <v>2</v>
+      <c r="E50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>58</v>
@@ -5000,28 +5109,28 @@
         <v>11</v>
       </c>
       <c r="O50">
-        <v>-6356.9009999999998</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q50">
-        <v>79.203539823008896</v>
+        <v>32.456140350877199</v>
       </c>
       <c r="R50">
-        <v>23.452768729641701</v>
+        <v>14.701348747591499</v>
       </c>
       <c r="S50">
-        <v>-6344.9009999999998</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T50">
-        <v>3.2928799999999998</v>
+        <v>18.436399999999999</v>
       </c>
       <c r="U50">
-        <v>0.99160000000000004</v>
+        <v>0.38163799999999998</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -5040,22 +5149,22 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>52</v>
@@ -5070,35 +5179,35 @@
         <v>58</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" t="s">
         <v>10</v>
       </c>
       <c r="N51" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O51">
-        <v>-6225.8220000000001</v>
+        <v>-7305.2520000000004</v>
       </c>
       <c r="P51">
-        <v>8</v>
-      </c>
-      <c r="Q51">
-        <v>24.582338902147999</v>
-      </c>
-      <c r="R51">
-        <v>14.7272727272727</v>
+        <v>10</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>15</v>
+      </c>
+      <c r="R51" t="s">
+        <v>15</v>
       </c>
       <c r="S51">
-        <v>-6209.8220000000001</v>
+        <v>-7285.2520000000004</v>
       </c>
       <c r="T51">
-        <v>15.906700000000001</v>
+        <v>18.490600000000001</v>
       </c>
       <c r="U51">
-        <v>0.37484600000000001</v>
+        <v>0.38619799999999999</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -5116,103 +5225,105 @@
       <c r="AJ51" s="3"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>-1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="3" t="s">
+      <c r="A52" s="8">
+        <v>41</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L52" s="3"/>
-      <c r="M52" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="K52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O52">
-        <v>-5773.9939999999997</v>
-      </c>
-      <c r="P52">
-        <v>10</v>
-      </c>
-      <c r="Q52">
-        <v>23.621262458471801</v>
-      </c>
-      <c r="R52">
-        <v>18.7332053742802</v>
-      </c>
-      <c r="S52">
-        <v>-5753.9939999999997</v>
-      </c>
-      <c r="T52">
-        <v>24.648700000000002</v>
-      </c>
-      <c r="U52">
-        <v>0.182335</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
+      <c r="O52" s="8">
+        <v>-7194.317</v>
+      </c>
+      <c r="P52" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>32.159624413145501</v>
+      </c>
+      <c r="R52" s="8">
+        <v>12.9957203994294</v>
+      </c>
+      <c r="S52" s="8">
+        <v>-7180.317</v>
+      </c>
+      <c r="T52" s="8">
+        <v>12.706899999999999</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0.382193</v>
+      </c>
+      <c r="V52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
       </c>
       <c r="E53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>52</v>
@@ -5221,44 +5332,41 @@
         <v>52</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O53">
-        <v>-5762.0389999999998</v>
+        <v>-7096.0879999999997</v>
       </c>
       <c r="P53">
-        <v>10</v>
-      </c>
-      <c r="Q53">
-        <v>24.248366013071902</v>
-      </c>
-      <c r="R53">
-        <v>17.730496453900699</v>
+        <v>9</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>15</v>
+      </c>
+      <c r="R53" t="s">
+        <v>15</v>
       </c>
       <c r="S53">
-        <v>-5742.0389999999998</v>
+        <v>-7078.0879999999997</v>
       </c>
       <c r="T53">
-        <v>24.850200000000001</v>
+        <v>4.2718999999999996</v>
       </c>
       <c r="U53">
-        <v>0.172901</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>87</v>
+        <v>0.384436</v>
       </c>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -5277,28 +5385,28 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C54" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
       </c>
       <c r="E54" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>58</v>
@@ -5311,31 +5419,31 @@
       </c>
       <c r="L54" s="3"/>
       <c r="M54" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O54">
-        <v>-5526.2460000000001</v>
+        <v>-7080.0150000000003</v>
       </c>
       <c r="P54">
-        <v>8</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>15</v>
-      </c>
-      <c r="R54" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="Q54">
+        <v>20.9978768577495</v>
+      </c>
+      <c r="R54">
+        <v>9.7751124437781094</v>
       </c>
       <c r="S54">
-        <v>-5510.2460000000001</v>
+        <v>-7066.0150000000003</v>
       </c>
       <c r="T54">
-        <v>13.9314</v>
+        <v>12.4293</v>
       </c>
       <c r="U54">
-        <v>3.1708600000000001E-4</v>
+        <v>0.36684600000000001</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -5354,10 +5462,40 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>147</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="M55" t="s">
         <v>10</v>
@@ -5366,10 +5504,10 @@
         <v>14</v>
       </c>
       <c r="O55">
-        <v>-4980.0590000000002</v>
+        <v>-6979.1540000000005</v>
       </c>
       <c r="P55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q55" t="s">
         <v>15</v>
@@ -5378,33 +5516,60 @@
         <v>15</v>
       </c>
       <c r="S55">
-        <v>-4958.0590000000002</v>
+        <v>-6959.1540000000005</v>
       </c>
       <c r="T55">
-        <v>99.904899999999998</v>
-      </c>
-      <c r="U55">
-        <v>4.8087E-3</v>
-      </c>
-      <c r="V55" s="3" t="s">
-        <v>110</v>
+        <v>48.701000000000001</v>
+      </c>
+      <c r="U55" s="1">
+        <v>6.8511800000000003E-76</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>28</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="M56" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N56" t="s">
         <v>14</v>
       </c>
       <c r="O56">
-        <v>-4980.0590000000002</v>
+        <v>-6914.9369999999999</v>
       </c>
       <c r="P56">
         <v>11</v>
@@ -5416,36 +5581,61 @@
         <v>15</v>
       </c>
       <c r="S56">
-        <v>-4958.0590000000002</v>
+        <v>-6892.9369999999999</v>
       </c>
       <c r="T56">
-        <v>99.904899999999998</v>
-      </c>
-      <c r="U56">
-        <v>4.8087E-3</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>110</v>
+        <v>51.304000000000002</v>
+      </c>
+      <c r="U56" s="1">
+        <v>2.1262399999999999E-53</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="3"/>
       <c r="M57" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N57" t="s">
         <v>14</v>
       </c>
       <c r="O57">
-        <v>-4980.0590000000002</v>
+        <v>-6858.2439999999997</v>
       </c>
       <c r="P57">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q57" t="s">
         <v>15</v>
@@ -5454,21 +5644,927 @@
         <v>15</v>
       </c>
       <c r="S57">
+        <v>-6842.2439999999997</v>
+      </c>
+      <c r="T57">
+        <v>69.619900000000001</v>
+      </c>
+      <c r="U57" s="1">
+        <v>4.0198100000000001E-82</v>
+      </c>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>0</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="9">
+        <v>2</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L58" s="9"/>
+      <c r="M58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O58" s="8">
+        <v>-6843.326</v>
+      </c>
+      <c r="P58" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>23.647294589178401</v>
+      </c>
+      <c r="R58" s="8">
+        <v>12.0670391061453</v>
+      </c>
+      <c r="S58" s="8">
+        <v>-6831.326</v>
+      </c>
+      <c r="T58" s="8">
+        <v>100</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0.36738399999999999</v>
+      </c>
+      <c r="V58" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" t="s">
+        <v>14</v>
+      </c>
+      <c r="O59">
+        <v>-6802.9390000000003</v>
+      </c>
+      <c r="P59">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>15</v>
+      </c>
+      <c r="R59" t="s">
+        <v>15</v>
+      </c>
+      <c r="S59">
+        <v>-6782.9390000000003</v>
+      </c>
+      <c r="T59">
+        <v>77.094399999999993</v>
+      </c>
+      <c r="U59" s="1">
+        <v>1.3424400000000001E-99</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60">
+        <v>-6439.4690000000001</v>
+      </c>
+      <c r="P60">
+        <v>11</v>
+      </c>
+      <c r="Q60">
+        <v>98.153846153846104</v>
+      </c>
+      <c r="R60">
+        <v>16.330798479087498</v>
+      </c>
+      <c r="S60">
+        <v>-6417.4690000000001</v>
+      </c>
+      <c r="T60">
+        <v>20.603000000000002</v>
+      </c>
+      <c r="U60">
+        <v>0.21735199999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61">
+        <v>-6430.3410000000003</v>
+      </c>
+      <c r="P61">
+        <v>9</v>
+      </c>
+      <c r="Q61">
+        <v>26.054590570719601</v>
+      </c>
+      <c r="R61">
+        <v>16.622390891840599</v>
+      </c>
+      <c r="S61">
+        <v>-6412.3410000000003</v>
+      </c>
+      <c r="T61">
+        <v>20.392900000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.21180599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62">
+        <v>-6416.2460000000001</v>
+      </c>
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="Q62">
+        <v>26.485148514851499</v>
+      </c>
+      <c r="R62">
+        <v>15.686619718309901</v>
+      </c>
+      <c r="S62">
+        <v>-6398.2460000000001</v>
+      </c>
+      <c r="T62">
+        <v>20.3721</v>
+      </c>
+      <c r="U62">
+        <v>0.210977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63">
+        <v>-6356.9009999999998</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <v>79.203539823008896</v>
+      </c>
+      <c r="R63">
+        <v>23.452768729641701</v>
+      </c>
+      <c r="S63">
+        <v>-6344.9009999999998</v>
+      </c>
+      <c r="T63">
+        <v>3.2928799999999998</v>
+      </c>
+      <c r="U63">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="V63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64">
+        <v>-6225.8220000000001</v>
+      </c>
+      <c r="P64">
+        <v>8</v>
+      </c>
+      <c r="Q64">
+        <v>24.582338902147999</v>
+      </c>
+      <c r="R64">
+        <v>14.7272727272727</v>
+      </c>
+      <c r="S64">
+        <v>-6209.8220000000001</v>
+      </c>
+      <c r="T64">
+        <v>15.906700000000001</v>
+      </c>
+      <c r="U64">
+        <v>0.37484600000000001</v>
+      </c>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="3">
+        <v>2</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" t="s">
+        <v>10</v>
+      </c>
+      <c r="N65" t="s">
+        <v>11</v>
+      </c>
+      <c r="O65">
+        <v>-5773.9939999999997</v>
+      </c>
+      <c r="P65">
+        <v>10</v>
+      </c>
+      <c r="Q65">
+        <v>23.621262458471801</v>
+      </c>
+      <c r="R65">
+        <v>18.7332053742802</v>
+      </c>
+      <c r="S65">
+        <v>-5753.9939999999997</v>
+      </c>
+      <c r="T65">
+        <v>24.648700000000002</v>
+      </c>
+      <c r="U65">
+        <v>0.182335</v>
+      </c>
+      <c r="V65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
+      <c r="AG65" s="3"/>
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+      <c r="AJ65" s="3"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <v>-5762.0389999999998</v>
+      </c>
+      <c r="P66">
+        <v>10</v>
+      </c>
+      <c r="Q66">
+        <v>24.248366013071902</v>
+      </c>
+      <c r="R66">
+        <v>17.730496453900699</v>
+      </c>
+      <c r="S66">
+        <v>-5742.0389999999998</v>
+      </c>
+      <c r="T66">
+        <v>24.850200000000001</v>
+      </c>
+      <c r="U66">
+        <v>0.172901</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
+      <c r="AG66" s="3"/>
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+      <c r="AJ66" s="3"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>4</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67">
+        <v>-5526.2460000000001</v>
+      </c>
+      <c r="P67">
+        <v>8</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>15</v>
+      </c>
+      <c r="R67" t="s">
+        <v>15</v>
+      </c>
+      <c r="S67">
+        <v>-5510.2460000000001</v>
+      </c>
+      <c r="T67">
+        <v>13.9314</v>
+      </c>
+      <c r="U67">
+        <v>3.1708600000000001E-4</v>
+      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="M68" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" t="s">
+        <v>11</v>
+      </c>
+      <c r="O68">
+        <v>-4978.9189999999999</v>
+      </c>
+      <c r="P68">
+        <v>9</v>
+      </c>
+      <c r="Q68">
+        <v>26.1319534282018</v>
+      </c>
+      <c r="R68">
+        <v>16.267942583732101</v>
+      </c>
+      <c r="S68">
+        <v>-4960.9189999999999</v>
+      </c>
+      <c r="T68">
+        <v>29.6343</v>
+      </c>
+      <c r="U68">
+        <v>0.10441599999999999</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="M69" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P69">
+        <v>11</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>15</v>
+      </c>
+      <c r="R69" t="s">
+        <v>15</v>
+      </c>
+      <c r="S69">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T69">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U69">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>124</v>
+      </c>
+      <c r="M70" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P70">
+        <v>11</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R70" t="s">
+        <v>15</v>
+      </c>
+      <c r="S70">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T70">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U70">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P71">
+        <v>12</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>15</v>
+      </c>
+      <c r="R71" t="s">
+        <v>15</v>
+      </c>
+      <c r="S71">
         <v>-4956.0590000000002</v>
       </c>
-      <c r="T57">
+      <c r="T71">
         <v>99.905000000000001</v>
       </c>
-      <c r="U57">
+      <c r="U71">
         <v>9.806839999999999E-4</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="V71" s="3" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AJ57">
-    <sortCondition ref="S2:S57"/>
+  <sortState ref="A2:AJ72">
+    <sortCondition ref="S2:S72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
+++ b/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="160">
   <si>
     <t>X1</t>
   </si>
@@ -502,6 +502,24 @@
   </si>
   <si>
     <t>LAG 0.1</t>
+  </si>
+  <si>
+    <t>RUN064_DES_2C2TAwAP_PPV_CORCLVQVKA_LAG1_MU</t>
+  </si>
+  <si>
+    <t>RUN065_DES_1C6TAwAP_BOVPPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN066_DES_1C6TAwAP_BOVPPV_RATCLVKA</t>
+  </si>
+  <si>
+    <t>RUN067_DES_1C6TAwAP_BOVCL_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN068_DES_1C6TAP_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>LAG 0.1 + MU</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ71"/>
+  <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,97 +1564,96 @@
       <c r="AJ2"/>
     </row>
     <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="6">
-        <v>-7971.348</v>
-      </c>
-      <c r="P3" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>6.36556854410202</v>
-      </c>
-      <c r="R3" s="6">
-        <v>12.7519379844961</v>
-      </c>
-      <c r="S3" s="6">
-        <v>-7955.348</v>
-      </c>
-      <c r="T3" s="6">
-        <v>8.6566100000000006</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0.487871</v>
-      </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
+      <c r="K3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>-8063.7209999999995</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>-8037.7209999999995</v>
+      </c>
+      <c r="T3">
+        <v>62.647399999999998</v>
+      </c>
+      <c r="U3">
+        <v>0.55907099999999998</v>
+      </c>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>55</v>
@@ -1657,10 +1674,10 @@
         <v>53</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -1669,39 +1686,39 @@
         <v>11</v>
       </c>
       <c r="O4">
-        <v>-7965.2280000000001</v>
+        <v>-8016.94</v>
       </c>
       <c r="P4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q4">
-        <v>6.0707964601769904</v>
+        <v>28.413654618473899</v>
       </c>
       <c r="R4">
-        <v>12.653846153846199</v>
+        <v>37.908496732026201</v>
       </c>
       <c r="S4">
-        <v>-7949.2280000000001</v>
+        <v>-7998.94</v>
       </c>
       <c r="T4">
-        <v>8.4613899999999997</v>
+        <v>78.4482</v>
       </c>
       <c r="U4">
-        <v>0.49240800000000001</v>
+        <v>7.6480799999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>55</v>
@@ -1725,48 +1742,48 @@
         <v>54</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O5">
-        <v>-7953.567</v>
+        <v>-8015.5559999999996</v>
       </c>
       <c r="P5">
-        <v>8</v>
-      </c>
-      <c r="Q5">
-        <v>6.67979002624672</v>
-      </c>
-      <c r="R5">
-        <v>12.960784313725499</v>
+        <v>9</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
       </c>
       <c r="S5">
-        <v>-7937.567</v>
+        <v>-7997.5559999999996</v>
       </c>
       <c r="T5">
-        <v>9.0121099999999998</v>
+        <v>53.068300000000001</v>
       </c>
       <c r="U5">
-        <v>0.46550900000000001</v>
+        <v>1.8369400000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>55</v>
@@ -1790,141 +1807,143 @@
         <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>-8016.94</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>-7996.94</v>
+      </c>
+      <c r="T6">
+        <v>78.445800000000006</v>
+      </c>
+      <c r="U6">
+        <v>7.6434600000000004E-3</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+    </row>
+    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="M7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="3">
-        <v>-7901.4040000000005</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="O7" s="6">
+        <v>-7971.348</v>
+      </c>
+      <c r="P7" s="6">
         <v>8</v>
       </c>
-      <c r="Q6" s="3">
-        <v>7.6174496644295298</v>
-      </c>
-      <c r="R6" s="3">
-        <v>13.108910891089099</v>
-      </c>
-      <c r="S6" s="3">
-        <v>-7885.4040000000005</v>
-      </c>
-      <c r="T6" s="3">
-        <v>9.8653200000000005</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0.39762799999999998</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7">
-        <v>-7858.4639999999999</v>
-      </c>
-      <c r="P7">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <v>-7840.4639999999999</v>
-      </c>
-      <c r="T7">
-        <v>13.882099999999999</v>
-      </c>
-      <c r="U7" s="1">
-        <v>6.4067100000000001E-9</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
+      <c r="Q7" s="6">
+        <v>6.36556854410202</v>
+      </c>
+      <c r="R7" s="6">
+        <v>12.7519379844961</v>
+      </c>
+      <c r="S7" s="6">
+        <v>-7955.348</v>
+      </c>
+      <c r="T7" s="6">
+        <v>8.6566100000000006</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.487871</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>55</v>
@@ -1947,7 +1966,9 @@
       <c r="K8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
@@ -1955,25 +1976,25 @@
         <v>11</v>
       </c>
       <c r="O8">
-        <v>-7849.817</v>
+        <v>-7965.2280000000001</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>30.5980066445183</v>
+        <v>6.0707964601769904</v>
       </c>
       <c r="R8">
-        <v>13.3267716535433</v>
+        <v>12.653846153846199</v>
       </c>
       <c r="S8">
-        <v>-7831.817</v>
+        <v>-7949.2280000000001</v>
       </c>
       <c r="T8">
-        <v>9.71218</v>
+        <v>8.4613899999999997</v>
       </c>
       <c r="U8">
-        <v>0.449681</v>
+        <v>0.49240800000000001</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8"/>
@@ -1993,16 +2014,16 @@
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>55</v>
@@ -2020,40 +2041,40 @@
         <v>52</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O9">
-        <v>-7843</v>
+        <v>-7958.6779999999999</v>
       </c>
       <c r="P9">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>6.3974495217853304</v>
+      </c>
+      <c r="R9">
+        <v>12.670349907919</v>
       </c>
       <c r="S9">
-        <v>-7825</v>
+        <v>-7942.6779999999999</v>
       </c>
       <c r="T9">
-        <v>52.140799999999999</v>
+        <v>8.6207600000000006</v>
       </c>
       <c r="U9">
-        <v>2.2879500000000001E-2</v>
+        <v>0.48619899999999999</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9"/>
@@ -2073,16 +2094,16 @@
     </row>
     <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>55</v>
@@ -2106,34 +2127,34 @@
         <v>54</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O10">
-        <v>-7844.0959999999995</v>
+        <v>-7953.567</v>
       </c>
       <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>6.67979002624672</v>
+      </c>
+      <c r="R10">
+        <v>12.960784313725499</v>
       </c>
       <c r="S10">
-        <v>-7824.0959999999995</v>
+        <v>-7937.567</v>
       </c>
       <c r="T10">
-        <v>79.057599999999994</v>
+        <v>9.0121099999999998</v>
       </c>
       <c r="U10">
-        <v>7.0567499999999997E-3</v>
+        <v>0.46550900000000001</v>
       </c>
       <c r="W10"/>
       <c r="X10"/>
@@ -2151,17 +2172,17 @@
       <c r="AJ10"/>
     </row>
     <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
+      <c r="A11" s="3">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
@@ -2182,65 +2203,51 @@
         <v>53</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O11">
-        <v>-7839.5190000000002</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11">
-        <v>14.9685534591195</v>
-      </c>
-      <c r="R11">
-        <v>17.991266375545901</v>
-      </c>
-      <c r="S11">
-        <v>-7821.5190000000002</v>
-      </c>
-      <c r="T11">
-        <v>78.857299999999995</v>
-      </c>
-      <c r="U11">
-        <v>1.23493E-3</v>
-      </c>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
+      <c r="O11" s="3">
+        <v>-7901.4040000000005</v>
+      </c>
+      <c r="P11" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>7.6174496644295298</v>
+      </c>
+      <c r="R11" s="3">
+        <v>13.108910891089099</v>
+      </c>
+      <c r="S11" s="3">
+        <v>-7885.4040000000005</v>
+      </c>
+      <c r="T11" s="3">
+        <v>9.8653200000000005</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.39762799999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>55</v>
@@ -2258,7 +2265,7 @@
         <v>52</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>54</v>
@@ -2268,28 +2275,28 @@
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O12">
-        <v>-7835.3919999999998</v>
+        <v>-7858.4639999999999</v>
       </c>
       <c r="P12">
         <v>9</v>
       </c>
-      <c r="Q12">
-        <v>30.498338870431901</v>
-      </c>
-      <c r="R12">
-        <v>13</v>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
       </c>
       <c r="S12">
-        <v>-7817.3919999999998</v>
+        <v>-7840.4639999999999</v>
       </c>
       <c r="T12">
-        <v>9.7065099999999997</v>
-      </c>
-      <c r="U12">
-        <v>0.44284600000000002</v>
+        <v>13.882099999999999</v>
+      </c>
+      <c r="U12" s="1">
+        <v>6.4067100000000001E-9</v>
       </c>
       <c r="W12"/>
       <c r="X12"/>
@@ -2307,99 +2314,79 @@
       <c r="AJ12"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="6">
-        <v>-7802.5720000000001</v>
-      </c>
-      <c r="P13" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>7.6818181818181799</v>
-      </c>
-      <c r="R13" s="6">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="S13" s="6">
-        <v>-7786.5720000000001</v>
-      </c>
-      <c r="T13" s="6">
-        <v>10.2311</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.317</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
+      <c r="O13">
+        <v>-7849.817</v>
+      </c>
+      <c r="P13">
+        <v>9</v>
+      </c>
+      <c r="Q13">
+        <v>30.5980066445183</v>
+      </c>
+      <c r="R13">
+        <v>13.3267716535433</v>
+      </c>
+      <c r="S13">
+        <v>-7831.817</v>
+      </c>
+      <c r="T13">
+        <v>9.71218</v>
+      </c>
+      <c r="U13">
+        <v>0.449681</v>
+      </c>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>55</v>
@@ -2422,7 +2409,9 @@
       <c r="K14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L14"/>
+      <c r="L14" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="M14" t="s">
         <v>10</v>
       </c>
@@ -2430,10 +2419,10 @@
         <v>14</v>
       </c>
       <c r="O14">
-        <v>-7809.8739999999998</v>
+        <v>-7843</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="s">
         <v>15</v>
@@ -2442,13 +2431,13 @@
         <v>15</v>
       </c>
       <c r="S14">
-        <v>-7785.8739999999998</v>
+        <v>-7825</v>
       </c>
       <c r="T14">
-        <v>37.440300000000001</v>
+        <v>52.140799999999999</v>
       </c>
       <c r="U14">
-        <v>1.7842899999999998E-2</v>
+        <v>2.2879500000000001E-2</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14"/>
@@ -2468,10 +2457,10 @@
     </row>
     <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -2501,7 +2490,7 @@
         <v>54</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
@@ -2510,10 +2499,10 @@
         <v>14</v>
       </c>
       <c r="O15">
-        <v>-7803.1729999999998</v>
+        <v>-7844.0959999999995</v>
       </c>
       <c r="P15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="s">
         <v>15</v>
@@ -2522,13 +2511,13 @@
         <v>15</v>
       </c>
       <c r="S15">
-        <v>-7785.1729999999998</v>
+        <v>-7824.0959999999995</v>
       </c>
       <c r="T15">
-        <v>99.180499999999995</v>
+        <v>79.057599999999994</v>
       </c>
       <c r="U15">
-        <v>1.2579799999999999E-3</v>
+        <v>7.0567499999999997E-3</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15"/>
@@ -2548,10 +2537,10 @@
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2578,10 +2567,10 @@
         <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" t="s">
-        <v>83</v>
+        <v>112</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="M16" t="s">
         <v>10</v>
@@ -2590,29 +2579,27 @@
         <v>11</v>
       </c>
       <c r="O16">
-        <v>-7802.5720000000001</v>
+        <v>-7839.5190000000002</v>
       </c>
       <c r="P16">
         <v>9</v>
       </c>
       <c r="Q16">
-        <v>7.6818181818181799</v>
+        <v>14.9685534591195</v>
       </c>
       <c r="R16">
-        <v>619.83471074380202</v>
+        <v>17.991266375545901</v>
       </c>
       <c r="S16">
-        <v>-7784.5720000000001</v>
+        <v>-7821.5190000000002</v>
       </c>
       <c r="T16">
-        <v>52.482599999999998</v>
+        <v>78.857299999999995</v>
       </c>
       <c r="U16">
-        <v>0.31682399999999999</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>1.23493E-3</v>
+      </c>
+      <c r="V16" s="3"/>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
@@ -2629,187 +2616,167 @@
       <c r="AJ16"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>43</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="A17">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17">
+        <v>-7835.3919999999998</v>
+      </c>
+      <c r="P17">
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <v>30.498338870431901</v>
+      </c>
+      <c r="R17">
+        <v>13</v>
+      </c>
+      <c r="S17">
+        <v>-7817.3919999999998</v>
+      </c>
+      <c r="T17">
+        <v>9.7065099999999997</v>
+      </c>
+      <c r="U17">
+        <v>0.44284600000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="K18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="8">
-        <v>-7802.6030000000001</v>
-      </c>
-      <c r="P17" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>33.047619047619001</v>
-      </c>
-      <c r="R17" s="8">
-        <v>93.181818181818201</v>
-      </c>
-      <c r="S17" s="8">
-        <v>-7782.6030000000001</v>
-      </c>
-      <c r="T17" s="8">
-        <v>82.303399999999996</v>
-      </c>
-      <c r="U17" s="8">
-        <v>5.6356100000000001E-3</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-    </row>
-    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="4">
-        <v>-7760.2920000000004</v>
-      </c>
-      <c r="P18" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R18" s="4">
-        <v>13.886639676113401</v>
-      </c>
-      <c r="S18" s="4">
-        <v>-7742.2920000000004</v>
-      </c>
-      <c r="T18" s="4">
-        <v>9.7809200000000001</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
+      <c r="O18" s="6">
+        <v>-7802.5720000000001</v>
+      </c>
+      <c r="P18" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>7.6818181818181799</v>
+      </c>
+      <c r="R18" s="6">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="S18" s="6">
+        <v>-7786.5720000000001</v>
+      </c>
+      <c r="T18" s="6">
+        <v>10.2311</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0.317</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>52</v>
@@ -2826,58 +2793,52 @@
       <c r="K19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L19" t="s">
-        <v>140</v>
-      </c>
       <c r="M19" t="s">
         <v>10</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O19">
-        <v>-7760.2920000000004</v>
+        <v>-7809.8739999999998</v>
       </c>
       <c r="P19">
-        <v>9</v>
-      </c>
-      <c r="Q19">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R19">
-        <v>13.886639676113401</v>
+        <v>12</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" t="s">
+        <v>15</v>
       </c>
       <c r="S19">
-        <v>-7742.2920000000004</v>
+        <v>-7785.8739999999998</v>
       </c>
       <c r="T19">
-        <v>9.7809200000000001</v>
+        <v>37.440300000000001</v>
       </c>
       <c r="U19">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>139</v>
+        <v>1.7842899999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>52</v>
@@ -2894,39 +2855,37 @@
       <c r="K20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L20" t="s">
-        <v>83</v>
+      <c r="L20" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
       </c>
       <c r="N20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O20">
-        <v>-7760.2920000000004</v>
+        <v>-7803.1729999999998</v>
       </c>
       <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20">
-        <v>24.617283950617299</v>
-      </c>
-      <c r="R20">
-        <v>69.565217391304301</v>
+        <v>9</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" t="s">
+        <v>15</v>
       </c>
       <c r="S20">
-        <v>-7740.2920000000004</v>
+        <v>-7785.1729999999998</v>
       </c>
       <c r="T20">
-        <v>40.420999999999999</v>
+        <v>99.180499999999995</v>
       </c>
       <c r="U20">
-        <v>0.43647900000000001</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>1.2579799999999999E-3</v>
+      </c>
+      <c r="V20" s="3"/>
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
@@ -2944,10 +2903,10 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2976,7 +2935,9 @@
       <c r="K21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
       <c r="M21" t="s">
         <v>10</v>
       </c>
@@ -2984,190 +2945,198 @@
         <v>11</v>
       </c>
       <c r="O21">
-        <v>-7757.6949999999997</v>
+        <v>-7802.5720000000001</v>
       </c>
       <c r="P21">
         <v>9</v>
       </c>
       <c r="Q21">
-        <v>30.158227848101301</v>
+        <v>7.6818181818181799</v>
       </c>
       <c r="R21">
-        <v>13.712574850299401</v>
+        <v>619.83471074380202</v>
       </c>
       <c r="S21">
-        <v>-7739.6949999999997</v>
+        <v>-7784.5720000000001</v>
       </c>
       <c r="T21">
-        <v>10.4992</v>
+        <v>52.482599999999998</v>
       </c>
       <c r="U21">
-        <v>0.35333799999999999</v>
+        <v>0.31682399999999999</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="A22" s="8">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="8">
+        <v>-7802.6030000000001</v>
+      </c>
+      <c r="P22" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>33.047619047619001</v>
+      </c>
+      <c r="R22" s="8">
+        <v>93.181818181818201</v>
+      </c>
+      <c r="S22" s="8">
+        <v>-7782.6030000000001</v>
+      </c>
+      <c r="T22" s="8">
+        <v>82.303399999999996</v>
+      </c>
+      <c r="U22" s="8">
+        <v>5.6356100000000001E-3</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+    </row>
+    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22">
+      <c r="L23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="4">
         <v>-7760.2920000000004</v>
       </c>
-      <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>15</v>
-      </c>
-      <c r="R22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22">
-        <v>-7738.2920000000004</v>
-      </c>
-      <c r="T22">
-        <v>100</v>
-      </c>
-      <c r="U22">
-        <v>0.43628800000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="5">
-        <v>-7745.3230000000003</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <v>9</v>
       </c>
-      <c r="Q23" s="5">
-        <v>28.186274509803901</v>
-      </c>
-      <c r="R23" s="5">
-        <v>13.8265306122449</v>
-      </c>
-      <c r="S23" s="5">
-        <v>-7727.3230000000003</v>
-      </c>
-      <c r="T23" s="5">
-        <v>9.6104400000000005</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0.43874600000000002</v>
-      </c>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
+      <c r="Q23" s="4">
+        <v>22.765432098765402</v>
+      </c>
+      <c r="R23" s="4">
+        <v>13.886639676113401</v>
+      </c>
+      <c r="S23" s="4">
+        <v>-7742.2920000000004</v>
+      </c>
+      <c r="T23" s="4">
+        <v>9.7809200000000001</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>52</v>
@@ -3184,7 +3153,9 @@
       <c r="K24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
       <c r="M24" t="s">
         <v>10</v>
       </c>
@@ -3192,39 +3163,42 @@
         <v>11</v>
       </c>
       <c r="O24">
-        <v>-7743.576</v>
+        <v>-7760.2920000000004</v>
       </c>
       <c r="P24">
         <v>9</v>
       </c>
       <c r="Q24">
-        <v>29.4006309148265</v>
+        <v>22.765432098765402</v>
       </c>
       <c r="R24">
-        <v>13.2833020637899</v>
+        <v>13.886639676113401</v>
       </c>
       <c r="S24">
-        <v>-7725.576</v>
+        <v>-7742.2920000000004</v>
       </c>
       <c r="T24">
-        <v>10.5723</v>
+        <v>9.7809200000000001</v>
       </c>
       <c r="U24">
-        <v>0.363263</v>
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>89</v>
+      <c r="D25" s="3">
+        <v>1</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -3247,70 +3221,58 @@
       <c r="K25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="L25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="3">
-        <v>-7705.9520000000002</v>
-      </c>
-      <c r="P25" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>29.657320872274099</v>
-      </c>
-      <c r="R25" s="3">
-        <v>14.580777096114501</v>
-      </c>
-      <c r="S25" s="3">
-        <v>-7685.9520000000002</v>
-      </c>
-      <c r="T25" s="3">
-        <v>11.7502</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0.35689399999999999</v>
+      <c r="O25">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P25">
+        <v>10</v>
+      </c>
+      <c r="Q25">
+        <v>24.617283950617299</v>
+      </c>
+      <c r="R25">
+        <v>69.565217391304301</v>
+      </c>
+      <c r="S25">
+        <v>-7740.2920000000004</v>
+      </c>
+      <c r="T25">
+        <v>40.420999999999999</v>
+      </c>
+      <c r="U25">
+        <v>0.43647900000000001</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>52</v>
@@ -3322,75 +3284,58 @@
         <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="3" t="s">
+      <c r="M26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="3">
-        <v>-7689.5619999999999</v>
-      </c>
-      <c r="P26" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>29.440993788819899</v>
-      </c>
-      <c r="R26" s="3">
-        <v>13.9583333333333</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-7669.5619999999999</v>
-      </c>
-      <c r="T26" s="3">
-        <v>10.7644</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0.30691000000000002</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
+      <c r="O26">
+        <v>-7757.6949999999997</v>
+      </c>
+      <c r="P26">
+        <v>9</v>
+      </c>
+      <c r="Q26">
+        <v>30.158227848101301</v>
+      </c>
+      <c r="R26">
+        <v>13.712574850299401</v>
+      </c>
+      <c r="S26">
+        <v>-7739.6949999999997</v>
+      </c>
+      <c r="T26">
+        <v>10.4992</v>
+      </c>
+      <c r="U26">
+        <v>0.35333799999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>52</v>
@@ -3407,6 +3352,9 @@
       <c r="K27" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="L27" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M27" t="s">
         <v>10</v>
       </c>
@@ -3414,10 +3362,10 @@
         <v>14</v>
       </c>
       <c r="O27">
-        <v>-7664.866</v>
+        <v>-7760.2920000000004</v>
       </c>
       <c r="P27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q27" t="s">
         <v>15</v>
@@ -3426,92 +3374,107 @@
         <v>15</v>
       </c>
       <c r="S27">
-        <v>-7644.866</v>
+        <v>-7738.2920000000004</v>
       </c>
       <c r="T27">
-        <v>12.027100000000001</v>
+        <v>100</v>
       </c>
       <c r="U27">
-        <v>0.23436299999999999</v>
+        <v>0.43628800000000001</v>
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="A28" s="5">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="M28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O28">
-        <v>-7642.89</v>
-      </c>
-      <c r="P28">
-        <v>8</v>
-      </c>
-      <c r="Q28">
-        <v>6.7931034482758603</v>
-      </c>
-      <c r="R28">
-        <v>13.824130879345599</v>
-      </c>
-      <c r="S28">
-        <v>-7626.89</v>
-      </c>
-      <c r="T28">
-        <v>12.1884</v>
-      </c>
-      <c r="U28">
-        <v>0.24842400000000001</v>
-      </c>
+      <c r="O28" s="5">
+        <v>-7745.3230000000003</v>
+      </c>
+      <c r="P28" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>28.186274509803901</v>
+      </c>
+      <c r="R28" s="5">
+        <v>13.8265306122449</v>
+      </c>
+      <c r="S28" s="5">
+        <v>-7727.3230000000003</v>
+      </c>
+      <c r="T28" s="5">
+        <v>9.6104400000000005</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0.43874600000000002</v>
+      </c>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>55</v>
@@ -3532,54 +3495,55 @@
         <v>53</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L29" s="3"/>
       <c r="M29" t="s">
         <v>10</v>
       </c>
       <c r="N29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O29">
-        <v>-7620.9380000000001</v>
+        <v>-7743.576</v>
       </c>
       <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>29.4006309148265</v>
+      </c>
+      <c r="R29">
+        <v>13.2833020637899</v>
       </c>
       <c r="S29">
-        <v>-7592.9380000000001</v>
+        <v>-7725.576</v>
       </c>
       <c r="T29">
-        <v>55.209499999999998</v>
-      </c>
-      <c r="U29" s="1">
-        <v>1.03933E-7</v>
+        <v>10.5723</v>
+      </c>
+      <c r="U29">
+        <v>0.363263</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>120</v>
+      <c r="A30" s="3">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>52</v>
@@ -3594,301 +3558,279 @@
         <v>53</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-7705.9520000000002</v>
+      </c>
+      <c r="P30" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>29.657320872274099</v>
+      </c>
+      <c r="R30" s="3">
+        <v>14.580777096114501</v>
+      </c>
+      <c r="S30" s="3">
+        <v>-7685.9520000000002</v>
+      </c>
+      <c r="T30" s="3">
+        <v>11.7502</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.35689399999999999</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-7689.5619999999999</v>
+      </c>
+      <c r="P31" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>29.440993788819899</v>
+      </c>
+      <c r="R31" s="3">
+        <v>13.9583333333333</v>
+      </c>
+      <c r="S31" s="3">
+        <v>-7669.5619999999999</v>
+      </c>
+      <c r="T31" s="3">
+        <v>10.7644</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.30691000000000002</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32">
+        <v>-7664.866</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <v>-7644.866</v>
+      </c>
+      <c r="T32">
+        <v>12.027100000000001</v>
+      </c>
+      <c r="U32">
+        <v>0.23436299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M30" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="M33" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" t="s">
         <v>11</v>
       </c>
-      <c r="O30">
-        <v>-7452.6949999999997</v>
-      </c>
-      <c r="P30">
-        <v>7</v>
-      </c>
-      <c r="Q30">
-        <v>21.321695760598502</v>
-      </c>
-      <c r="R30">
-        <v>13.877840909090899</v>
-      </c>
-      <c r="S30">
-        <v>-7438.6949999999997</v>
-      </c>
-      <c r="T30">
-        <v>9.7581600000000002</v>
-      </c>
-      <c r="U30">
-        <v>0.34387299999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>42</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
-        <v>2</v>
-      </c>
-      <c r="F31" s="8">
-        <v>2</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O31" s="8">
-        <v>-7447.6530000000002</v>
-      </c>
-      <c r="P31" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>21.7882836587873</v>
-      </c>
-      <c r="R31" s="8">
-        <v>33.636363636363598</v>
-      </c>
-      <c r="S31" s="8">
-        <v>-7429.6530000000002</v>
-      </c>
-      <c r="T31" s="8">
-        <v>77.976200000000006</v>
-      </c>
-      <c r="U31" s="8">
-        <v>2.1269000000000001E-3</v>
-      </c>
-      <c r="V31" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>32</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="6">
-        <v>-7412.5810000000001</v>
-      </c>
-      <c r="P32" s="6">
+      <c r="O33">
+        <v>-7642.89</v>
+      </c>
+      <c r="P33">
         <v>8</v>
       </c>
-      <c r="Q32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="6">
-        <v>-7396.5810000000001</v>
-      </c>
-      <c r="T32" s="6">
-        <v>18.5487</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0.29675800000000002</v>
-      </c>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>28</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="4">
-        <v>-7412.5789999999997</v>
-      </c>
-      <c r="P33" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>11.4864864864865</v>
-      </c>
-      <c r="R33" s="4">
-        <v>13.810483870967699</v>
-      </c>
-      <c r="S33" s="4">
-        <v>-7396.5789999999997</v>
-      </c>
-      <c r="T33" s="4">
-        <v>18.563400000000001</v>
-      </c>
-      <c r="U33" s="4">
-        <v>0.29601899999999998</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
+      <c r="Q33">
+        <v>6.7931034482758603</v>
+      </c>
+      <c r="R33">
+        <v>13.824130879345599</v>
+      </c>
+      <c r="S33">
+        <v>-7626.89</v>
+      </c>
+      <c r="T33">
+        <v>12.1884</v>
+      </c>
+      <c r="U33">
+        <v>0.24842400000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>52</v>
@@ -3903,10 +3845,7 @@
         <v>53</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s">
         <v>10</v>
@@ -3915,10 +3854,10 @@
         <v>14</v>
       </c>
       <c r="O34">
-        <v>-7413.6360000000004</v>
+        <v>-7620.9380000000001</v>
       </c>
       <c r="P34">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="s">
         <v>15</v>
@@ -3927,36 +3866,33 @@
         <v>15</v>
       </c>
       <c r="S34">
-        <v>-7395.6360000000004</v>
+        <v>-7592.9380000000001</v>
       </c>
       <c r="T34">
-        <v>18.5459</v>
-      </c>
-      <c r="U34">
-        <v>0.29598000000000002</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>91</v>
+        <v>55.209499999999998</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.03933E-7</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
+      <c r="D35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>52</v>
@@ -3971,37 +3907,37 @@
         <v>53</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M35" t="s">
         <v>10</v>
       </c>
       <c r="N35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O35">
-        <v>-7412.5789999999997</v>
+        <v>-7452.6949999999997</v>
       </c>
       <c r="P35">
-        <v>9</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R35" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <v>21.321695760598502</v>
+      </c>
+      <c r="R35">
+        <v>13.877840909090899</v>
       </c>
       <c r="S35">
-        <v>-7394.5789999999997</v>
+        <v>-7438.6949999999997</v>
       </c>
       <c r="T35">
-        <v>35.331699999999998</v>
+        <v>9.7581600000000002</v>
       </c>
       <c r="U35">
-        <v>0.29600399999999999</v>
+        <v>0.34387299999999998</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35"/>
@@ -4020,384 +3956,403 @@
       <c r="AJ35"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="A36" s="8">
+        <v>42</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="8">
+        <v>-7447.6530000000002</v>
+      </c>
+      <c r="P36" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>21.7882836587873</v>
+      </c>
+      <c r="R36" s="8">
+        <v>33.636363636363598</v>
+      </c>
+      <c r="S36" s="8">
+        <v>-7429.6530000000002</v>
+      </c>
+      <c r="T36" s="8">
+        <v>77.976200000000006</v>
+      </c>
+      <c r="U36" s="8">
+        <v>2.1269000000000001E-3</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L37" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M36" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-7412.5810000000001</v>
+      </c>
+      <c r="P37" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37" s="6">
+        <v>-7396.5810000000001</v>
+      </c>
+      <c r="T37" s="6">
+        <v>18.5487</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0.29675800000000002</v>
+      </c>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>28</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O36">
-        <v>-7412.9350000000004</v>
-      </c>
-      <c r="P36">
-        <v>10</v>
-      </c>
-      <c r="Q36">
-        <v>29.986052998605299</v>
-      </c>
-      <c r="R36">
-        <v>13.951612903225801</v>
-      </c>
-      <c r="S36">
-        <v>-7392.9350000000004</v>
-      </c>
-      <c r="T36">
-        <v>18.523599999999998</v>
-      </c>
-      <c r="U36">
-        <v>0.29228700000000002</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="O38" s="4">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P38" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>11.4864864864865</v>
+      </c>
+      <c r="R38" s="4">
+        <v>13.810483870967699</v>
+      </c>
+      <c r="S38" s="4">
+        <v>-7396.5789999999997</v>
+      </c>
+      <c r="T38" s="4">
+        <v>18.563400000000001</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0.29601899999999998</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M37" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37">
-        <v>-7397.1809999999996</v>
-      </c>
-      <c r="P37">
-        <v>8</v>
-      </c>
-      <c r="Q37">
-        <v>12.3188405797101</v>
-      </c>
-      <c r="R37">
-        <v>152.5</v>
-      </c>
-      <c r="S37">
-        <v>-7381.1809999999996</v>
-      </c>
-      <c r="T37">
-        <v>97.815100000000001</v>
-      </c>
-      <c r="U37">
-        <v>1.78929E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>29</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>2</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="5" t="s">
+      <c r="L39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <v>-7413.6360000000004</v>
+      </c>
+      <c r="P39">
+        <v>9</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>15</v>
+      </c>
+      <c r="R39" t="s">
+        <v>15</v>
+      </c>
+      <c r="S39">
+        <v>-7395.6360000000004</v>
+      </c>
+      <c r="T39">
+        <v>18.5459</v>
+      </c>
+      <c r="U39">
+        <v>0.29598000000000002</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" s="5">
-        <v>-7396.8819999999996</v>
-      </c>
-      <c r="P38" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>11.6216216216216</v>
-      </c>
-      <c r="R38" s="5">
-        <v>12.958801498127301</v>
-      </c>
-      <c r="S38" s="5">
-        <v>-7380.8819999999996</v>
-      </c>
-      <c r="T38" s="5">
-        <v>18.621700000000001</v>
-      </c>
-      <c r="U38" s="5">
-        <v>0.28395100000000001</v>
-      </c>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="L40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P40">
         <v>9</v>
       </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O39" s="4">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P39" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R39" s="4">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S39" s="4">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T39" s="4">
-        <v>18.219799999999999</v>
-      </c>
-      <c r="U39" s="4">
-        <v>0.35448400000000002</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-    </row>
-    <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>19</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="6">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P40" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R40" s="6">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S40" s="6">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T40" s="6">
-        <v>18.22</v>
-      </c>
-      <c r="U40" s="6">
-        <v>0.35374499999999998</v>
-      </c>
-      <c r="V40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
+      <c r="Q40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" t="s">
+        <v>15</v>
+      </c>
+      <c r="S40">
+        <v>-7394.5789999999997</v>
+      </c>
+      <c r="T40">
+        <v>35.331699999999998</v>
+      </c>
+      <c r="U40">
+        <v>0.29600399999999999</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -4405,11 +4360,11 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>55</v>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>52</v>
@@ -4421,60 +4376,63 @@
         <v>52</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="10" t="s">
-        <v>56</v>
+      <c r="L41" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M41" t="s">
         <v>10</v>
       </c>
       <c r="N41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O41">
-        <v>-7360.6790000000001</v>
+        <v>-7412.9350000000004</v>
       </c>
       <c r="P41">
         <v>10</v>
       </c>
-      <c r="Q41" t="s">
-        <v>15</v>
-      </c>
-      <c r="R41" t="s">
-        <v>15</v>
+      <c r="Q41">
+        <v>29.986052998605299</v>
+      </c>
+      <c r="R41">
+        <v>13.951612903225801</v>
       </c>
       <c r="S41">
-        <v>-7340.6790000000001</v>
+        <v>-7392.9350000000004</v>
       </c>
       <c r="T41">
-        <v>18.219899999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="U41">
-        <v>0.35380800000000001</v>
+        <v>0.29228700000000002</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>52</v>
@@ -4491,310 +4449,295 @@
       <c r="K42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="M42" t="s">
         <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O42">
-        <v>-7360.84</v>
+        <v>-7397.1809999999996</v>
       </c>
       <c r="P42">
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <v>12.3188405797101</v>
+      </c>
+      <c r="R42">
+        <v>152.5</v>
+      </c>
+      <c r="S42">
+        <v>-7381.1809999999996</v>
+      </c>
+      <c r="T42">
+        <v>97.815100000000001</v>
+      </c>
+      <c r="U42">
+        <v>1.78929E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>29</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" t="s">
-        <v>15</v>
-      </c>
-      <c r="R42" t="s">
-        <v>15</v>
-      </c>
-      <c r="S42">
-        <v>-7338.84</v>
-      </c>
-      <c r="T42">
-        <v>18.248000000000001</v>
-      </c>
-      <c r="U42">
-        <v>0.35722999999999999</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="O43" s="5">
+        <v>-7396.8819999999996</v>
+      </c>
+      <c r="P43" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>11.6216216216216</v>
+      </c>
+      <c r="R43" s="5">
+        <v>12.958801498127301</v>
+      </c>
+      <c r="S43" s="5">
+        <v>-7380.8819999999996</v>
+      </c>
+      <c r="T43" s="5">
+        <v>18.621700000000001</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0.28395100000000001</v>
+      </c>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>6</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="3"/>
-      <c r="M43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43">
-        <v>-7353.53</v>
-      </c>
-      <c r="P43">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" t="s">
-        <v>15</v>
-      </c>
-      <c r="R43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S43">
-        <v>-7331.53</v>
-      </c>
-      <c r="T43">
-        <v>18.205200000000001</v>
-      </c>
-      <c r="U43">
-        <v>0.34934300000000001</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>4</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="O44" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P44" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R44" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S44" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T44" s="4">
+        <v>18.219799999999999</v>
+      </c>
+      <c r="U44" s="4">
+        <v>0.35448400000000002</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>19</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="5" t="s">
+      <c r="L45" s="6"/>
+      <c r="M45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="5">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P44" s="5">
+      <c r="O45" s="6">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P45" s="6">
         <v>9</v>
       </c>
-      <c r="Q44" s="5">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R44" s="5">
-        <v>13.3834586466165</v>
-      </c>
-      <c r="S44" s="5">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T44" s="5">
-        <v>18.380800000000001</v>
-      </c>
-      <c r="U44" s="5">
-        <v>0.348858</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L45" s="3"/>
-      <c r="M45" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P45">
-        <v>9</v>
-      </c>
-      <c r="Q45">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R45">
-        <v>13.4962406015038</v>
-      </c>
-      <c r="S45">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T45">
-        <v>18.379300000000001</v>
-      </c>
-      <c r="U45">
-        <v>0.349408</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
+      <c r="Q45" s="6">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R45" s="6">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S45" s="6">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T45" s="6">
+        <v>18.22</v>
+      </c>
+      <c r="U45" s="6">
+        <v>0.35374499999999998</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="3">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>4</v>
+      <c r="E46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>52</v>
@@ -4806,12 +4749,14 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M46" t="s">
         <v>10</v>
       </c>
@@ -4819,10 +4764,10 @@
         <v>14</v>
       </c>
       <c r="O46">
-        <v>-7343.5069999999996</v>
+        <v>-7360.6790000000001</v>
       </c>
       <c r="P46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q46" t="s">
         <v>15</v>
@@ -4831,50 +4776,36 @@
         <v>15</v>
       </c>
       <c r="S46">
-        <v>-7321.5069999999996</v>
+        <v>-7340.6790000000001</v>
       </c>
       <c r="T46">
-        <v>18.3887</v>
+        <v>18.219899999999999</v>
       </c>
       <c r="U46">
-        <v>0.35704900000000001</v>
-      </c>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
-      <c r="AJ46" s="3"/>
+        <v>0.35380800000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>55</v>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>52</v>
@@ -4883,14 +4814,12 @@
         <v>52</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L47" s="3"/>
       <c r="M47" t="s">
         <v>10</v>
       </c>
@@ -4898,10 +4827,10 @@
         <v>14</v>
       </c>
       <c r="O47">
-        <v>-7335.5169999999998</v>
+        <v>-7360.84</v>
       </c>
       <c r="P47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q47" t="s">
         <v>15</v>
@@ -4910,24 +4839,38 @@
         <v>15</v>
       </c>
       <c r="S47">
-        <v>-7315.5169999999998</v>
+        <v>-7338.84</v>
       </c>
       <c r="T47">
-        <v>17.314699999999998</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="U47">
-        <v>0.32265899999999997</v>
+        <v>0.35722999999999999</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4951,128 +4894,143 @@
         <v>52</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="L48" s="3"/>
       <c r="M48" t="s">
         <v>10</v>
       </c>
       <c r="N48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>-7353.53</v>
+      </c>
+      <c r="P48">
         <v>11</v>
       </c>
-      <c r="O48">
-        <v>-7314.5810000000001</v>
-      </c>
-      <c r="P48">
-        <v>10</v>
-      </c>
-      <c r="Q48">
-        <v>33.236994219653198</v>
-      </c>
-      <c r="R48">
-        <v>63.206106870229</v>
+      <c r="Q48" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" t="s">
+        <v>15</v>
       </c>
       <c r="S48">
-        <v>-7294.5810000000001</v>
+        <v>-7331.53</v>
       </c>
       <c r="T48">
-        <v>64.828199999999995</v>
+        <v>18.205200000000001</v>
       </c>
       <c r="U48">
-        <v>0.41000700000000001</v>
-      </c>
+        <v>0.34934300000000001</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="A49" s="5">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="K49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O49">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P49">
-        <v>8</v>
-      </c>
-      <c r="Q49">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R49">
-        <v>14.7206165703276</v>
-      </c>
-      <c r="S49">
-        <v>-7289.2420000000002</v>
-      </c>
-      <c r="T49">
-        <v>18.4377</v>
-      </c>
-      <c r="U49">
-        <v>0.38063399999999997</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
+      <c r="O49" s="5">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P49" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R49" s="5">
+        <v>13.3834586466165</v>
+      </c>
+      <c r="S49" s="5">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T49" s="5">
+        <v>18.380800000000001</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0.348858</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -5099,7 +5057,7 @@
         <v>58</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" t="s">
@@ -5109,25 +5067,25 @@
         <v>11</v>
       </c>
       <c r="O50">
-        <v>-7305.2420000000002</v>
+        <v>-7343.4480000000003</v>
       </c>
       <c r="P50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q50">
-        <v>32.456140350877199</v>
+        <v>30.3571428571429</v>
       </c>
       <c r="R50">
-        <v>14.701348747591499</v>
+        <v>13.4962406015038</v>
       </c>
       <c r="S50">
-        <v>-7289.2420000000002</v>
+        <v>-7325.4480000000003</v>
       </c>
       <c r="T50">
-        <v>18.436399999999999</v>
+        <v>18.379300000000001</v>
       </c>
       <c r="U50">
-        <v>0.38163799999999998</v>
+        <v>0.349408</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>71</v>
@@ -5149,10 +5107,10 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -5179,7 +5137,7 @@
         <v>58</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" t="s">
@@ -5189,10 +5147,10 @@
         <v>14</v>
       </c>
       <c r="O51">
-        <v>-7305.2520000000004</v>
+        <v>-7343.5069999999996</v>
       </c>
       <c r="P51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q51" t="s">
         <v>15</v>
@@ -5201,13 +5159,13 @@
         <v>15</v>
       </c>
       <c r="S51">
-        <v>-7285.2520000000004</v>
+        <v>-7321.5069999999996</v>
       </c>
       <c r="T51">
-        <v>18.490600000000001</v>
+        <v>18.3887</v>
       </c>
       <c r="U51">
-        <v>0.38619799999999999</v>
+        <v>0.35704900000000001</v>
       </c>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -5225,105 +5183,91 @@
       <c r="AJ51" s="3"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>41</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1</v>
-      </c>
-      <c r="E52" s="8">
-        <v>2</v>
-      </c>
-      <c r="F52" s="8">
-        <v>2</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O52" s="8">
-        <v>-7194.317</v>
-      </c>
-      <c r="P52" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q52" s="8">
-        <v>32.159624413145501</v>
-      </c>
-      <c r="R52" s="8">
-        <v>12.9957203994294</v>
-      </c>
-      <c r="S52" s="8">
-        <v>-7180.317</v>
-      </c>
-      <c r="T52" s="8">
-        <v>12.706899999999999</v>
-      </c>
-      <c r="U52" s="8">
-        <v>0.382193</v>
-      </c>
-      <c r="V52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="8"/>
-      <c r="AF52" s="8"/>
-      <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="8"/>
-      <c r="AJ52" s="8"/>
+      <c r="A52">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52">
+        <v>-7335.5169999999998</v>
+      </c>
+      <c r="P52">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>15</v>
+      </c>
+      <c r="R52" t="s">
+        <v>15</v>
+      </c>
+      <c r="S52">
+        <v>-7315.5169999999998</v>
+      </c>
+      <c r="T52">
+        <v>17.314699999999998</v>
+      </c>
+      <c r="U52">
+        <v>0.32265899999999997</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>52</v>
@@ -5332,63 +5276,51 @@
         <v>52</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="M53" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O53">
-        <v>-7096.0879999999997</v>
+        <v>-7314.5810000000001</v>
       </c>
       <c r="P53">
-        <v>9</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>15</v>
-      </c>
-      <c r="R53" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q53">
+        <v>33.236994219653198</v>
+      </c>
+      <c r="R53">
+        <v>63.206106870229</v>
       </c>
       <c r="S53">
-        <v>-7078.0879999999997</v>
+        <v>-7294.5810000000001</v>
       </c>
       <c r="T53">
-        <v>4.2718999999999996</v>
+        <v>64.828199999999995</v>
       </c>
       <c r="U53">
-        <v>0.384436</v>
-      </c>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
+        <v>0.41000700000000001</v>
+      </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5409,7 +5341,7 @@
         <v>52</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>58</v>
@@ -5425,25 +5357,28 @@
         <v>11</v>
       </c>
       <c r="O54">
-        <v>-7080.0150000000003</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q54">
-        <v>20.9978768577495</v>
+        <v>32.456140350877199</v>
       </c>
       <c r="R54">
-        <v>9.7751124437781094</v>
+        <v>14.7206165703276</v>
       </c>
       <c r="S54">
-        <v>-7066.0150000000003</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T54">
-        <v>12.4293</v>
+        <v>18.4377</v>
       </c>
       <c r="U54">
-        <v>0.36684600000000001</v>
+        <v>0.38063399999999997</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -5462,10 +5397,10 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -5480,7 +5415,7 @@
         <v>55</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>52</v>
@@ -5489,60 +5424,75 @@
         <v>52</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L55" s="3"/>
       <c r="M55" t="s">
         <v>10</v>
       </c>
       <c r="N55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O55">
-        <v>-6979.1540000000005</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P55">
-        <v>10</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>15</v>
-      </c>
-      <c r="R55" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q55">
+        <v>32.456140350877199</v>
+      </c>
+      <c r="R55">
+        <v>14.701348747591499</v>
       </c>
       <c r="S55">
-        <v>-6959.1540000000005</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T55">
-        <v>48.701000000000001</v>
-      </c>
-      <c r="U55" s="1">
-        <v>6.8511800000000003E-76</v>
-      </c>
+        <v>18.436399999999999</v>
+      </c>
+      <c r="U55">
+        <v>0.38163799999999998</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" s="3">
         <v>1</v>
       </c>
       <c r="E56" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>52</v>
@@ -5554,25 +5504,23 @@
         <v>52</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L56" s="3"/>
       <c r="M56" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N56" t="s">
         <v>14</v>
       </c>
       <c r="O56">
-        <v>-6914.9369999999999</v>
+        <v>-7305.2520000000004</v>
       </c>
       <c r="P56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q56" t="s">
         <v>15</v>
@@ -5581,178 +5529,194 @@
         <v>15</v>
       </c>
       <c r="S56">
-        <v>-6892.9369999999999</v>
+        <v>-7285.2520000000004</v>
       </c>
       <c r="T56">
-        <v>51.304000000000002</v>
-      </c>
-      <c r="U56" s="1">
-        <v>2.1262399999999999E-53</v>
-      </c>
+        <v>18.490600000000001</v>
+      </c>
+      <c r="U56">
+        <v>0.38619799999999999</v>
+      </c>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="3" t="s">
+      <c r="A57" s="8">
+        <v>41</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="8">
+        <v>-7194.317</v>
+      </c>
+      <c r="P57" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>32.159624413145501</v>
+      </c>
+      <c r="R57" s="8">
+        <v>12.9957203994294</v>
+      </c>
+      <c r="S57" s="8">
+        <v>-7180.317</v>
+      </c>
+      <c r="T57" s="8">
+        <v>12.706899999999999</v>
+      </c>
+      <c r="U57" s="8">
+        <v>0.382193</v>
+      </c>
+      <c r="V57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L57" s="3"/>
-      <c r="M57" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="J58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
         <v>14</v>
       </c>
-      <c r="O57">
-        <v>-6858.2439999999997</v>
-      </c>
-      <c r="P57">
-        <v>8</v>
-      </c>
-      <c r="Q57" t="s">
+      <c r="O58">
+        <v>-7096.0879999999997</v>
+      </c>
+      <c r="P58">
+        <v>9</v>
+      </c>
+      <c r="Q58" t="s">
         <v>15</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R58" t="s">
         <v>15</v>
       </c>
-      <c r="S57">
-        <v>-6842.2439999999997</v>
-      </c>
-      <c r="T57">
-        <v>69.619900000000001</v>
-      </c>
-      <c r="U57" s="1">
-        <v>4.0198100000000001E-82</v>
-      </c>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="3"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>0</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="9">
-        <v>1</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="9">
-        <v>2</v>
-      </c>
-      <c r="F58" s="9">
-        <v>2</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O58" s="8">
-        <v>-6843.326</v>
-      </c>
-      <c r="P58" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q58" s="8">
-        <v>23.647294589178401</v>
-      </c>
-      <c r="R58" s="8">
-        <v>12.0670391061453</v>
-      </c>
-      <c r="S58" s="8">
-        <v>-6831.326</v>
-      </c>
-      <c r="T58" s="8">
-        <v>100</v>
-      </c>
-      <c r="U58" s="8">
-        <v>0.36738399999999999</v>
-      </c>
-      <c r="V58" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-      <c r="AC58" s="8"/>
-      <c r="AD58" s="8"/>
-      <c r="AE58" s="8"/>
-      <c r="AF58" s="8"/>
-      <c r="AG58" s="8"/>
-      <c r="AH58" s="8"/>
-      <c r="AI58" s="8"/>
-      <c r="AJ58" s="8"/>
+      <c r="S58">
+        <v>-7078.0879999999997</v>
+      </c>
+      <c r="T58">
+        <v>4.2718999999999996</v>
+      </c>
+      <c r="U58">
+        <v>0.384436</v>
+      </c>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -5773,10 +5737,10 @@
         <v>52</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>58</v>
@@ -5786,31 +5750,28 @@
         <v>10</v>
       </c>
       <c r="N59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O59">
-        <v>-6802.9390000000003</v>
+        <v>-7080.0150000000003</v>
       </c>
       <c r="P59">
-        <v>10</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>15</v>
-      </c>
-      <c r="R59" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="Q59">
+        <v>20.9978768577495</v>
+      </c>
+      <c r="R59">
+        <v>9.7751124437781094</v>
       </c>
       <c r="S59">
-        <v>-6782.9390000000003</v>
+        <v>-7066.0150000000003</v>
       </c>
       <c r="T59">
-        <v>77.094399999999993</v>
-      </c>
-      <c r="U59" s="1">
-        <v>1.3424400000000001E-99</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>70</v>
+        <v>12.4293</v>
+      </c>
+      <c r="U59">
+        <v>0.36684600000000001</v>
       </c>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
@@ -5829,16 +5790,16 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>60</v>
+      <c r="D60" s="3">
+        <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>55</v>
@@ -5847,7 +5808,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>52</v>
@@ -5859,55 +5820,57 @@
         <v>59</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L60" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="M60" t="s">
         <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O60">
-        <v>-6439.4690000000001</v>
+        <v>-6979.1540000000005</v>
       </c>
       <c r="P60">
-        <v>11</v>
-      </c>
-      <c r="Q60">
-        <v>98.153846153846104</v>
-      </c>
-      <c r="R60">
-        <v>16.330798479087498</v>
+        <v>10</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R60" t="s">
+        <v>15</v>
       </c>
       <c r="S60">
-        <v>-6417.4690000000001</v>
+        <v>-6959.1540000000005</v>
       </c>
       <c r="T60">
-        <v>20.603000000000002</v>
-      </c>
-      <c r="U60">
-        <v>0.21735199999999999</v>
+        <v>48.701000000000001</v>
+      </c>
+      <c r="U60" s="1">
+        <v>6.8511800000000003E-76</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>55</v>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>52</v>
@@ -5924,53 +5887,55 @@
       <c r="K61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L61" s="3"/>
+      <c r="L61" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M61" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N61" t="s">
+        <v>14</v>
+      </c>
+      <c r="O61">
+        <v>-6914.9369999999999</v>
+      </c>
+      <c r="P61">
         <v>11</v>
       </c>
-      <c r="O61">
-        <v>-6430.3410000000003</v>
-      </c>
-      <c r="P61">
-        <v>9</v>
-      </c>
-      <c r="Q61">
-        <v>26.054590570719601</v>
-      </c>
-      <c r="R61">
-        <v>16.622390891840599</v>
+      <c r="Q61" t="s">
+        <v>15</v>
+      </c>
+      <c r="R61" t="s">
+        <v>15</v>
       </c>
       <c r="S61">
-        <v>-6412.3410000000003</v>
+        <v>-6892.9369999999999</v>
       </c>
       <c r="T61">
-        <v>20.392900000000001</v>
-      </c>
-      <c r="U61">
-        <v>0.21180599999999999</v>
+        <v>51.304000000000002</v>
+      </c>
+      <c r="U61" s="1">
+        <v>2.1262399999999999E-53</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>55</v>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>52</v>
@@ -5985,123 +5950,137 @@
         <v>53</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" t="s">
         <v>10</v>
       </c>
       <c r="N62" t="s">
+        <v>14</v>
+      </c>
+      <c r="O62">
+        <v>-6858.2439999999997</v>
+      </c>
+      <c r="P62">
+        <v>8</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>15</v>
+      </c>
+      <c r="R62" t="s">
+        <v>15</v>
+      </c>
+      <c r="S62">
+        <v>-6842.2439999999997</v>
+      </c>
+      <c r="T62">
+        <v>69.619900000000001</v>
+      </c>
+      <c r="U62" s="1">
+        <v>4.0198100000000001E-82</v>
+      </c>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>0</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="9">
+        <v>2</v>
+      </c>
+      <c r="F63" s="9">
+        <v>2</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L63" s="9"/>
+      <c r="M63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O62">
-        <v>-6416.2460000000001</v>
-      </c>
-      <c r="P62">
-        <v>9</v>
-      </c>
-      <c r="Q62">
-        <v>26.485148514851499</v>
-      </c>
-      <c r="R62">
-        <v>15.686619718309901</v>
-      </c>
-      <c r="S62">
-        <v>-6398.2460000000001</v>
-      </c>
-      <c r="T62">
-        <v>20.3721</v>
-      </c>
-      <c r="U62">
-        <v>0.210977</v>
-      </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3">
-        <v>2</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="3"/>
-      <c r="M63" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" t="s">
-        <v>11</v>
-      </c>
-      <c r="O63">
-        <v>-6356.9009999999998</v>
-      </c>
-      <c r="P63">
+      <c r="O63" s="8">
+        <v>-6843.326</v>
+      </c>
+      <c r="P63" s="8">
         <v>6</v>
       </c>
-      <c r="Q63">
-        <v>79.203539823008896</v>
-      </c>
-      <c r="R63">
-        <v>23.452768729641701</v>
-      </c>
-      <c r="S63">
-        <v>-6344.9009999999998</v>
-      </c>
-      <c r="T63">
-        <v>3.2928799999999998</v>
-      </c>
-      <c r="U63">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
+      <c r="Q63" s="8">
+        <v>23.647294589178401</v>
+      </c>
+      <c r="R63" s="8">
+        <v>12.0670391061453</v>
+      </c>
+      <c r="S63" s="8">
+        <v>-6831.326</v>
+      </c>
+      <c r="T63" s="8">
+        <v>100</v>
+      </c>
+      <c r="U63" s="8">
+        <v>0.36738399999999999</v>
+      </c>
+      <c r="V63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -6125,38 +6104,41 @@
         <v>52</v>
       </c>
       <c r="J64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" t="s">
         <v>10</v>
       </c>
       <c r="N64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O64">
-        <v>-6225.8220000000001</v>
+        <v>-6802.9390000000003</v>
       </c>
       <c r="P64">
-        <v>8</v>
-      </c>
-      <c r="Q64">
-        <v>24.582338902147999</v>
-      </c>
-      <c r="R64">
-        <v>14.7272727272727</v>
+        <v>10</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>15</v>
+      </c>
+      <c r="R64" t="s">
+        <v>15</v>
       </c>
       <c r="S64">
-        <v>-6209.8220000000001</v>
+        <v>-6782.9390000000003</v>
       </c>
       <c r="T64">
-        <v>15.906700000000001</v>
-      </c>
-      <c r="U64">
-        <v>0.37484600000000001</v>
+        <v>77.094399999999993</v>
+      </c>
+      <c r="U64" s="1">
+        <v>1.3424400000000001E-99</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -6175,22 +6157,22 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="3">
-        <v>2</v>
-      </c>
-      <c r="F65" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>52</v>
@@ -6202,7 +6184,7 @@
         <v>52</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>54</v>
@@ -6215,62 +6197,45 @@
         <v>11</v>
       </c>
       <c r="O65">
-        <v>-5773.9939999999997</v>
+        <v>-6439.4690000000001</v>
       </c>
       <c r="P65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q65">
-        <v>23.621262458471801</v>
+        <v>98.153846153846104</v>
       </c>
       <c r="R65">
-        <v>18.7332053742802</v>
+        <v>16.330798479087498</v>
       </c>
       <c r="S65">
-        <v>-5753.9939999999997</v>
+        <v>-6417.4690000000001</v>
       </c>
       <c r="T65">
-        <v>24.648700000000002</v>
+        <v>20.603000000000002</v>
       </c>
       <c r="U65">
-        <v>0.182335</v>
-      </c>
-      <c r="V65" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-      <c r="AJ65" s="3"/>
+        <v>0.21735199999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>52</v>
@@ -6282,7 +6247,7 @@
         <v>52</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>54</v>
@@ -6295,128 +6260,125 @@
         <v>11</v>
       </c>
       <c r="O66">
-        <v>-5762.0389999999998</v>
+        <v>-6430.3410000000003</v>
       </c>
       <c r="P66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q66">
-        <v>24.248366013071902</v>
+        <v>26.054590570719601</v>
       </c>
       <c r="R66">
-        <v>17.730496453900699</v>
+        <v>16.622390891840599</v>
       </c>
       <c r="S66">
-        <v>-5742.0389999999998</v>
+        <v>-6412.3410000000003</v>
       </c>
       <c r="T66">
-        <v>24.850200000000001</v>
+        <v>20.392900000000001</v>
       </c>
       <c r="U66">
-        <v>0.172901</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-      <c r="AJ66" s="3"/>
+        <v>0.21180599999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C67" s="3">
-        <v>2</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>4</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N67" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O67">
-        <v>-5526.2460000000001</v>
+        <v>-6416.2460000000001</v>
       </c>
       <c r="P67">
-        <v>8</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>15</v>
-      </c>
-      <c r="R67" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Q67">
+        <v>26.485148514851499</v>
+      </c>
+      <c r="R67">
+        <v>15.686619718309901</v>
       </c>
       <c r="S67">
-        <v>-5510.2460000000001</v>
+        <v>-6398.2460000000001</v>
       </c>
       <c r="T67">
-        <v>13.9314</v>
+        <v>20.3721</v>
       </c>
       <c r="U67">
-        <v>3.1708600000000001E-4</v>
-      </c>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="3"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="3"/>
+        <v>0.210977</v>
+      </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="3"/>
       <c r="M68" t="s">
         <v>10</v>
       </c>
@@ -6424,147 +6386,513 @@
         <v>11</v>
       </c>
       <c r="O68">
-        <v>-4978.9189999999999</v>
+        <v>-6356.9009999999998</v>
       </c>
       <c r="P68">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>26.1319534282018</v>
+        <v>79.203539823008896</v>
       </c>
       <c r="R68">
-        <v>16.267942583732101</v>
+        <v>23.452768729641701</v>
       </c>
       <c r="S68">
-        <v>-4960.9189999999999</v>
+        <v>-6344.9009999999998</v>
       </c>
       <c r="T68">
-        <v>29.6343</v>
+        <v>3.2928799999999998</v>
       </c>
       <c r="U68">
-        <v>0.10441599999999999</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+      <c r="AJ68" s="3"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69" s="3"/>
       <c r="M69" t="s">
         <v>10</v>
       </c>
       <c r="N69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O69">
-        <v>-4980.0590000000002</v>
+        <v>-6225.8220000000001</v>
       </c>
       <c r="P69">
-        <v>11</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>15</v>
-      </c>
-      <c r="R69" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q69">
+        <v>24.582338902147999</v>
+      </c>
+      <c r="R69">
+        <v>14.7272727272727</v>
       </c>
       <c r="S69">
-        <v>-4958.0590000000002</v>
+        <v>-6209.8220000000001</v>
       </c>
       <c r="T69">
-        <v>99.904899999999998</v>
+        <v>15.906700000000001</v>
       </c>
       <c r="U69">
-        <v>4.8087E-3</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>0.37484600000000001</v>
+      </c>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
+      <c r="AG69" s="3"/>
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+      <c r="AJ69" s="3"/>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L70" s="3"/>
       <c r="M70" t="s">
         <v>10</v>
       </c>
       <c r="N70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O70">
-        <v>-4980.0590000000002</v>
+        <v>-5773.9939999999997</v>
       </c>
       <c r="P70">
-        <v>11</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>15</v>
-      </c>
-      <c r="R70" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q70">
+        <v>23.621262458471801</v>
+      </c>
+      <c r="R70">
+        <v>18.7332053742802</v>
       </c>
       <c r="S70">
-        <v>-4958.0590000000002</v>
+        <v>-5753.9939999999997</v>
       </c>
       <c r="T70">
-        <v>99.904899999999998</v>
+        <v>24.648700000000002</v>
       </c>
       <c r="U70">
-        <v>4.8087E-3</v>
+        <v>0.182335</v>
       </c>
       <c r="V70" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3"/>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>-2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N71" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71">
+        <v>-5762.0389999999998</v>
+      </c>
+      <c r="P71">
+        <v>10</v>
+      </c>
+      <c r="Q71">
+        <v>24.248366013071902</v>
+      </c>
+      <c r="R71">
+        <v>17.730496453900699</v>
+      </c>
+      <c r="S71">
+        <v>-5742.0389999999998</v>
+      </c>
+      <c r="T71">
+        <v>24.850200000000001</v>
+      </c>
+      <c r="U71">
+        <v>0.172901</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="3"/>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72">
+        <v>-5526.2460000000001</v>
+      </c>
+      <c r="P72">
+        <v>8</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>15</v>
+      </c>
+      <c r="R72" t="s">
+        <v>15</v>
+      </c>
+      <c r="S72">
+        <v>-5510.2460000000001</v>
+      </c>
+      <c r="T72">
+        <v>13.9314</v>
+      </c>
+      <c r="U72">
+        <v>3.1708600000000001E-4</v>
+      </c>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+      <c r="AJ72" s="3"/>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="M73" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" t="s">
+        <v>11</v>
+      </c>
+      <c r="O73">
+        <v>-4978.9189999999999</v>
+      </c>
+      <c r="P73">
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <v>26.1319534282018</v>
+      </c>
+      <c r="R73">
+        <v>16.267942583732101</v>
+      </c>
+      <c r="S73">
+        <v>-4960.9189999999999</v>
+      </c>
+      <c r="T73">
+        <v>29.6343</v>
+      </c>
+      <c r="U73">
+        <v>0.10441599999999999</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="M74" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P74">
+        <v>11</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>15</v>
+      </c>
+      <c r="R74" t="s">
+        <v>15</v>
+      </c>
+      <c r="S74">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T74">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U74">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="M75" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" t="s">
+        <v>14</v>
+      </c>
+      <c r="O75">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P75">
+        <v>11</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>15</v>
+      </c>
+      <c r="R75" t="s">
+        <v>15</v>
+      </c>
+      <c r="S75">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T75">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U75">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>100</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B76" t="s">
         <v>109</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M76" t="s">
         <v>26</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N76" t="s">
         <v>14</v>
       </c>
-      <c r="O71">
+      <c r="O76">
         <v>-4980.0590000000002</v>
       </c>
-      <c r="P71">
+      <c r="P76">
         <v>12</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="Q76" t="s">
         <v>15</v>
       </c>
-      <c r="R71" t="s">
+      <c r="R76" t="s">
         <v>15</v>
       </c>
-      <c r="S71">
+      <c r="S76">
         <v>-4956.0590000000002</v>
       </c>
-      <c r="T71">
+      <c r="T76">
         <v>99.905000000000001</v>
       </c>
-      <c r="U71">
+      <c r="U76">
         <v>9.806839999999999E-4</v>
       </c>
-      <c r="V71" s="3" t="s">
+      <c r="V76" s="3" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AJ72">
-    <sortCondition ref="S2:S72"/>
+  <sortState ref="A2:AJ76">
+    <sortCondition ref="S2:S76"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
+++ b/TERM_SE_AIC_SHK_PVAL_MASTER.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="166">
   <si>
     <t>X1</t>
   </si>
@@ -520,6 +520,24 @@
   </si>
   <si>
     <t>LAG 0.1 + MU</t>
+  </si>
+  <si>
+    <t>RUN069_DES_1C6TAP_BOVPPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN070_DES_1C6TAP_BOVPPV_RATCLVKA</t>
+  </si>
+  <si>
+    <t>RUN071_DES_1C6TAP_BOVCL_PPV_CORCLVKA</t>
+  </si>
+  <si>
+    <t>RUN072_DES_1C6TAwAP_BOVPPV_RATCLVKA_I126</t>
+  </si>
+  <si>
+    <t>RUN073_DES_1C6TAwAP_PPV_CORCLVKA_I126</t>
+  </si>
+  <si>
+    <t>Ignore 126</t>
   </si>
 </sst>
 </file>
@@ -668,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +896,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1039,7 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1051,6 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1372,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ76"/>
+  <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,10 +1669,10 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1686,264 +1711,237 @@
         <v>11</v>
       </c>
       <c r="O4">
-        <v>-8016.94</v>
+        <v>-8045.7510000000002</v>
       </c>
       <c r="P4">
         <v>9</v>
       </c>
       <c r="Q4">
+        <v>27.572815533980599</v>
+      </c>
+      <c r="R4">
+        <v>37.179487179487197</v>
+      </c>
+      <c r="S4">
+        <v>-8027.7510000000002</v>
+      </c>
+      <c r="T4">
+        <v>77.092200000000005</v>
+      </c>
+      <c r="U4">
+        <v>5.9220899999999996E-3</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>66</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="11">
+        <v>-8016.94</v>
+      </c>
+      <c r="P5" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="11">
         <v>28.413654618473899</v>
       </c>
-      <c r="R4">
+      <c r="R5" s="11">
         <v>37.908496732026201</v>
       </c>
-      <c r="S4">
+      <c r="S5" s="11">
         <v>-7998.94</v>
       </c>
-      <c r="T4">
+      <c r="T5" s="11">
         <v>78.4482</v>
       </c>
-      <c r="U4">
+      <c r="U5" s="11">
         <v>7.6480799999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O5">
+      <c r="O6" s="11">
         <v>-8015.5559999999996</v>
       </c>
-      <c r="P5">
+      <c r="P6" s="11">
         <v>9</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S5">
+      <c r="S6" s="11">
         <v>-7997.5559999999996</v>
       </c>
-      <c r="T5">
+      <c r="T6" s="11">
         <v>53.068300000000001</v>
       </c>
-      <c r="U5">
+      <c r="U6" s="11">
         <v>1.8369400000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="E7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O6">
+      <c r="O7" s="11">
         <v>-8016.94</v>
       </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="P7" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="S6">
+      <c r="S7" s="11">
         <v>-7996.94</v>
       </c>
-      <c r="T6">
+      <c r="T7" s="11">
         <v>78.445800000000006</v>
       </c>
-      <c r="U6">
+      <c r="U7" s="11">
         <v>7.6434600000000004E-3</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-    </row>
-    <row r="7" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>53</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="6">
-        <v>-7971.348</v>
-      </c>
-      <c r="P7" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>6.36556854410202</v>
-      </c>
-      <c r="R7" s="6">
-        <v>12.7519379844961</v>
-      </c>
-      <c r="S7" s="6">
-        <v>-7955.348</v>
-      </c>
-      <c r="T7" s="6">
-        <v>8.6566100000000006</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.487871</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
     </row>
     <row r="8" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>55</v>
@@ -1961,13 +1959,13 @@
         <v>52</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
@@ -1976,25 +1974,25 @@
         <v>11</v>
       </c>
       <c r="O8">
-        <v>-7965.2280000000001</v>
+        <v>-8004.4870000000001</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q8">
-        <v>6.0707964601769904</v>
+        <v>39.716981132075503</v>
       </c>
       <c r="R8">
-        <v>12.653846153846199</v>
+        <v>76.6666666666667</v>
       </c>
       <c r="S8">
-        <v>-7949.2280000000001</v>
+        <v>-7986.4870000000001</v>
       </c>
       <c r="T8">
-        <v>8.4613899999999997</v>
+        <v>80.720399999999998</v>
       </c>
       <c r="U8">
-        <v>0.49240800000000001</v>
+        <v>6.8714400000000004E-3</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8"/>
@@ -2014,10 +2012,10 @@
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -2047,34 +2045,34 @@
         <v>54</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O9">
-        <v>-7958.6779999999999</v>
+        <v>-8004.0709999999999</v>
       </c>
       <c r="P9">
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>6.3974495217853304</v>
-      </c>
-      <c r="R9">
-        <v>12.670349907919</v>
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
       </c>
       <c r="S9">
-        <v>-7942.6779999999999</v>
+        <v>-7986.0709999999999</v>
       </c>
       <c r="T9">
-        <v>8.6207600000000006</v>
+        <v>53.630200000000002</v>
       </c>
       <c r="U9">
-        <v>0.48619899999999999</v>
+        <v>2.04341E-2</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9"/>
@@ -2094,16 +2092,16 @@
     </row>
     <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>55</v>
@@ -2121,40 +2119,40 @@
         <v>52</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O10">
-        <v>-7953.567</v>
+        <v>-8004.4870000000001</v>
       </c>
       <c r="P10">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>6.67979002624672</v>
-      </c>
-      <c r="R10">
-        <v>12.960784313725499</v>
+        <v>10</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
       </c>
       <c r="S10">
-        <v>-7937.567</v>
+        <v>-7984.4870000000001</v>
       </c>
       <c r="T10">
-        <v>9.0121099999999998</v>
+        <v>80.730900000000005</v>
       </c>
       <c r="U10">
-        <v>0.46550900000000001</v>
+        <v>6.8703699999999998E-3</v>
       </c>
       <c r="W10"/>
       <c r="X10"/>
@@ -2172,17 +2170,17 @@
       <c r="AJ10"/>
     </row>
     <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
+      <c r="A11">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
@@ -2208,123 +2206,143 @@
       <c r="L11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="3">
-        <v>-7901.4040000000005</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="O11">
+        <v>-7996.83</v>
+      </c>
+      <c r="P11">
         <v>8</v>
       </c>
-      <c r="Q11" s="3">
-        <v>7.6174496644295298</v>
-      </c>
-      <c r="R11" s="3">
-        <v>13.108910891089099</v>
-      </c>
-      <c r="S11" s="3">
-        <v>-7885.4040000000005</v>
-      </c>
-      <c r="T11" s="3">
-        <v>9.8653200000000005</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0.39762799999999998</v>
-      </c>
+      <c r="Q11">
+        <v>6.3888888888888902</v>
+      </c>
+      <c r="R11">
+        <v>12.868217054263599</v>
+      </c>
+      <c r="S11">
+        <v>-7980.83</v>
+      </c>
+      <c r="T11">
+        <v>8.6337600000000005</v>
+      </c>
+      <c r="U11">
+        <v>0.495282</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
     </row>
     <row r="12" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="6">
+        <v>53</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L12"/>
-      <c r="M12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12">
-        <v>-7858.4639999999999</v>
-      </c>
-      <c r="P12">
-        <v>9</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" t="s">
-        <v>15</v>
-      </c>
-      <c r="S12">
-        <v>-7840.4639999999999</v>
-      </c>
-      <c r="T12">
-        <v>13.882099999999999</v>
-      </c>
-      <c r="U12" s="1">
-        <v>6.4067100000000001E-9</v>
-      </c>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
+      <c r="L12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-7971.348</v>
+      </c>
+      <c r="P12" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>6.36556854410202</v>
+      </c>
+      <c r="R12" s="6">
+        <v>12.7519379844961</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-7955.348</v>
+      </c>
+      <c r="T12" s="6">
+        <v>8.6566100000000006</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.487871</v>
+      </c>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>55</v>
@@ -2347,6 +2365,9 @@
       <c r="K13" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="L13" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="M13" t="s">
         <v>10</v>
       </c>
@@ -2354,39 +2375,39 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <v>-7849.817</v>
+        <v>-7965.2280000000001</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13">
-        <v>30.5980066445183</v>
+        <v>6.0707964601769904</v>
       </c>
       <c r="R13">
-        <v>13.3267716535433</v>
+        <v>12.653846153846199</v>
       </c>
       <c r="S13">
-        <v>-7831.817</v>
+        <v>-7949.2280000000001</v>
       </c>
       <c r="T13">
-        <v>9.71218</v>
+        <v>8.4613899999999997</v>
       </c>
       <c r="U13">
-        <v>0.449681</v>
+        <v>0.49240800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>55</v>
@@ -2404,40 +2425,40 @@
         <v>52</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>-7843</v>
+        <v>-7958.6779999999999</v>
       </c>
       <c r="P14">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>6.3974495217853304</v>
+      </c>
+      <c r="R14">
+        <v>12.670349907919</v>
       </c>
       <c r="S14">
-        <v>-7825</v>
+        <v>-7942.6779999999999</v>
       </c>
       <c r="T14">
-        <v>52.140799999999999</v>
+        <v>8.6207600000000006</v>
       </c>
       <c r="U14">
-        <v>2.2879500000000001E-2</v>
+        <v>0.48619899999999999</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14"/>
@@ -2457,16 +2478,16 @@
     </row>
     <row r="15" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>55</v>
@@ -2490,34 +2511,34 @@
         <v>54</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
         <v>10</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O15">
-        <v>-7844.0959999999995</v>
+        <v>-7953.567</v>
       </c>
       <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>6.67979002624672</v>
+      </c>
+      <c r="R15">
+        <v>12.960784313725499</v>
       </c>
       <c r="S15">
-        <v>-7824.0959999999995</v>
+        <v>-7937.567</v>
       </c>
       <c r="T15">
-        <v>79.057599999999994</v>
+        <v>9.0121099999999998</v>
       </c>
       <c r="U15">
-        <v>7.0567499999999997E-3</v>
+        <v>0.46550900000000001</v>
       </c>
       <c r="V15" s="3"/>
       <c r="W15"/>
@@ -2536,17 +2557,17 @@
       <c r="AJ15"/>
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>121</v>
+      <c r="A16" s="3">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>55</v>
@@ -2567,66 +2588,66 @@
         <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O16">
-        <v>-7839.5190000000002</v>
-      </c>
-      <c r="P16">
-        <v>9</v>
-      </c>
-      <c r="Q16">
-        <v>14.9685534591195</v>
-      </c>
-      <c r="R16">
-        <v>17.991266375545901</v>
-      </c>
-      <c r="S16">
-        <v>-7821.5190000000002</v>
-      </c>
-      <c r="T16">
-        <v>78.857299999999995</v>
-      </c>
-      <c r="U16">
-        <v>1.23493E-3</v>
+      <c r="O16" s="3">
+        <v>-7901.4040000000005</v>
+      </c>
+      <c r="P16" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>7.6174496644295298</v>
+      </c>
+      <c r="R16" s="3">
+        <v>13.108910891089099</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-7885.4040000000005</v>
+      </c>
+      <c r="T16" s="3">
+        <v>9.8653200000000005</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.39762799999999998</v>
       </c>
       <c r="V16" s="3"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>55</v>
@@ -2644,7 +2665,7 @@
         <v>52</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>54</v>
@@ -2653,124 +2674,120 @@
         <v>10</v>
       </c>
       <c r="N17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>-7835.3919999999998</v>
+        <v>-7858.4639999999999</v>
       </c>
       <c r="P17">
         <v>9</v>
       </c>
-      <c r="Q17">
-        <v>30.498338870431901</v>
-      </c>
-      <c r="R17">
-        <v>13</v>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
       </c>
       <c r="S17">
-        <v>-7817.3919999999998</v>
+        <v>-7840.4639999999999</v>
       </c>
       <c r="T17">
-        <v>9.7065099999999997</v>
-      </c>
-      <c r="U17">
-        <v>0.44284600000000002</v>
+        <v>13.882099999999999</v>
+      </c>
+      <c r="U17" s="1">
+        <v>6.4067100000000001E-9</v>
       </c>
     </row>
     <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="A18">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="6">
-        <v>-7802.5720000000001</v>
-      </c>
-      <c r="P18" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>7.6818181818181799</v>
-      </c>
-      <c r="R18" s="6">
-        <v>13.3333333333333</v>
-      </c>
-      <c r="S18" s="6">
-        <v>-7786.5720000000001</v>
-      </c>
-      <c r="T18" s="6">
-        <v>10.2311</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.317</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
+      <c r="O18">
+        <v>-7849.817</v>
+      </c>
+      <c r="P18">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>30.5980066445183</v>
+      </c>
+      <c r="R18">
+        <v>13.3267716535433</v>
+      </c>
+      <c r="S18">
+        <v>-7831.817</v>
+      </c>
+      <c r="T18">
+        <v>9.71218</v>
+      </c>
+      <c r="U18">
+        <v>0.449681</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>55</v>
@@ -2793,6 +2810,9 @@
       <c r="K19" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="L19" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="M19" t="s">
         <v>10</v>
       </c>
@@ -2800,10 +2820,10 @@
         <v>14</v>
       </c>
       <c r="O19">
-        <v>-7809.8739999999998</v>
+        <v>-7843</v>
       </c>
       <c r="P19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q19" t="s">
         <v>15</v>
@@ -2812,21 +2832,21 @@
         <v>15</v>
       </c>
       <c r="S19">
-        <v>-7785.8739999999998</v>
+        <v>-7825</v>
       </c>
       <c r="T19">
-        <v>37.440300000000001</v>
+        <v>52.140799999999999</v>
       </c>
       <c r="U19">
-        <v>1.7842899999999998E-2</v>
+        <v>2.2879500000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2856,7 +2876,7 @@
         <v>54</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
@@ -2865,10 +2885,10 @@
         <v>14</v>
       </c>
       <c r="O20">
-        <v>-7803.1729999999998</v>
+        <v>-7844.0959999999995</v>
       </c>
       <c r="P20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="s">
         <v>15</v>
@@ -2877,13 +2897,13 @@
         <v>15</v>
       </c>
       <c r="S20">
-        <v>-7785.1729999999998</v>
+        <v>-7824.0959999999995</v>
       </c>
       <c r="T20">
-        <v>99.180499999999995</v>
+        <v>79.057599999999994</v>
       </c>
       <c r="U20">
-        <v>1.2579799999999999E-3</v>
+        <v>7.0567499999999997E-3</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20"/>
@@ -2903,10 +2923,10 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2933,10 +2953,10 @@
         <v>53</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" t="s">
-        <v>83</v>
+        <v>112</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="M21" t="s">
         <v>10</v>
@@ -2945,198 +2965,189 @@
         <v>11</v>
       </c>
       <c r="O21">
-        <v>-7802.5720000000001</v>
+        <v>-7839.5190000000002</v>
       </c>
       <c r="P21">
         <v>9</v>
       </c>
       <c r="Q21">
+        <v>14.9685534591195</v>
+      </c>
+      <c r="R21">
+        <v>17.991266375545901</v>
+      </c>
+      <c r="S21">
+        <v>-7821.5190000000002</v>
+      </c>
+      <c r="T21">
+        <v>78.857299999999995</v>
+      </c>
+      <c r="U21">
+        <v>1.23493E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <v>-7835.3919999999998</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>30.498338870431901</v>
+      </c>
+      <c r="R22">
+        <v>13</v>
+      </c>
+      <c r="S22">
+        <v>-7817.3919999999998</v>
+      </c>
+      <c r="T22">
+        <v>9.7065099999999997</v>
+      </c>
+      <c r="U22">
+        <v>0.44284600000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="6">
+        <v>-7802.5720000000001</v>
+      </c>
+      <c r="P23" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="6">
         <v>7.6818181818181799</v>
       </c>
-      <c r="R21">
-        <v>619.83471074380202</v>
-      </c>
-      <c r="S21">
-        <v>-7784.5720000000001</v>
-      </c>
-      <c r="T21">
-        <v>52.482599999999998</v>
-      </c>
-      <c r="U21">
-        <v>0.31682399999999999</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>43</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="8">
-        <v>2</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="8">
-        <v>-7802.6030000000001</v>
-      </c>
-      <c r="P22" s="8">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>33.047619047619001</v>
-      </c>
-      <c r="R22" s="8">
-        <v>93.181818181818201</v>
-      </c>
-      <c r="S22" s="8">
-        <v>-7782.6030000000001</v>
-      </c>
-      <c r="T22" s="8">
-        <v>82.303399999999996</v>
-      </c>
-      <c r="U22" s="8">
-        <v>5.6356100000000001E-3</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-    </row>
-    <row r="23" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>34</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="4">
-        <v>-7760.2920000000004</v>
-      </c>
-      <c r="P23" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R23" s="4">
-        <v>13.886639676113401</v>
-      </c>
-      <c r="S23" s="4">
-        <v>-7742.2920000000004</v>
-      </c>
-      <c r="T23" s="4">
-        <v>9.7809200000000001</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="R23" s="6">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="S23" s="6">
+        <v>-7786.5720000000001</v>
+      </c>
+      <c r="T23" s="6">
+        <v>10.2311</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0.317</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>52</v>
@@ -3153,58 +3164,52 @@
       <c r="K24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L24" t="s">
-        <v>140</v>
-      </c>
       <c r="M24" t="s">
         <v>10</v>
       </c>
       <c r="N24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O24">
-        <v>-7760.2920000000004</v>
+        <v>-7809.8739999999998</v>
       </c>
       <c r="P24">
-        <v>9</v>
-      </c>
-      <c r="Q24">
-        <v>22.765432098765402</v>
-      </c>
-      <c r="R24">
-        <v>13.886639676113401</v>
+        <v>12</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" t="s">
+        <v>15</v>
       </c>
       <c r="S24">
-        <v>-7742.2920000000004</v>
+        <v>-7785.8739999999998</v>
       </c>
       <c r="T24">
-        <v>9.7809200000000001</v>
+        <v>37.440300000000001</v>
       </c>
       <c r="U24">
-        <v>0.43623099999999998</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>139</v>
+        <v>1.7842899999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>52</v>
@@ -3221,46 +3226,43 @@
       <c r="K25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L25" t="s">
-        <v>83</v>
+      <c r="L25" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M25" t="s">
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O25">
-        <v>-7760.2920000000004</v>
+        <v>-7803.1729999999998</v>
       </c>
       <c r="P25">
-        <v>10</v>
-      </c>
-      <c r="Q25">
-        <v>24.617283950617299</v>
-      </c>
-      <c r="R25">
-        <v>69.565217391304301</v>
+        <v>9</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
+        <v>15</v>
       </c>
       <c r="S25">
-        <v>-7740.2920000000004</v>
+        <v>-7785.1729999999998</v>
       </c>
       <c r="T25">
-        <v>40.420999999999999</v>
+        <v>99.180499999999995</v>
       </c>
       <c r="U25">
-        <v>0.43647900000000001</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>141</v>
+        <v>1.2579799999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3289,7 +3291,9 @@
       <c r="K26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" t="s">
+        <v>83</v>
+      </c>
       <c r="M26" t="s">
         <v>10</v>
       </c>
@@ -3297,190 +3301,212 @@
         <v>11</v>
       </c>
       <c r="O26">
-        <v>-7757.6949999999997</v>
+        <v>-7802.5720000000001</v>
       </c>
       <c r="P26">
         <v>9</v>
       </c>
       <c r="Q26">
-        <v>30.158227848101301</v>
+        <v>7.6818181818181799</v>
       </c>
       <c r="R26">
-        <v>13.712574850299401</v>
+        <v>619.83471074380202</v>
       </c>
       <c r="S26">
-        <v>-7739.6949999999997</v>
+        <v>-7784.5720000000001</v>
       </c>
       <c r="T26">
-        <v>10.4992</v>
+        <v>52.482599999999998</v>
       </c>
       <c r="U26">
-        <v>0.35333799999999999</v>
+        <v>0.31682399999999999</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="A27" s="8">
+        <v>43</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="8">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="G27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="8">
+        <v>-7802.6030000000001</v>
+      </c>
+      <c r="P27" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>33.047619047619001</v>
+      </c>
+      <c r="R27" s="8">
+        <v>93.181818181818201</v>
+      </c>
+      <c r="S27" s="8">
+        <v>-7782.6030000000001</v>
+      </c>
+      <c r="T27" s="8">
+        <v>82.303399999999996</v>
+      </c>
+      <c r="U27" s="8">
+        <v>5.6356100000000001E-3</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27">
+      <c r="L28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="4">
         <v>-7760.2920000000004</v>
       </c>
-      <c r="P27">
-        <v>11</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>15</v>
-      </c>
-      <c r="R27" t="s">
-        <v>15</v>
-      </c>
-      <c r="S27">
-        <v>-7738.2920000000004</v>
-      </c>
-      <c r="T27">
-        <v>100</v>
-      </c>
-      <c r="U27">
-        <v>0.43628800000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>40</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="5">
-        <v>-7745.3230000000003</v>
-      </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
         <v>9</v>
       </c>
-      <c r="Q28" s="5">
-        <v>28.186274509803901</v>
-      </c>
-      <c r="R28" s="5">
-        <v>13.8265306122449</v>
-      </c>
-      <c r="S28" s="5">
-        <v>-7727.3230000000003</v>
-      </c>
-      <c r="T28" s="5">
-        <v>9.6104400000000005</v>
-      </c>
-      <c r="U28" s="5">
-        <v>0.43874600000000002</v>
-      </c>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
+      <c r="Q28" s="4">
+        <v>22.765432098765402</v>
+      </c>
+      <c r="R28" s="4">
+        <v>13.886639676113401</v>
+      </c>
+      <c r="S28" s="4">
+        <v>-7742.2920000000004</v>
+      </c>
+      <c r="T28" s="4">
+        <v>9.7809200000000001</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>52</v>
@@ -3497,7 +3523,9 @@
       <c r="K29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
       <c r="M29" t="s">
         <v>10</v>
       </c>
@@ -3505,39 +3533,42 @@
         <v>11</v>
       </c>
       <c r="O29">
-        <v>-7743.576</v>
+        <v>-7760.2920000000004</v>
       </c>
       <c r="P29">
         <v>9</v>
       </c>
       <c r="Q29">
-        <v>29.4006309148265</v>
+        <v>22.765432098765402</v>
       </c>
       <c r="R29">
-        <v>13.2833020637899</v>
+        <v>13.886639676113401</v>
       </c>
       <c r="S29">
-        <v>-7725.576</v>
+        <v>-7742.2920000000004</v>
       </c>
       <c r="T29">
-        <v>10.5723</v>
+        <v>9.7809200000000001</v>
       </c>
       <c r="U29">
-        <v>0.363263</v>
+        <v>0.43623099999999998</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>89</v>
+      <c r="D30" s="3">
+        <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -3560,70 +3591,58 @@
       <c r="K30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="L30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="3">
-        <v>-7705.9520000000002</v>
-      </c>
-      <c r="P30" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>29.657320872274099</v>
-      </c>
-      <c r="R30" s="3">
-        <v>14.580777096114501</v>
-      </c>
-      <c r="S30" s="3">
-        <v>-7685.9520000000002</v>
-      </c>
-      <c r="T30" s="3">
-        <v>11.7502</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0.35689399999999999</v>
+      <c r="O30">
+        <v>-7760.2920000000004</v>
+      </c>
+      <c r="P30">
+        <v>10</v>
+      </c>
+      <c r="Q30">
+        <v>24.617283950617299</v>
+      </c>
+      <c r="R30">
+        <v>69.565217391304301</v>
+      </c>
+      <c r="S30">
+        <v>-7740.2920000000004</v>
+      </c>
+      <c r="T30">
+        <v>40.420999999999999</v>
+      </c>
+      <c r="U30">
+        <v>0.43647900000000001</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>52</v>
@@ -3635,75 +3654,58 @@
         <v>52</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N31" s="3" t="s">
+      <c r="M31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" t="s">
         <v>11</v>
       </c>
-      <c r="O31" s="3">
-        <v>-7689.5619999999999</v>
-      </c>
-      <c r="P31" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>29.440993788819899</v>
-      </c>
-      <c r="R31" s="3">
-        <v>13.9583333333333</v>
-      </c>
-      <c r="S31" s="3">
-        <v>-7669.5619999999999</v>
-      </c>
-      <c r="T31" s="3">
-        <v>10.7644</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0.30691000000000002</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
+      <c r="O31">
+        <v>-7757.6949999999997</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>30.158227848101301</v>
+      </c>
+      <c r="R31">
+        <v>13.712574850299401</v>
+      </c>
+      <c r="S31">
+        <v>-7739.6949999999997</v>
+      </c>
+      <c r="T31">
+        <v>10.4992</v>
+      </c>
+      <c r="U31">
+        <v>0.35333799999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>55</v>
+      <c r="F32" s="3">
+        <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>52</v>
@@ -3720,6 +3722,9 @@
       <c r="K32" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="L32" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="M32" t="s">
         <v>10</v>
       </c>
@@ -3727,10 +3732,10 @@
         <v>14</v>
       </c>
       <c r="O32">
-        <v>-7664.866</v>
+        <v>-7760.2920000000004</v>
       </c>
       <c r="P32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q32" t="s">
         <v>15</v>
@@ -3739,92 +3744,107 @@
         <v>15</v>
       </c>
       <c r="S32">
-        <v>-7644.866</v>
+        <v>-7738.2920000000004</v>
       </c>
       <c r="T32">
-        <v>12.027100000000001</v>
+        <v>100</v>
       </c>
       <c r="U32">
-        <v>0.23436299999999999</v>
+        <v>0.43628800000000001</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="A33" s="5">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M33" t="s">
-        <v>10</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O33">
-        <v>-7642.89</v>
-      </c>
-      <c r="P33">
-        <v>8</v>
-      </c>
-      <c r="Q33">
-        <v>6.7931034482758603</v>
-      </c>
-      <c r="R33">
-        <v>13.824130879345599</v>
-      </c>
-      <c r="S33">
-        <v>-7626.89</v>
-      </c>
-      <c r="T33">
-        <v>12.1884</v>
-      </c>
-      <c r="U33">
-        <v>0.24842400000000001</v>
-      </c>
+      <c r="O33" s="5">
+        <v>-7745.3230000000003</v>
+      </c>
+      <c r="P33" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>28.186274509803901</v>
+      </c>
+      <c r="R33" s="5">
+        <v>13.8265306122449</v>
+      </c>
+      <c r="S33" s="5">
+        <v>-7727.3230000000003</v>
+      </c>
+      <c r="T33" s="5">
+        <v>9.6104400000000005</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.43874600000000002</v>
+      </c>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>55</v>
@@ -3845,54 +3865,55 @@
         <v>53</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L34" s="3"/>
       <c r="M34" t="s">
         <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O34">
-        <v>-7620.9380000000001</v>
+        <v>-7743.576</v>
       </c>
       <c r="P34">
-        <v>14</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>15</v>
-      </c>
-      <c r="R34" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>29.4006309148265</v>
+      </c>
+      <c r="R34">
+        <v>13.2833020637899</v>
       </c>
       <c r="S34">
-        <v>-7592.9380000000001</v>
+        <v>-7725.576</v>
       </c>
       <c r="T34">
-        <v>55.209499999999998</v>
-      </c>
-      <c r="U34" s="1">
-        <v>1.03933E-7</v>
+        <v>10.5723</v>
+      </c>
+      <c r="U34">
+        <v>0.363263</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>120</v>
+      <c r="A35" s="3">
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>52</v>
@@ -3907,316 +3928,279 @@
         <v>53</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-7705.9520000000002</v>
+      </c>
+      <c r="P35" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>29.657320872274099</v>
+      </c>
+      <c r="R35" s="3">
+        <v>14.580777096114501</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-7685.9520000000002</v>
+      </c>
+      <c r="T35" s="3">
+        <v>11.7502</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.35689399999999999</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="3">
+        <v>-7689.5619999999999</v>
+      </c>
+      <c r="P36" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>29.440993788819899</v>
+      </c>
+      <c r="R36" s="3">
+        <v>13.9583333333333</v>
+      </c>
+      <c r="S36" s="3">
+        <v>-7669.5619999999999</v>
+      </c>
+      <c r="T36" s="3">
+        <v>10.7644</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.30691000000000002</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37">
+        <v>-7664.866</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37">
+        <v>-7644.866</v>
+      </c>
+      <c r="T37">
+        <v>12.027100000000001</v>
+      </c>
+      <c r="U37">
+        <v>0.23436299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M35" t="s">
-        <v>10</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" t="s">
         <v>11</v>
       </c>
-      <c r="O35">
-        <v>-7452.6949999999997</v>
-      </c>
-      <c r="P35">
-        <v>7</v>
-      </c>
-      <c r="Q35">
-        <v>21.321695760598502</v>
-      </c>
-      <c r="R35">
-        <v>13.877840909090899</v>
-      </c>
-      <c r="S35">
-        <v>-7438.6949999999997</v>
-      </c>
-      <c r="T35">
-        <v>9.7581600000000002</v>
-      </c>
-      <c r="U35">
-        <v>0.34387299999999998</v>
-      </c>
-      <c r="V35" s="3"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>42</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
-        <v>2</v>
-      </c>
-      <c r="F36" s="8">
-        <v>2</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="8">
-        <v>-7447.6530000000002</v>
-      </c>
-      <c r="P36" s="8">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="8">
-        <v>21.7882836587873</v>
-      </c>
-      <c r="R36" s="8">
-        <v>33.636363636363598</v>
-      </c>
-      <c r="S36" s="8">
-        <v>-7429.6530000000002</v>
-      </c>
-      <c r="T36" s="8">
-        <v>77.976200000000006</v>
-      </c>
-      <c r="U36" s="8">
-        <v>2.1269000000000001E-3</v>
-      </c>
-      <c r="V36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="8"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>32</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O37" s="6">
-        <v>-7412.5810000000001</v>
-      </c>
-      <c r="P37" s="6">
+      <c r="O38">
+        <v>-7642.89</v>
+      </c>
+      <c r="P38">
         <v>8</v>
       </c>
-      <c r="Q37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S37" s="6">
-        <v>-7396.5810000000001</v>
-      </c>
-      <c r="T37" s="6">
-        <v>18.5487</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0.29675800000000002</v>
-      </c>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>28</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" s="4">
-        <v>-7412.5789999999997</v>
-      </c>
-      <c r="P38" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>11.4864864864865</v>
-      </c>
-      <c r="R38" s="4">
-        <v>13.810483870967699</v>
-      </c>
-      <c r="S38" s="4">
-        <v>-7396.5789999999997</v>
-      </c>
-      <c r="T38" s="4">
-        <v>18.563400000000001</v>
-      </c>
-      <c r="U38" s="4">
-        <v>0.29601899999999998</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
+      <c r="Q38">
+        <v>6.7931034482758603</v>
+      </c>
+      <c r="R38">
+        <v>13.824130879345599</v>
+      </c>
+      <c r="S38">
+        <v>-7626.89</v>
+      </c>
+      <c r="T38">
+        <v>12.1884</v>
+      </c>
+      <c r="U38">
+        <v>0.24842400000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>52</v>
@@ -4231,10 +4215,7 @@
         <v>53</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="M39" t="s">
         <v>10</v>
@@ -4243,10 +4224,10 @@
         <v>14</v>
       </c>
       <c r="O39">
-        <v>-7413.6360000000004</v>
+        <v>-7620.9380000000001</v>
       </c>
       <c r="P39">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q39" t="s">
         <v>15</v>
@@ -4255,36 +4236,33 @@
         <v>15</v>
       </c>
       <c r="S39">
-        <v>-7395.6360000000004</v>
+        <v>-7592.9380000000001</v>
       </c>
       <c r="T39">
-        <v>18.5459</v>
-      </c>
-      <c r="U39">
-        <v>0.29598000000000002</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>91</v>
+        <v>55.209499999999998</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1.03933E-7</v>
       </c>
     </row>
     <row r="40" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
+      <c r="D40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>52</v>
@@ -4299,37 +4277,37 @@
         <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>133</v>
+        <v>112</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M40" t="s">
         <v>10</v>
       </c>
       <c r="N40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O40">
-        <v>-7412.5789999999997</v>
+        <v>-7452.6949999999997</v>
       </c>
       <c r="P40">
-        <v>9</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>15</v>
-      </c>
-      <c r="R40" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="Q40">
+        <v>21.321695760598502</v>
+      </c>
+      <c r="R40">
+        <v>13.877840909090899</v>
       </c>
       <c r="S40">
-        <v>-7394.5789999999997</v>
+        <v>-7438.6949999999997</v>
       </c>
       <c r="T40">
-        <v>35.331699999999998</v>
+        <v>9.7581600000000002</v>
       </c>
       <c r="U40">
-        <v>0.29600399999999999</v>
+        <v>0.34387299999999998</v>
       </c>
       <c r="V40" s="3"/>
       <c r="W40"/>
@@ -4348,384 +4326,388 @@
       <c r="AJ40"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="A41" s="8">
+        <v>42</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
         <v>2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="8">
         <v>2</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="3" t="s">
+      <c r="G41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="8">
+        <v>-7447.6530000000002</v>
+      </c>
+      <c r="P41" s="8">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>21.7882836587873</v>
+      </c>
+      <c r="R41" s="8">
+        <v>33.636363636363598</v>
+      </c>
+      <c r="S41" s="8">
+        <v>-7429.6530000000002</v>
+      </c>
+      <c r="T41" s="8">
+        <v>77.976200000000006</v>
+      </c>
+      <c r="U41" s="8">
+        <v>2.1269000000000001E-3</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>32</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M41" t="s">
-        <v>10</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="M42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="6">
+        <v>-7412.5810000000001</v>
+      </c>
+      <c r="P42" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42" s="6">
+        <v>-7396.5810000000001</v>
+      </c>
+      <c r="T42" s="6">
+        <v>18.5487</v>
+      </c>
+      <c r="U42" s="6">
+        <v>0.29675800000000002</v>
+      </c>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O41">
-        <v>-7412.9350000000004</v>
-      </c>
-      <c r="P41">
-        <v>10</v>
-      </c>
-      <c r="Q41">
-        <v>29.986052998605299</v>
-      </c>
-      <c r="R41">
-        <v>13.951612903225801</v>
-      </c>
-      <c r="S41">
-        <v>-7392.9350000000004</v>
-      </c>
-      <c r="T41">
-        <v>18.523599999999998</v>
-      </c>
-      <c r="U41">
-        <v>0.29228700000000002</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="O43" s="4">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P43" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>11.4864864864865</v>
+      </c>
+      <c r="R43" s="4">
+        <v>13.810483870967699</v>
+      </c>
+      <c r="S43" s="4">
+        <v>-7396.5789999999997</v>
+      </c>
+      <c r="T43" s="4">
+        <v>18.563400000000001</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0.29601899999999998</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F44" s="3">
         <v>2</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="G44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M42" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" t="s">
-        <v>11</v>
-      </c>
-      <c r="O42">
-        <v>-7397.1809999999996</v>
-      </c>
-      <c r="P42">
-        <v>8</v>
-      </c>
-      <c r="Q42">
-        <v>12.3188405797101</v>
-      </c>
-      <c r="R42">
-        <v>152.5</v>
-      </c>
-      <c r="S42">
-        <v>-7381.1809999999996</v>
-      </c>
-      <c r="T42">
-        <v>97.815100000000001</v>
-      </c>
-      <c r="U42">
-        <v>1.78929E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>29</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="L44" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>-7413.6360000000004</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" t="s">
+        <v>15</v>
+      </c>
+      <c r="S44">
+        <v>-7395.6360000000004</v>
+      </c>
+      <c r="T44">
+        <v>18.5459</v>
+      </c>
+      <c r="U44">
+        <v>0.29598000000000002</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
         <v>2</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F45" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="G45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" s="5">
-        <v>-7396.8819999999996</v>
-      </c>
-      <c r="P43" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>11.6216216216216</v>
-      </c>
-      <c r="R43" s="5">
-        <v>12.958801498127301</v>
-      </c>
-      <c r="S43" s="5">
-        <v>-7380.8819999999996</v>
-      </c>
-      <c r="T43" s="5">
-        <v>18.621700000000001</v>
-      </c>
-      <c r="U43" s="5">
-        <v>0.28395100000000001</v>
-      </c>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="L45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45">
+        <v>-7412.5789999999997</v>
+      </c>
+      <c r="P45">
         <v>9</v>
       </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" s="4">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P44" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R44" s="4">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S44" s="4">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T44" s="4">
-        <v>18.219799999999999</v>
-      </c>
-      <c r="U44" s="4">
-        <v>0.35448400000000002</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AH44" s="4"/>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>19</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O45" s="6">
-        <v>-7360.6790000000001</v>
-      </c>
-      <c r="P45" s="6">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>31.641791044776099</v>
-      </c>
-      <c r="R45" s="6">
-        <v>14.6326530612245</v>
-      </c>
-      <c r="S45" s="6">
-        <v>-7342.6790000000001</v>
-      </c>
-      <c r="T45" s="6">
-        <v>18.22</v>
-      </c>
-      <c r="U45" s="6">
-        <v>0.35374499999999998</v>
-      </c>
-      <c r="V45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
+      <c r="Q45" t="s">
+        <v>15</v>
+      </c>
+      <c r="R45" t="s">
+        <v>15</v>
+      </c>
+      <c r="S45">
+        <v>-7394.5789999999997</v>
+      </c>
+      <c r="T45">
+        <v>35.331699999999998</v>
+      </c>
+      <c r="U45">
+        <v>0.29600399999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4733,11 +4715,11 @@
       <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>55</v>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>52</v>
@@ -4749,60 +4731,63 @@
         <v>52</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>56</v>
+      <c r="L46" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M46" t="s">
         <v>10</v>
       </c>
       <c r="N46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O46">
-        <v>-7360.6790000000001</v>
+        <v>-7412.9350000000004</v>
       </c>
       <c r="P46">
         <v>10</v>
       </c>
-      <c r="Q46" t="s">
-        <v>15</v>
-      </c>
-      <c r="R46" t="s">
-        <v>15</v>
+      <c r="Q46">
+        <v>29.986052998605299</v>
+      </c>
+      <c r="R46">
+        <v>13.951612903225801</v>
       </c>
       <c r="S46">
-        <v>-7340.6790000000001</v>
+        <v>-7392.9350000000004</v>
       </c>
       <c r="T46">
-        <v>18.219899999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="U46">
-        <v>0.35380800000000001</v>
+        <v>0.29228700000000002</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4</v>
-      </c>
       <c r="F47" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>52</v>
@@ -4819,310 +4804,295 @@
       <c r="K47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="M47" t="s">
         <v>10</v>
       </c>
       <c r="N47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O47">
-        <v>-7360.84</v>
+        <v>-7397.1809999999996</v>
       </c>
       <c r="P47">
+        <v>8</v>
+      </c>
+      <c r="Q47">
+        <v>12.3188405797101</v>
+      </c>
+      <c r="R47">
+        <v>152.5</v>
+      </c>
+      <c r="S47">
+        <v>-7381.1809999999996</v>
+      </c>
+      <c r="T47">
+        <v>97.815100000000001</v>
+      </c>
+      <c r="U47">
+        <v>1.78929E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>29</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q47" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" t="s">
-        <v>15</v>
-      </c>
-      <c r="S47">
-        <v>-7338.84</v>
-      </c>
-      <c r="T47">
-        <v>18.248000000000001</v>
-      </c>
-      <c r="U47">
-        <v>0.35722999999999999</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="O48" s="5">
+        <v>-7396.8819999999996</v>
+      </c>
+      <c r="P48" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>11.6216216216216</v>
+      </c>
+      <c r="R48" s="5">
+        <v>12.958801498127301</v>
+      </c>
+      <c r="S48" s="5">
+        <v>-7380.8819999999996</v>
+      </c>
+      <c r="T48" s="5">
+        <v>18.621700000000001</v>
+      </c>
+      <c r="U48" s="5">
+        <v>0.28395100000000001</v>
+      </c>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
         <v>2</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="4">
         <v>2</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="G49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O48">
-        <v>-7353.53</v>
-      </c>
-      <c r="P48">
+      <c r="L49" s="4"/>
+      <c r="M49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q48" t="s">
-        <v>15</v>
-      </c>
-      <c r="R48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S48">
-        <v>-7331.53</v>
-      </c>
-      <c r="T48">
-        <v>18.205200000000001</v>
-      </c>
-      <c r="U48">
-        <v>0.34934300000000001</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>4</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="O49" s="4">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P49" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R49" s="4">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S49" s="4">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T49" s="4">
+        <v>18.219799999999999</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0.35448400000000002</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>19</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="5" t="s">
+      <c r="L50" s="6"/>
+      <c r="M50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="5">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P49" s="5">
+      <c r="O50" s="6">
+        <v>-7360.6790000000001</v>
+      </c>
+      <c r="P50" s="6">
         <v>9</v>
       </c>
-      <c r="Q49" s="5">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R49" s="5">
-        <v>13.3834586466165</v>
-      </c>
-      <c r="S49" s="5">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T49" s="5">
-        <v>18.380800000000001</v>
-      </c>
-      <c r="U49" s="5">
-        <v>0.348858</v>
-      </c>
-      <c r="V49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L50" s="3"/>
-      <c r="M50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N50" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50">
-        <v>-7343.4480000000003</v>
-      </c>
-      <c r="P50">
-        <v>9</v>
-      </c>
-      <c r="Q50">
-        <v>30.3571428571429</v>
-      </c>
-      <c r="R50">
-        <v>13.4962406015038</v>
-      </c>
-      <c r="S50">
-        <v>-7325.4480000000003</v>
-      </c>
-      <c r="T50">
-        <v>18.379300000000001</v>
-      </c>
-      <c r="U50">
-        <v>0.349408</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
+      <c r="Q50" s="6">
+        <v>31.641791044776099</v>
+      </c>
+      <c r="R50" s="6">
+        <v>14.6326530612245</v>
+      </c>
+      <c r="S50" s="6">
+        <v>-7342.6790000000001</v>
+      </c>
+      <c r="T50" s="6">
+        <v>18.22</v>
+      </c>
+      <c r="U50" s="6">
+        <v>0.35374499999999998</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
-      <c r="E51" s="3">
-        <v>4</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4</v>
+      <c r="E51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>52</v>
@@ -5134,12 +5104,14 @@
         <v>52</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M51" t="s">
         <v>10</v>
       </c>
@@ -5147,10 +5119,10 @@
         <v>14</v>
       </c>
       <c r="O51">
-        <v>-7343.5069999999996</v>
+        <v>-7360.6790000000001</v>
       </c>
       <c r="P51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q51" t="s">
         <v>15</v>
@@ -5159,50 +5131,36 @@
         <v>15</v>
       </c>
       <c r="S51">
-        <v>-7321.5069999999996</v>
+        <v>-7340.6790000000001</v>
       </c>
       <c r="T51">
-        <v>18.3887</v>
+        <v>18.219899999999999</v>
       </c>
       <c r="U51">
-        <v>0.35704900000000001</v>
-      </c>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
+        <v>0.35380800000000001</v>
+      </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>55</v>
+      <c r="E52" s="3">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>4</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>52</v>
@@ -5211,14 +5169,12 @@
         <v>52</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L52" s="3"/>
       <c r="M52" t="s">
         <v>10</v>
       </c>
@@ -5226,10 +5182,10 @@
         <v>14</v>
       </c>
       <c r="O52">
-        <v>-7335.5169999999998</v>
+        <v>-7360.84</v>
       </c>
       <c r="P52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q52" t="s">
         <v>15</v>
@@ -5238,24 +5194,38 @@
         <v>15</v>
       </c>
       <c r="S52">
-        <v>-7315.5169999999998</v>
+        <v>-7338.84</v>
       </c>
       <c r="T52">
-        <v>17.314699999999998</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="U52">
-        <v>0.32265899999999997</v>
+        <v>0.35722999999999999</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -5279,128 +5249,143 @@
         <v>52</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="L53" s="3"/>
       <c r="M53" t="s">
         <v>10</v>
       </c>
       <c r="N53" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53">
+        <v>-7353.53</v>
+      </c>
+      <c r="P53">
         <v>11</v>
       </c>
-      <c r="O53">
-        <v>-7314.5810000000001</v>
-      </c>
-      <c r="P53">
-        <v>10</v>
-      </c>
-      <c r="Q53">
-        <v>33.236994219653198</v>
-      </c>
-      <c r="R53">
-        <v>63.206106870229</v>
+      <c r="Q53" t="s">
+        <v>15</v>
+      </c>
+      <c r="R53" t="s">
+        <v>15</v>
       </c>
       <c r="S53">
-        <v>-7294.5810000000001</v>
+        <v>-7331.53</v>
       </c>
       <c r="T53">
-        <v>64.828199999999995</v>
+        <v>18.205200000000001</v>
       </c>
       <c r="U53">
-        <v>0.41000700000000001</v>
-      </c>
+        <v>0.34934300000000001</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="A54" s="5">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
         <v>2</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="5">
         <v>2</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="G54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="K54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O54">
-        <v>-7305.2420000000002</v>
-      </c>
-      <c r="P54">
-        <v>8</v>
-      </c>
-      <c r="Q54">
-        <v>32.456140350877199</v>
-      </c>
-      <c r="R54">
-        <v>14.7206165703276</v>
-      </c>
-      <c r="S54">
-        <v>-7289.2420000000002</v>
-      </c>
-      <c r="T54">
-        <v>18.4377</v>
-      </c>
-      <c r="U54">
-        <v>0.38063399999999997</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
+      <c r="O54" s="5">
+        <v>-7343.4480000000003</v>
+      </c>
+      <c r="P54" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>30.3571428571429</v>
+      </c>
+      <c r="R54" s="5">
+        <v>13.3834586466165</v>
+      </c>
+      <c r="S54" s="5">
+        <v>-7325.4480000000003</v>
+      </c>
+      <c r="T54" s="5">
+        <v>18.380800000000001</v>
+      </c>
+      <c r="U54" s="5">
+        <v>0.348858</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -5427,7 +5412,7 @@
         <v>58</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" t="s">
@@ -5437,25 +5422,25 @@
         <v>11</v>
       </c>
       <c r="O55">
-        <v>-7305.2420000000002</v>
+        <v>-7343.4480000000003</v>
       </c>
       <c r="P55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q55">
-        <v>32.456140350877199</v>
+        <v>30.3571428571429</v>
       </c>
       <c r="R55">
-        <v>14.701348747591499</v>
+        <v>13.4962406015038</v>
       </c>
       <c r="S55">
-        <v>-7289.2420000000002</v>
+        <v>-7325.4480000000003</v>
       </c>
       <c r="T55">
-        <v>18.436399999999999</v>
+        <v>18.379300000000001</v>
       </c>
       <c r="U55">
-        <v>0.38163799999999998</v>
+        <v>0.349408</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>71</v>
@@ -5477,10 +5462,10 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -5507,7 +5492,7 @@
         <v>58</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" t="s">
@@ -5517,10 +5502,10 @@
         <v>14</v>
       </c>
       <c r="O56">
-        <v>-7305.2520000000004</v>
+        <v>-7343.5069999999996</v>
       </c>
       <c r="P56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q56" t="s">
         <v>15</v>
@@ -5529,13 +5514,13 @@
         <v>15</v>
       </c>
       <c r="S56">
-        <v>-7285.2520000000004</v>
+        <v>-7321.5069999999996</v>
       </c>
       <c r="T56">
-        <v>18.490600000000001</v>
+        <v>18.3887</v>
       </c>
       <c r="U56">
-        <v>0.38619799999999999</v>
+        <v>0.35704900000000001</v>
       </c>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -5553,105 +5538,91 @@
       <c r="AJ56" s="3"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>41</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" s="8">
-        <v>1</v>
-      </c>
-      <c r="E57" s="8">
-        <v>2</v>
-      </c>
-      <c r="F57" s="8">
-        <v>2</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O57" s="8">
-        <v>-7194.317</v>
-      </c>
-      <c r="P57" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q57" s="8">
-        <v>32.159624413145501</v>
-      </c>
-      <c r="R57" s="8">
-        <v>12.9957203994294</v>
-      </c>
-      <c r="S57" s="8">
-        <v>-7180.317</v>
-      </c>
-      <c r="T57" s="8">
-        <v>12.706899999999999</v>
-      </c>
-      <c r="U57" s="8">
-        <v>0.382193</v>
-      </c>
-      <c r="V57" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="8"/>
-      <c r="AF57" s="8"/>
-      <c r="AG57" s="8"/>
-      <c r="AH57" s="8"/>
-      <c r="AI57" s="8"/>
-      <c r="AJ57" s="8"/>
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M57" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" t="s">
+        <v>14</v>
+      </c>
+      <c r="O57">
+        <v>-7335.5169999999998</v>
+      </c>
+      <c r="P57">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>15</v>
+      </c>
+      <c r="R57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S57">
+        <v>-7315.5169999999998</v>
+      </c>
+      <c r="T57">
+        <v>17.314699999999998</v>
+      </c>
+      <c r="U57">
+        <v>0.32265899999999997</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
         <v>2</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4</v>
-      </c>
       <c r="F58" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>52</v>
@@ -5660,63 +5631,51 @@
         <v>52</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="M58" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O58">
-        <v>-7096.0879999999997</v>
+        <v>-7314.5810000000001</v>
       </c>
       <c r="P58">
-        <v>9</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>15</v>
-      </c>
-      <c r="R58" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q58">
+        <v>33.236994219653198</v>
+      </c>
+      <c r="R58">
+        <v>63.206106870229</v>
       </c>
       <c r="S58">
-        <v>-7078.0879999999997</v>
+        <v>-7294.5810000000001</v>
       </c>
       <c r="T58">
-        <v>4.2718999999999996</v>
+        <v>64.828199999999995</v>
       </c>
       <c r="U58">
-        <v>0.384436</v>
-      </c>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
+        <v>0.41000700000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -5737,7 +5696,7 @@
         <v>52</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>58</v>
@@ -5753,25 +5712,28 @@
         <v>11</v>
       </c>
       <c r="O59">
-        <v>-7080.0150000000003</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q59">
-        <v>20.9978768577495</v>
+        <v>32.456140350877199</v>
       </c>
       <c r="R59">
-        <v>9.7751124437781094</v>
+        <v>14.7206165703276</v>
       </c>
       <c r="S59">
-        <v>-7066.0150000000003</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T59">
-        <v>12.4293</v>
+        <v>18.4377</v>
       </c>
       <c r="U59">
-        <v>0.36684600000000001</v>
+        <v>0.38063399999999997</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
@@ -5790,10 +5752,10 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5808,7 +5770,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>52</v>
@@ -5817,60 +5779,75 @@
         <v>52</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L60" s="3"/>
       <c r="M60" t="s">
         <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O60">
-        <v>-6979.1540000000005</v>
+        <v>-7305.2420000000002</v>
       </c>
       <c r="P60">
-        <v>10</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>15</v>
-      </c>
-      <c r="R60" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q60">
+        <v>32.456140350877199</v>
+      </c>
+      <c r="R60">
+        <v>14.701348747591499</v>
       </c>
       <c r="S60">
-        <v>-6959.1540000000005</v>
+        <v>-7289.2420000000002</v>
       </c>
       <c r="T60">
-        <v>48.701000000000001</v>
-      </c>
-      <c r="U60" s="1">
-        <v>6.8511800000000003E-76</v>
-      </c>
+        <v>18.436399999999999</v>
+      </c>
+      <c r="U60">
+        <v>0.38163799999999998</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3"/>
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
       </c>
       <c r="E61" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>52</v>
@@ -5882,25 +5859,23 @@
         <v>52</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>56</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L61" s="3"/>
       <c r="M61" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N61" t="s">
         <v>14</v>
       </c>
       <c r="O61">
-        <v>-6914.9369999999999</v>
+        <v>-7305.2520000000004</v>
       </c>
       <c r="P61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="s">
         <v>15</v>
@@ -5909,178 +5884,194 @@
         <v>15</v>
       </c>
       <c r="S61">
-        <v>-6892.9369999999999</v>
+        <v>-7285.2520000000004</v>
       </c>
       <c r="T61">
-        <v>51.304000000000002</v>
-      </c>
-      <c r="U61" s="1">
-        <v>2.1262399999999999E-53</v>
-      </c>
+        <v>18.490600000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.38619799999999999</v>
+      </c>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="A62" s="8">
+        <v>41</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
         <v>2</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="8">
         <v>2</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="G62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O62" s="8">
+        <v>-7194.317</v>
+      </c>
+      <c r="P62" s="8">
+        <v>7</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>32.159624413145501</v>
+      </c>
+      <c r="R62" s="8">
+        <v>12.9957203994294</v>
+      </c>
+      <c r="S62" s="8">
+        <v>-7180.317</v>
+      </c>
+      <c r="T62" s="8">
+        <v>12.706899999999999</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0.382193</v>
+      </c>
+      <c r="V62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L62" s="3"/>
-      <c r="M62" t="s">
-        <v>10</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="J63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" t="s">
         <v>14</v>
       </c>
-      <c r="O62">
-        <v>-6858.2439999999997</v>
-      </c>
-      <c r="P62">
-        <v>8</v>
-      </c>
-      <c r="Q62" t="s">
+      <c r="O63">
+        <v>-7096.0879999999997</v>
+      </c>
+      <c r="P63">
+        <v>9</v>
+      </c>
+      <c r="Q63" t="s">
         <v>15</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R63" t="s">
         <v>15</v>
       </c>
-      <c r="S62">
-        <v>-6842.2439999999997</v>
-      </c>
-      <c r="T62">
-        <v>69.619900000000001</v>
-      </c>
-      <c r="U62" s="1">
-        <v>4.0198100000000001E-82</v>
-      </c>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="3"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>0</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="9">
-        <v>1</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="9">
-        <v>2</v>
-      </c>
-      <c r="F63" s="9">
-        <v>2</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O63" s="8">
-        <v>-6843.326</v>
-      </c>
-      <c r="P63" s="8">
-        <v>6</v>
-      </c>
-      <c r="Q63" s="8">
-        <v>23.647294589178401</v>
-      </c>
-      <c r="R63" s="8">
-        <v>12.0670391061453</v>
-      </c>
-      <c r="S63" s="8">
-        <v>-6831.326</v>
-      </c>
-      <c r="T63" s="8">
-        <v>100</v>
-      </c>
-      <c r="U63" s="8">
-        <v>0.36738399999999999</v>
-      </c>
-      <c r="V63" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="8"/>
-      <c r="Z63" s="8"/>
-      <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="8"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="8"/>
-      <c r="AF63" s="8"/>
-      <c r="AG63" s="8"/>
-      <c r="AH63" s="8"/>
-      <c r="AI63" s="8"/>
-      <c r="AJ63" s="8"/>
+      <c r="S63">
+        <v>-7078.0879999999997</v>
+      </c>
+      <c r="T63">
+        <v>4.2718999999999996</v>
+      </c>
+      <c r="U63">
+        <v>0.384436</v>
+      </c>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -6101,10 +6092,10 @@
         <v>52</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>58</v>
@@ -6114,31 +6105,28 @@
         <v>10</v>
       </c>
       <c r="N64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>-6802.9390000000003</v>
+        <v>-7080.0150000000003</v>
       </c>
       <c r="P64">
-        <v>10</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>15</v>
-      </c>
-      <c r="R64" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="Q64">
+        <v>20.9978768577495</v>
+      </c>
+      <c r="R64">
+        <v>9.7751124437781094</v>
       </c>
       <c r="S64">
-        <v>-6782.9390000000003</v>
+        <v>-7066.0150000000003</v>
       </c>
       <c r="T64">
-        <v>77.094399999999993</v>
-      </c>
-      <c r="U64" s="1">
-        <v>1.3424400000000001E-99</v>
-      </c>
-      <c r="V64" s="3" t="s">
-        <v>70</v>
+        <v>12.4293</v>
+      </c>
+      <c r="U64">
+        <v>0.36684600000000001</v>
       </c>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -6157,16 +6145,16 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>60</v>
+      <c r="D65" s="3">
+        <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>55</v>
@@ -6175,7 +6163,7 @@
         <v>55</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>52</v>
@@ -6187,55 +6175,57 @@
         <v>59</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L65" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="M65" t="s">
         <v>10</v>
       </c>
       <c r="N65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O65">
-        <v>-6439.4690000000001</v>
+        <v>-6979.1540000000005</v>
       </c>
       <c r="P65">
-        <v>11</v>
-      </c>
-      <c r="Q65">
-        <v>98.153846153846104</v>
-      </c>
-      <c r="R65">
-        <v>16.330798479087498</v>
+        <v>10</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>15</v>
+      </c>
+      <c r="R65" t="s">
+        <v>15</v>
       </c>
       <c r="S65">
-        <v>-6417.4690000000001</v>
+        <v>-6959.1540000000005</v>
       </c>
       <c r="T65">
-        <v>20.603000000000002</v>
-      </c>
-      <c r="U65">
-        <v>0.21735199999999999</v>
+        <v>48.701000000000001</v>
+      </c>
+      <c r="U65" s="1">
+        <v>6.8511800000000003E-76</v>
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>55</v>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>52</v>
@@ -6252,53 +6242,55 @@
       <c r="K66" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L66" s="3"/>
+      <c r="L66" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="M66" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N66" t="s">
+        <v>14</v>
+      </c>
+      <c r="O66">
+        <v>-6914.9369999999999</v>
+      </c>
+      <c r="P66">
         <v>11</v>
       </c>
-      <c r="O66">
-        <v>-6430.3410000000003</v>
-      </c>
-      <c r="P66">
-        <v>9</v>
-      </c>
-      <c r="Q66">
-        <v>26.054590570719601</v>
-      </c>
-      <c r="R66">
-        <v>16.622390891840599</v>
+      <c r="Q66" t="s">
+        <v>15</v>
+      </c>
+      <c r="R66" t="s">
+        <v>15</v>
       </c>
       <c r="S66">
-        <v>-6412.3410000000003</v>
+        <v>-6892.9369999999999</v>
       </c>
       <c r="T66">
-        <v>20.392900000000001</v>
-      </c>
-      <c r="U66">
-        <v>0.21180599999999999</v>
+        <v>51.304000000000002</v>
+      </c>
+      <c r="U66" s="1">
+        <v>2.1262399999999999E-53</v>
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>55</v>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>52</v>
@@ -6313,123 +6305,137 @@
         <v>53</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" t="s">
         <v>10</v>
       </c>
       <c r="N67" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67">
+        <v>-6858.2439999999997</v>
+      </c>
+      <c r="P67">
+        <v>8</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>15</v>
+      </c>
+      <c r="R67" t="s">
+        <v>15</v>
+      </c>
+      <c r="S67">
+        <v>-6842.2439999999997</v>
+      </c>
+      <c r="T67">
+        <v>69.619900000000001</v>
+      </c>
+      <c r="U67" s="1">
+        <v>4.0198100000000001E-82</v>
+      </c>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+      <c r="AJ67" s="3"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>0</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="9">
+        <v>2</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L68" s="9"/>
+      <c r="M68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O67">
-        <v>-6416.2460000000001</v>
-      </c>
-      <c r="P67">
-        <v>9</v>
-      </c>
-      <c r="Q67">
-        <v>26.485148514851499</v>
-      </c>
-      <c r="R67">
-        <v>15.686619718309901</v>
-      </c>
-      <c r="S67">
-        <v>-6398.2460000000001</v>
-      </c>
-      <c r="T67">
-        <v>20.3721</v>
-      </c>
-      <c r="U67">
-        <v>0.210977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>2</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="M68" t="s">
-        <v>10</v>
-      </c>
-      <c r="N68" t="s">
-        <v>11</v>
-      </c>
-      <c r="O68">
-        <v>-6356.9009999999998</v>
-      </c>
-      <c r="P68">
+      <c r="O68" s="8">
+        <v>-6843.326</v>
+      </c>
+      <c r="P68" s="8">
         <v>6</v>
       </c>
-      <c r="Q68">
-        <v>79.203539823008896</v>
-      </c>
-      <c r="R68">
-        <v>23.452768729641701</v>
-      </c>
-      <c r="S68">
-        <v>-6344.9009999999998</v>
-      </c>
-      <c r="T68">
-        <v>3.2928799999999998</v>
-      </c>
-      <c r="U68">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="V68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
+      <c r="Q68" s="8">
+        <v>23.647294589178401</v>
+      </c>
+      <c r="R68" s="8">
+        <v>12.0670391061453</v>
+      </c>
+      <c r="S68" s="8">
+        <v>-6831.326</v>
+      </c>
+      <c r="T68" s="8">
+        <v>100</v>
+      </c>
+      <c r="U68" s="8">
+        <v>0.36738399999999999</v>
+      </c>
+      <c r="V68" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -6453,38 +6459,41 @@
         <v>52</v>
       </c>
       <c r="J69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" t="s">
         <v>10</v>
       </c>
       <c r="N69" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O69">
-        <v>-6225.8220000000001</v>
+        <v>-6802.9390000000003</v>
       </c>
       <c r="P69">
-        <v>8</v>
-      </c>
-      <c r="Q69">
-        <v>24.582338902147999</v>
-      </c>
-      <c r="R69">
-        <v>14.7272727272727</v>
+        <v>10</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>15</v>
+      </c>
+      <c r="R69" t="s">
+        <v>15</v>
       </c>
       <c r="S69">
-        <v>-6209.8220000000001</v>
+        <v>-6782.9390000000003</v>
       </c>
       <c r="T69">
-        <v>15.906700000000001</v>
-      </c>
-      <c r="U69">
-        <v>0.37484600000000001</v>
+        <v>77.094399999999993</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1.3424400000000001E-99</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
@@ -6503,22 +6512,22 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>52</v>
@@ -6530,7 +6539,7 @@
         <v>52</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>54</v>
@@ -6543,62 +6552,45 @@
         <v>11</v>
       </c>
       <c r="O70">
-        <v>-5773.9939999999997</v>
+        <v>-6439.4690000000001</v>
       </c>
       <c r="P70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q70">
-        <v>23.621262458471801</v>
+        <v>98.153846153846104</v>
       </c>
       <c r="R70">
-        <v>18.7332053742802</v>
+        <v>16.330798479087498</v>
       </c>
       <c r="S70">
-        <v>-5753.9939999999997</v>
+        <v>-6417.4690000000001</v>
       </c>
       <c r="T70">
-        <v>24.648700000000002</v>
+        <v>20.603000000000002</v>
       </c>
       <c r="U70">
-        <v>0.182335</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="3"/>
-      <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
-      <c r="AJ70" s="3"/>
+        <v>0.21735199999999999</v>
+      </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="3">
-        <v>2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>52</v>
@@ -6610,7 +6602,7 @@
         <v>52</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>54</v>
@@ -6623,128 +6615,125 @@
         <v>11</v>
       </c>
       <c r="O71">
-        <v>-5762.0389999999998</v>
+        <v>-6430.3410000000003</v>
       </c>
       <c r="P71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q71">
-        <v>24.248366013071902</v>
+        <v>26.054590570719601</v>
       </c>
       <c r="R71">
-        <v>17.730496453900699</v>
+        <v>16.622390891840599</v>
       </c>
       <c r="S71">
-        <v>-5742.0389999999998</v>
+        <v>-6412.3410000000003</v>
       </c>
       <c r="T71">
-        <v>24.850200000000001</v>
+        <v>20.392900000000001</v>
       </c>
       <c r="U71">
-        <v>0.172901</v>
-      </c>
-      <c r="V71" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-      <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
-      <c r="AJ71" s="3"/>
+        <v>0.21180599999999999</v>
+      </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C72" s="3">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N72" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O72">
-        <v>-5526.2460000000001</v>
+        <v>-6416.2460000000001</v>
       </c>
       <c r="P72">
-        <v>8</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>15</v>
-      </c>
-      <c r="R72" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="Q72">
+        <v>26.485148514851499</v>
+      </c>
+      <c r="R72">
+        <v>15.686619718309901</v>
       </c>
       <c r="S72">
-        <v>-5510.2460000000001</v>
+        <v>-6398.2460000000001</v>
       </c>
       <c r="T72">
-        <v>13.9314</v>
+        <v>20.3721</v>
       </c>
       <c r="U72">
-        <v>3.1708600000000001E-4</v>
-      </c>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="3"/>
+        <v>0.210977</v>
+      </c>
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="3"/>
       <c r="M73" t="s">
         <v>10</v>
       </c>
@@ -6752,147 +6741,513 @@
         <v>11</v>
       </c>
       <c r="O73">
-        <v>-4978.9189999999999</v>
+        <v>-6356.9009999999998</v>
       </c>
       <c r="P73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q73">
-        <v>26.1319534282018</v>
+        <v>79.203539823008896</v>
       </c>
       <c r="R73">
-        <v>16.267942583732101</v>
+        <v>23.452768729641701</v>
       </c>
       <c r="S73">
-        <v>-4960.9189999999999</v>
+        <v>-6344.9009999999998</v>
       </c>
       <c r="T73">
-        <v>29.6343</v>
+        <v>3.2928799999999998</v>
       </c>
       <c r="U73">
-        <v>0.10441599999999999</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="3"/>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="3"/>
       <c r="M74" t="s">
         <v>10</v>
       </c>
       <c r="N74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O74">
-        <v>-4980.0590000000002</v>
+        <v>-6225.8220000000001</v>
       </c>
       <c r="P74">
-        <v>11</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>15</v>
-      </c>
-      <c r="R74" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="Q74">
+        <v>24.582338902147999</v>
+      </c>
+      <c r="R74">
+        <v>14.7272727272727</v>
       </c>
       <c r="S74">
-        <v>-4958.0590000000002</v>
+        <v>-6209.8220000000001</v>
       </c>
       <c r="T74">
-        <v>99.904899999999998</v>
+        <v>15.906700000000001</v>
       </c>
       <c r="U74">
-        <v>4.8087E-3</v>
-      </c>
-      <c r="V74" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>0.37484600000000001</v>
+      </c>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>103</v>
+        <v>-1</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L75" s="3"/>
       <c r="M75" t="s">
         <v>10</v>
       </c>
       <c r="N75" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O75">
-        <v>-4980.0590000000002</v>
+        <v>-5773.9939999999997</v>
       </c>
       <c r="P75">
-        <v>11</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>15</v>
-      </c>
-      <c r="R75" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="Q75">
+        <v>23.621262458471801</v>
+      </c>
+      <c r="R75">
+        <v>18.7332053742802</v>
       </c>
       <c r="S75">
-        <v>-4958.0590000000002</v>
+        <v>-5753.9939999999997</v>
       </c>
       <c r="T75">
-        <v>99.904899999999998</v>
+        <v>24.648700000000002</v>
       </c>
       <c r="U75">
-        <v>4.8087E-3</v>
+        <v>0.182335</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>-2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76">
+        <v>-5762.0389999999998</v>
+      </c>
+      <c r="P76">
+        <v>10</v>
+      </c>
+      <c r="Q76">
+        <v>24.248366013071902</v>
+      </c>
+      <c r="R76">
+        <v>17.730496453900699</v>
+      </c>
+      <c r="S76">
+        <v>-5742.0389999999998</v>
+      </c>
+      <c r="T76">
+        <v>24.850200000000001</v>
+      </c>
+      <c r="U76">
+        <v>0.172901</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" t="s">
+        <v>14</v>
+      </c>
+      <c r="O77">
+        <v>-5526.2460000000001</v>
+      </c>
+      <c r="P77">
+        <v>8</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>15</v>
+      </c>
+      <c r="R77" t="s">
+        <v>15</v>
+      </c>
+      <c r="S77">
+        <v>-5510.2460000000001</v>
+      </c>
+      <c r="T77">
+        <v>13.9314</v>
+      </c>
+      <c r="U77">
+        <v>3.1708600000000001E-4</v>
+      </c>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+      <c r="M78" t="s">
+        <v>10</v>
+      </c>
+      <c r="N78" t="s">
+        <v>11</v>
+      </c>
+      <c r="O78">
+        <v>-4978.9189999999999</v>
+      </c>
+      <c r="P78">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <v>26.1319534282018</v>
+      </c>
+      <c r="R78">
+        <v>16.267942583732101</v>
+      </c>
+      <c r="S78">
+        <v>-4960.9189999999999</v>
+      </c>
+      <c r="T78">
+        <v>29.6343</v>
+      </c>
+      <c r="U78">
+        <v>0.10441599999999999</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="M79" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" t="s">
+        <v>14</v>
+      </c>
+      <c r="O79">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P79">
+        <v>11</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R79" t="s">
+        <v>15</v>
+      </c>
+      <c r="S79">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T79">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U79">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+      <c r="M80" t="s">
+        <v>10</v>
+      </c>
+      <c r="N80" t="s">
+        <v>14</v>
+      </c>
+      <c r="O80">
+        <v>-4980.0590000000002</v>
+      </c>
+      <c r="P80">
+        <v>11</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>15</v>
+      </c>
+      <c r="R80" t="s">
+        <v>15</v>
+      </c>
+      <c r="S80">
+        <v>-4958.0590000000002</v>
+      </c>
+      <c r="T80">
+        <v>99.904899999999998</v>
+      </c>
+      <c r="U80">
+        <v>4.8087E-3</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>100</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B81" t="s">
         <v>109</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M81" t="s">
         <v>26</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N81" t="s">
         <v>14</v>
       </c>
-      <c r="O76">
+      <c r="O81">
         <v>-4980.0590000000002</v>
       </c>
-      <c r="P76">
+      <c r="P81">
         <v>12</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="Q81" t="s">
         <v>15</v>
       </c>
-      <c r="R76" t="s">
+      <c r="R81" t="s">
         <v>15</v>
       </c>
-      <c r="S76">
+      <c r="S81">
         <v>-4956.0590000000002</v>
       </c>
-      <c r="T76">
+      <c r="T81">
         <v>99.905000000000001</v>
       </c>
-      <c r="U76">
+      <c r="U81">
         <v>9.806839999999999E-4</v>
       </c>
-      <c r="V76" s="3" t="s">
+      <c r="V81" s="3" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AJ76">
-    <sortCondition ref="S2:S76"/>
+  <sortState ref="A2:AJ81">
+    <sortCondition ref="S2:S81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
